--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FA3FD-9467-4A51-81AF-D73EF221793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D05F2-8D50-4F14-810C-99A97BA8C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
   <dimension ref="C1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D05F2-8D50-4F14-810C-99A97BA8C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383C448-A050-4642-A5F7-72B23AF2D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="990" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -1989,7 +1989,7 @@
   <dimension ref="C1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2109,7 +2109,7 @@
         <v>2001</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -2126,7 +2126,7 @@
         <v>2002</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -2143,7 +2143,7 @@
         <v>2003</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
@@ -2160,7 +2160,7 @@
         <v>3001</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>3002</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>3003</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
@@ -2211,7 +2211,7 @@
         <v>4001</v>
       </c>
       <c r="D15" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>4002</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -2245,7 +2245,7 @@
         <v>4003</v>
       </c>
       <c r="D17" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5">
         <v>3</v>
@@ -2262,7 +2262,7 @@
         <v>5001</v>
       </c>
       <c r="D18" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>5002</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>5003</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="5">
         <v>3</v>
@@ -2313,7 +2313,7 @@
         <v>6001</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -2330,7 +2330,7 @@
         <v>6002</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="5">
         <v>2</v>
@@ -2347,7 +2347,7 @@
         <v>6003</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23" s="5">
         <v>3</v>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383C448-A050-4642-A5F7-72B23AF2D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577CF8F-2C44-4FFB-BF2F-8E6B1B558FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="990" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>ShieldExp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命之盾等级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -124,6 +120,24 @@
   </si>
   <si>
     <t>100803;12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之盾等级2</t>
+  </si>
+  <si>
+    <t>生命之盾名字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐之盾1</t>
+  </si>
+  <si>
+    <t>潮汐之盾1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -358,6 +372,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1290,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,6 +1335,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="313">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1691,11 +1723,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:E6" totalsRowShown="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:F6" totalsRowShown="0">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
-    <tableColumn id="3" xr3:uid="{B7F3E600-3C1D-4BA7-8E5D-B2A24FA4C4AC}" name="生命之盾等级"/>
+    <tableColumn id="4" xr3:uid="{DAE96C78-CE00-4A08-8EA8-12EA91A29D01}" name="生命之盾名字"/>
+    <tableColumn id="3" xr3:uid="{B7F3E600-3C1D-4BA7-8E5D-B2A24FA4C4AC}" name="生命之盾等级2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1986,23 +2019,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G24"/>
+  <dimension ref="C1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="G1" s="6"/>
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="H1" s="6"/>
     </row>
-    <row r="3" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2010,16 +2043,19 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2027,16 +2063,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2044,323 +2083,380 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>100</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>200</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>300</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
         <v>2001</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>100</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
         <v>2002</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>200</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>15</v>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5">
         <v>2003</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>300</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5">
         <v>3001</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>100</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5">
         <v>3002</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>200</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5">
         <v>3003</v>
       </c>
       <c r="D14" s="5">
         <v>3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>300</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="5">
         <v>4001</v>
       </c>
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="5">
         <v>4002</v>
       </c>
       <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>200</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5">
         <v>4003</v>
       </c>
       <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>300</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="5">
         <v>5001</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>100</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>11</v>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5">
         <v>5002</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>200</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
+      <c r="H19" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="5">
         <v>5003</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>300</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="5">
         <v>6001</v>
       </c>
       <c r="D21" s="5">
         <v>6</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>100</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>11</v>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
         <v>6002</v>
       </c>
       <c r="D22" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>200</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="5">
         <v>6003</v>
       </c>
       <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>300</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>13</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="G24"/>
+    <row r="24" spans="3:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577CF8F-2C44-4FFB-BF2F-8E6B1B558FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AF7FC-A412-44CC-A73F-63A891ADAACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="990" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -135,9 +135,26 @@
   </si>
   <si>
     <t>潮汐之盾1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾1</t>
+    <t>潮汐之盾2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐之盾3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐之盾4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐之盾5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汐之盾6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2021,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2123,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
@@ -2143,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -2163,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2183,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -2203,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
@@ -2223,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2243,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -2263,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
@@ -2283,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -2303,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -2323,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5">
         <v>3</v>
@@ -2343,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -2363,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -2383,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" s="5">
         <v>3</v>
@@ -2403,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -2423,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -2443,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AF7FC-A412-44CC-A73F-63A891ADAACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DFA6CD-BC20-4C4D-AECA-B2ECB68A7219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -127,35 +127,371 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>生命之盾等级2</t>
-  </si>
-  <si>
-    <t>生命之盾名字</t>
+    <t>熔岩之魂1级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾1</t>
+    <t>熔岩之魂2级</t>
+  </si>
+  <si>
+    <t>熔岩之魂3级</t>
+  </si>
+  <si>
+    <t>熔岩之魂4级</t>
+  </si>
+  <si>
+    <t>熔岩之魂5级</t>
+  </si>
+  <si>
+    <t>熔岩之魂6级</t>
+  </si>
+  <si>
+    <t>熔岩之魂7级</t>
+  </si>
+  <si>
+    <t>熔岩之魂8级</t>
+  </si>
+  <si>
+    <t>熔岩之魂9级</t>
+  </si>
+  <si>
+    <t>熔岩之魂10级</t>
+  </si>
+  <si>
+    <t>熔岩之魂11级</t>
+  </si>
+  <si>
+    <t>熔岩之魂12级</t>
+  </si>
+  <si>
+    <t>熔岩之魂13级</t>
+  </si>
+  <si>
+    <t>熔岩之魂14级</t>
+  </si>
+  <si>
+    <t>熔岩之魂15级</t>
+  </si>
+  <si>
+    <t>等级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾2</t>
+    <t>名字</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾3</t>
+    <t>额外描述</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾4</t>
+    <t>c</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾5</t>
+    <t>巨龙之魂1级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾6</t>
+    <t>巨龙之魂2级</t>
+  </si>
+  <si>
+    <t>巨龙之魂3级</t>
+  </si>
+  <si>
+    <t>巨龙之魂4级</t>
+  </si>
+  <si>
+    <t>巨龙之魂5级</t>
+  </si>
+  <si>
+    <t>巨龙之魂6级</t>
+  </si>
+  <si>
+    <t>巨龙之魂7级</t>
+  </si>
+  <si>
+    <t>巨龙之魂8级</t>
+  </si>
+  <si>
+    <t>巨龙之魂9级</t>
+  </si>
+  <si>
+    <t>巨龙之魂10级</t>
+  </si>
+  <si>
+    <t>巨龙之魂11级</t>
+  </si>
+  <si>
+    <t>巨龙之魂12级</t>
+  </si>
+  <si>
+    <t>巨龙之魂13级</t>
+  </si>
+  <si>
+    <t>巨龙之魂14级</t>
+  </si>
+  <si>
+    <t>巨龙之魂15级</t>
+  </si>
+  <si>
+    <t>独兽之魂1级</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>独兽之魂2级</t>
+  </si>
+  <si>
+    <t>独兽之魂3级</t>
+  </si>
+  <si>
+    <t>独兽之魂4级</t>
+  </si>
+  <si>
+    <t>独兽之魂5级</t>
+  </si>
+  <si>
+    <t>独兽之魂6级</t>
+  </si>
+  <si>
+    <t>独兽之魂7级</t>
+  </si>
+  <si>
+    <t>独兽之魂8级</t>
+  </si>
+  <si>
+    <t>独兽之魂9级</t>
+  </si>
+  <si>
+    <t>独兽之魂10级</t>
+  </si>
+  <si>
+    <t>独兽之魂11级</t>
+  </si>
+  <si>
+    <t>独兽之魂12级</t>
+  </si>
+  <si>
+    <t>独兽之魂13级</t>
+  </si>
+  <si>
+    <t>独兽之魂14级</t>
+  </si>
+  <si>
+    <t>独兽之魂15级</t>
+  </si>
+  <si>
+    <t>愤怒之魂1级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒之魂2级</t>
+  </si>
+  <si>
+    <t>愤怒之魂3级</t>
+  </si>
+  <si>
+    <t>愤怒之魂4级</t>
+  </si>
+  <si>
+    <t>愤怒之魂5级</t>
+  </si>
+  <si>
+    <t>愤怒之魂6级</t>
+  </si>
+  <si>
+    <t>愤怒之魂7级</t>
+  </si>
+  <si>
+    <t>愤怒之魂8级</t>
+  </si>
+  <si>
+    <t>愤怒之魂9级</t>
+  </si>
+  <si>
+    <t>愤怒之魂10级</t>
+  </si>
+  <si>
+    <t>愤怒之魂11级</t>
+  </si>
+  <si>
+    <t>愤怒之魂12级</t>
+  </si>
+  <si>
+    <t>愤怒之魂13级</t>
+  </si>
+  <si>
+    <t>愤怒之魂14级</t>
+  </si>
+  <si>
+    <t>愤怒之魂15级</t>
+  </si>
+  <si>
+    <t>驱逐之魂1级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐之魂2级</t>
+  </si>
+  <si>
+    <t>驱逐之魂3级</t>
+  </si>
+  <si>
+    <t>驱逐之魂4级</t>
+  </si>
+  <si>
+    <t>驱逐之魂5级</t>
+  </si>
+  <si>
+    <t>驱逐之魂6级</t>
+  </si>
+  <si>
+    <t>驱逐之魂7级</t>
+  </si>
+  <si>
+    <t>驱逐之魂8级</t>
+  </si>
+  <si>
+    <t>驱逐之魂9级</t>
+  </si>
+  <si>
+    <t>驱逐之魂10级</t>
+  </si>
+  <si>
+    <t>驱逐之魂11级</t>
+  </si>
+  <si>
+    <t>驱逐之魂12级</t>
+  </si>
+  <si>
+    <t>驱逐之魂13级</t>
+  </si>
+  <si>
+    <t>驱逐之魂14级</t>
+  </si>
+  <si>
+    <t>驱逐之魂15级</t>
+  </si>
+  <si>
+    <t>生命之魂1级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之魂2级</t>
+  </si>
+  <si>
+    <t>生命之魂3级</t>
+  </si>
+  <si>
+    <t>生命之魂4级</t>
+  </si>
+  <si>
+    <t>生命之魂5级</t>
+  </si>
+  <si>
+    <t>生命之魂6级</t>
+  </si>
+  <si>
+    <t>生命之魂7级</t>
+  </si>
+  <si>
+    <t>生命之魂8级</t>
+  </si>
+  <si>
+    <t>生命之魂9级</t>
+  </si>
+  <si>
+    <t>生命之魂10级</t>
+  </si>
+  <si>
+    <t>生命之魂11级</t>
+  </si>
+  <si>
+    <t>生命之魂12级</t>
+  </si>
+  <si>
+    <t>生命之魂13级</t>
+  </si>
+  <si>
+    <t>生命之魂14级</t>
+  </si>
+  <si>
+    <t>生命之魂15级</t>
+  </si>
+  <si>
+    <t>熔岩之魂16级</t>
+  </si>
+  <si>
+    <t>熔岩之魂17级</t>
+  </si>
+  <si>
+    <t>熔岩之魂18级</t>
+  </si>
+  <si>
+    <t>熔岩之魂19级</t>
+  </si>
+  <si>
+    <t>熔岩之魂20级</t>
+  </si>
+  <si>
+    <t>独兽之魂16级</t>
+  </si>
+  <si>
+    <t>独兽之魂17级</t>
+  </si>
+  <si>
+    <t>独兽之魂18级</t>
+  </si>
+  <si>
+    <t>独兽之魂19级</t>
+  </si>
+  <si>
+    <t>独兽之魂20级</t>
+  </si>
+  <si>
+    <t>愤怒之魂16级</t>
+  </si>
+  <si>
+    <t>愤怒之魂17级</t>
+  </si>
+  <si>
+    <t>愤怒之魂18级</t>
+  </si>
+  <si>
+    <t>愤怒之魂19级</t>
+  </si>
+  <si>
+    <t>愤怒之魂20级</t>
+  </si>
+  <si>
+    <t>驱逐之魂16级</t>
+  </si>
+  <si>
+    <t>驱逐之魂17级</t>
+  </si>
+  <si>
+    <t>驱逐之魂18级</t>
+  </si>
+  <si>
+    <t>驱逐之魂19级</t>
+  </si>
+  <si>
+    <t>驱逐之魂20级</t>
+  </si>
+  <si>
+    <t>生命之魂16级</t>
+  </si>
+  <si>
+    <t>生命之魂17级</t>
+  </si>
+  <si>
+    <t>生命之魂18级</t>
+  </si>
+  <si>
+    <t>生命之魂19级</t>
+  </si>
+  <si>
+    <t>生命之魂20级</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1353,6 +1689,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1671,7 +2010,129 @@
     <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
     <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1695,8 +2156,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1740,12 +2201,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:F6" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I125" totalsRowShown="0">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
-    <tableColumn id="4" xr3:uid="{DAE96C78-CE00-4A08-8EA8-12EA91A29D01}" name="生命之盾名字"/>
-    <tableColumn id="3" xr3:uid="{B7F3E600-3C1D-4BA7-8E5D-B2A24FA4C4AC}" name="生命之盾等级2"/>
+    <tableColumn id="4" xr3:uid="{DAE96C78-CE00-4A08-8EA8-12EA91A29D01}" name="名字"/>
+    <tableColumn id="3" xr3:uid="{B7F3E600-3C1D-4BA7-8E5D-B2A24FA4C4AC}" name="等级"/>
+    <tableColumn id="5" xr3:uid="{98C6B7B8-A7AC-4864-917D-FFD543281E57}" name="生命之盾经验" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{1BE83727-6D0F-4EA7-8750-FEB3A8EA37A4}" name="额外属性" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DC17AAA9-B766-4795-A7E3-FEDEE445E86E}" name="额外描述" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2036,23 +2500,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H24"/>
+  <dimension ref="C1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="23.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H1" s="6"/>
-    </row>
-    <row r="3" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2060,10 +2530,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -2071,8 +2541,11 @@
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2091,8 +2564,11 @@
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2111,8 +2587,11 @@
       <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
@@ -2120,360 +2599,2757 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
       </c>
       <c r="G8" s="5">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
-        <v>2002</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>200</v>
+        <v>22500</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5">
-        <v>2003</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5">
-        <v>300</v>
+        <v>32500</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5">
-        <v>3001</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
-        <v>100</v>
+        <v>45000</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5">
-        <v>3002</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>200</v>
+        <v>60000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5">
-        <v>3003</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5">
-        <v>300</v>
+        <v>80000</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="5">
-        <v>4001</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" s="5">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="5">
-        <v>4002</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="5">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G16" s="5">
-        <v>200</v>
+        <v>120000</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5">
-        <v>4003</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G17" s="5">
-        <v>300</v>
+        <v>140000</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="5">
-        <v>5001</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F18" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5">
-        <v>100</v>
+        <v>160000</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5">
-        <v>5002</v>
+        <v>1014</v>
       </c>
       <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5">
-        <v>200</v>
+        <v>180000</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="5">
-        <v>5003</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G20" s="5">
-        <v>300</v>
+        <v>200000</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="5">
+        <f>C20+1</f>
+        <v>1016</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="5">
+        <f>F20+1</f>
+        <v>16</v>
+      </c>
+      <c r="G21" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:C25" si="0">C21+1</f>
+        <v>1017</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F25" si="1">F21+1</f>
+        <v>17</v>
+      </c>
+      <c r="G22" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>1018</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G23" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G24" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="5">
+        <v>2001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="5">
+        <v>2003</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="5">
+        <v>2004</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="5">
+        <v>2005</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="5">
+        <v>2006</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="5">
+        <v>2008</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="5">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="5">
+        <v>2009</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5">
+        <v>9</v>
+      </c>
+      <c r="G34" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="5">
+        <v>2010</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="5">
+        <v>2011</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5">
+        <v>11</v>
+      </c>
+      <c r="G36" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="5">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="5">
+        <v>2013</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="5">
+        <v>13</v>
+      </c>
+      <c r="G38" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="5">
+        <v>14</v>
+      </c>
+      <c r="G39" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="5">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="5">
+        <f>C40+1</f>
+        <v>2016</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="5">
+        <f>F40+1</f>
+        <v>16</v>
+      </c>
+      <c r="G41" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="5">
+        <f t="shared" ref="C42:C45" si="2">C41+1</f>
+        <v>2017</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:F45" si="3">F41+1</f>
+        <v>17</v>
+      </c>
+      <c r="G42" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="5">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G43" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="5">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G44" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="5">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G45" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="5">
+        <v>3001</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="5">
+        <v>3002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="5">
+        <v>3003</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3</v>
+      </c>
+      <c r="G48" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="5">
+        <v>3004</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="5">
+        <v>3005</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="5">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="5">
+        <v>3006</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="5">
+        <v>6</v>
+      </c>
+      <c r="G51" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="5">
+        <v>3007</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="5">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="5">
+        <v>3008</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="5">
+        <v>8</v>
+      </c>
+      <c r="G53" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="5">
+        <v>3009</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="5">
+        <v>9</v>
+      </c>
+      <c r="G54" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="5">
+        <v>3010</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="5">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="5">
+        <v>3011</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="5">
+        <v>11</v>
+      </c>
+      <c r="G56" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="5">
+        <v>3012</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="5">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="5">
+        <v>3013</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="5">
+        <v>13</v>
+      </c>
+      <c r="G58" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="5">
+        <v>3014</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="5">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="5">
+        <v>3015</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="5">
+        <v>15</v>
+      </c>
+      <c r="G60" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="5">
+        <f>C60+1</f>
+        <v>3016</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="5">
+        <f>F60+1</f>
+        <v>16</v>
+      </c>
+      <c r="G61" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="5">
+        <f t="shared" ref="C62:C65" si="4">C61+1</f>
+        <v>3017</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" ref="F62:F65" si="5">F61+1</f>
+        <v>17</v>
+      </c>
+      <c r="G62" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="5">
+        <f t="shared" si="4"/>
+        <v>3018</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G63" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="5">
+        <f t="shared" si="4"/>
+        <v>3019</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G64" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="5">
+        <f t="shared" si="4"/>
+        <v>3020</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="G65" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
+        <v>4001</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="5">
+        <v>4002</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="5">
+        <v>4003</v>
+      </c>
+      <c r="D68" s="5">
+        <v>4</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="5">
+        <v>3</v>
+      </c>
+      <c r="G68" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="5">
+        <v>4004</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="5">
+        <v>4</v>
+      </c>
+      <c r="G69" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="5">
+        <v>4005</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="5">
+        <v>5</v>
+      </c>
+      <c r="G70" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="5">
+        <v>4006</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="5">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="5">
+        <v>4007</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="5">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="5">
+        <v>4008</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="5">
+        <v>8</v>
+      </c>
+      <c r="G73" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="5">
+        <v>4009</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="5">
+        <v>9</v>
+      </c>
+      <c r="G74" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="5">
+        <v>4010</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" s="5">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="5">
+        <v>4011</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" s="5">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="5">
+        <v>4012</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="5">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="5">
+        <v>4013</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="5">
+        <v>13</v>
+      </c>
+      <c r="G78" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="5">
+        <v>4014</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="5">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="5">
+        <v>4015</v>
+      </c>
+      <c r="D80" s="5">
+        <v>4</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="5">
+        <v>15</v>
+      </c>
+      <c r="G80" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="5">
+        <f>C80+1</f>
+        <v>4016</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="5">
+        <f>F80+1</f>
+        <v>16</v>
+      </c>
+      <c r="G81" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="5">
+        <f t="shared" ref="C82:C85" si="6">C81+1</f>
+        <v>4017</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" ref="F82:F85" si="7">F81+1</f>
+        <v>17</v>
+      </c>
+      <c r="G82" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="5">
+        <f t="shared" si="6"/>
+        <v>4018</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="G83" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="5">
+        <f t="shared" si="6"/>
+        <v>4019</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G84" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="5">
+        <f t="shared" si="6"/>
+        <v>4020</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G85" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D87" s="5">
+        <v>5</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" s="5">
+        <v>2</v>
+      </c>
+      <c r="G87" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="5">
+        <v>5003</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" s="5">
+        <v>3</v>
+      </c>
+      <c r="G88" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="5">
+        <v>5004</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" s="5">
+        <v>4</v>
+      </c>
+      <c r="G89" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="5">
+        <v>5005</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="5">
+        <v>5</v>
+      </c>
+      <c r="G90" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="5">
+        <v>5006</v>
+      </c>
+      <c r="D91" s="5">
+        <v>5</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6</v>
+      </c>
+      <c r="G91" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="5">
+        <v>5007</v>
+      </c>
+      <c r="D92" s="5">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="5">
+        <v>7</v>
+      </c>
+      <c r="G92" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="5">
+        <v>5008</v>
+      </c>
+      <c r="D93" s="5">
+        <v>5</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="5">
+        <v>8</v>
+      </c>
+      <c r="G93" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="5">
+        <v>5009</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="5">
+        <v>9</v>
+      </c>
+      <c r="G94" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="5">
+        <v>5010</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="5">
+        <v>10</v>
+      </c>
+      <c r="G95" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="5">
+        <v>5011</v>
+      </c>
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="5">
+        <v>11</v>
+      </c>
+      <c r="G96" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="5">
+        <v>5012</v>
+      </c>
+      <c r="D97" s="5">
+        <v>5</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F97" s="5">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="5">
+        <v>5013</v>
+      </c>
+      <c r="D98" s="5">
+        <v>5</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" s="5">
+        <v>13</v>
+      </c>
+      <c r="G98" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="5">
+        <v>5014</v>
+      </c>
+      <c r="D99" s="5">
+        <v>5</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="5">
+        <v>14</v>
+      </c>
+      <c r="G99" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="5">
+        <v>5015</v>
+      </c>
+      <c r="D100" s="5">
+        <v>5</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" s="5">
+        <v>15</v>
+      </c>
+      <c r="G100" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="5">
+        <f>C100+1</f>
+        <v>5016</v>
+      </c>
+      <c r="D101" s="5">
+        <v>5</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="5">
+        <f>F100+1</f>
+        <v>16</v>
+      </c>
+      <c r="G101" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="5">
+        <f t="shared" ref="C102:C105" si="8">C101+1</f>
+        <v>5017</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" ref="F102:F105" si="9">F101+1</f>
+        <v>17</v>
+      </c>
+      <c r="G102" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="5">
+        <f t="shared" si="8"/>
+        <v>5018</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G103" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="5">
+        <f t="shared" si="8"/>
+        <v>5019</v>
+      </c>
+      <c r="D104" s="5">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G104" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="5">
+        <f t="shared" si="8"/>
+        <v>5020</v>
+      </c>
+      <c r="D105" s="5">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G105" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="5">
         <v>6001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D106" s="5">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E106" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G106" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="5">
+        <v>6002</v>
+      </c>
+      <c r="D107" s="5">
+        <v>6</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="5">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="5">
+        <v>6003</v>
+      </c>
+      <c r="D108" s="5">
+        <v>6</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="5">
+        <v>3</v>
+      </c>
+      <c r="G108" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="5">
+        <v>6004</v>
+      </c>
+      <c r="D109" s="5">
+        <v>6</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" s="5">
+        <v>4</v>
+      </c>
+      <c r="G109" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="5">
+        <v>6005</v>
+      </c>
+      <c r="D110" s="5">
+        <v>6</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="F110" s="5">
+        <v>5</v>
+      </c>
+      <c r="G110" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="5">
+        <v>6006</v>
+      </c>
+      <c r="D111" s="5">
+        <v>6</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="5">
+        <v>6</v>
+      </c>
+      <c r="G111" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="5">
+        <v>6007</v>
+      </c>
+      <c r="D112" s="5">
+        <v>6</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="5">
+        <v>7</v>
+      </c>
+      <c r="G112" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="5">
-        <v>6002</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="I112" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="5">
+        <v>6008</v>
+      </c>
+      <c r="D113" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>200</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="E113" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F113" s="5">
+        <v>8</v>
+      </c>
+      <c r="G113" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="5">
-        <v>6003</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="I113" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="5">
+        <v>6009</v>
+      </c>
+      <c r="D114" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5">
-        <v>300</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="E114" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" s="5">
+        <v>9</v>
+      </c>
+      <c r="G114" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="H24"/>
+      <c r="I114" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="5">
+        <v>6010</v>
+      </c>
+      <c r="D115" s="5">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" s="5">
+        <v>10</v>
+      </c>
+      <c r="G115" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="5">
+        <v>6011</v>
+      </c>
+      <c r="D116" s="5">
+        <v>6</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116" s="5">
+        <v>11</v>
+      </c>
+      <c r="G116" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="5">
+        <v>6012</v>
+      </c>
+      <c r="D117" s="5">
+        <v>6</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="5">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="5">
+        <v>6013</v>
+      </c>
+      <c r="D118" s="5">
+        <v>6</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118" s="5">
+        <v>13</v>
+      </c>
+      <c r="G118" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="5">
+        <v>6014</v>
+      </c>
+      <c r="D119" s="5">
+        <v>6</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F119" s="5">
+        <v>14</v>
+      </c>
+      <c r="G119" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="5">
+        <v>6015</v>
+      </c>
+      <c r="D120" s="5">
+        <v>6</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" s="5">
+        <v>15</v>
+      </c>
+      <c r="G120" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="5">
+        <f>C120+1</f>
+        <v>6016</v>
+      </c>
+      <c r="D121" s="5">
+        <v>6</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="5">
+        <f>F120+1</f>
+        <v>16</v>
+      </c>
+      <c r="G121" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="5">
+        <f t="shared" ref="C122:C125" si="10">C121+1</f>
+        <v>6017</v>
+      </c>
+      <c r="D122" s="5">
+        <v>6</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" ref="F122:F125" si="11">F121+1</f>
+        <v>17</v>
+      </c>
+      <c r="G122" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="5">
+        <f t="shared" si="10"/>
+        <v>6018</v>
+      </c>
+      <c r="D123" s="5">
+        <v>6</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="G123" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="5">
+        <f t="shared" si="10"/>
+        <v>6019</v>
+      </c>
+      <c r="D124" s="5">
+        <v>6</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="G124" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="5">
+        <f t="shared" si="10"/>
+        <v>6020</v>
+      </c>
+      <c r="D125" s="5">
+        <v>6</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G125" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DFA6CD-BC20-4C4D-AECA-B2ECB68A7219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC01A14-8988-4F7C-BEBD-65BCFBB138A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="371">
   <si>
     <t>Id</t>
   </si>
@@ -99,30 +99,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>100603;10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ShieldName</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -492,6 +468,766 @@
   </si>
   <si>
     <t>生命之魂20级</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害2%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害3%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害4%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害5%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害6%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害7%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害8%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害9%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害10%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害11%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害12%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害13%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害14%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害15%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害16%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害17%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害18%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害19%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害20%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害2%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害3%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害4%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害5%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害6%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害7%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害8%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害9%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害10%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害11%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害12%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害13%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害14%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害15%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害16%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害17%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害18%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害19%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害20%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害0.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害2%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害3%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害4%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害5%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害6%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害7%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害8%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害9%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害10%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害1.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害2.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害3.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害4.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害5.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害6.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害7.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害8.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害9.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率16%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率17%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率18%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率19%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率2%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率3%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率4%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率5%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率6%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率7%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率8%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率9%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率10%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率11%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率12%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率13%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率14%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率15%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率20%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率2%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率3%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率4%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率5%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率6%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率7%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率8%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率9%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率10%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率11%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率12%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率13%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率14%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率15%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率16%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率17%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率18%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率19%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率20%</t>
+  </si>
+  <si>
+    <t>生命上限提升+1%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升+2%</t>
+  </si>
+  <si>
+    <t>生命上限提升+3%</t>
+  </si>
+  <si>
+    <t>生命上限提升+4%</t>
+  </si>
+  <si>
+    <t>生命上限提升+5%</t>
+  </si>
+  <si>
+    <t>生命上限提升+6%</t>
+  </si>
+  <si>
+    <t>生命上限提升+7%</t>
+  </si>
+  <si>
+    <t>生命上限提升+8%</t>
+  </si>
+  <si>
+    <t>生命上限提升+9%</t>
+  </si>
+  <si>
+    <t>生命上限提升+10%</t>
+  </si>
+  <si>
+    <t>生命上限提升+11%</t>
+  </si>
+  <si>
+    <t>生命上限提升+12%</t>
+  </si>
+  <si>
+    <t>生命上限提升+13%</t>
+  </si>
+  <si>
+    <t>生命上限提升+14%</t>
+  </si>
+  <si>
+    <t>生命上限提升+15%</t>
+  </si>
+  <si>
+    <t>生命上限提升+16%</t>
+  </si>
+  <si>
+    <t>生命上限提升+17%</t>
+  </si>
+  <si>
+    <t>生命上限提升+18%</t>
+  </si>
+  <si>
+    <t>生命上限提升+19%</t>
+  </si>
+  <si>
+    <t>生命上限提升+20%</t>
+  </si>
+  <si>
+    <t>205703;0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205703;0.02</t>
+  </si>
+  <si>
+    <t>205703;0.03</t>
+  </si>
+  <si>
+    <t>205703;0.04</t>
+  </si>
+  <si>
+    <t>205703;0.05</t>
+  </si>
+  <si>
+    <t>205703;0.06</t>
+  </si>
+  <si>
+    <t>205703;0.07</t>
+  </si>
+  <si>
+    <t>205703;0.08</t>
+  </si>
+  <si>
+    <t>205703;0.09</t>
+  </si>
+  <si>
+    <t>205703;0.10</t>
+  </si>
+  <si>
+    <t>205703;0.11</t>
+  </si>
+  <si>
+    <t>205703;0.12</t>
+  </si>
+  <si>
+    <t>205703;0.13</t>
+  </si>
+  <si>
+    <t>205703;0.14</t>
+  </si>
+  <si>
+    <t>205703;0.15</t>
+  </si>
+  <si>
+    <t>205703;0.16</t>
+  </si>
+  <si>
+    <t>205703;0.17</t>
+  </si>
+  <si>
+    <t>205703;0.18</t>
+  </si>
+  <si>
+    <t>205703;0.19</t>
+  </si>
+  <si>
+    <t>205703;0.20</t>
+  </si>
+  <si>
+    <t>205803;0.01</t>
+  </si>
+  <si>
+    <t>205803;0.02</t>
+  </si>
+  <si>
+    <t>205803;0.03</t>
+  </si>
+  <si>
+    <t>205803;0.04</t>
+  </si>
+  <si>
+    <t>205803;0.05</t>
+  </si>
+  <si>
+    <t>205803;0.06</t>
+  </si>
+  <si>
+    <t>205803;0.07</t>
+  </si>
+  <si>
+    <t>205803;0.08</t>
+  </si>
+  <si>
+    <t>205803;0.09</t>
+  </si>
+  <si>
+    <t>205803;0.10</t>
+  </si>
+  <si>
+    <t>205803;0.11</t>
+  </si>
+  <si>
+    <t>205803;0.12</t>
+  </si>
+  <si>
+    <t>205803;0.13</t>
+  </si>
+  <si>
+    <t>205803;0.14</t>
+  </si>
+  <si>
+    <t>205803;0.15</t>
+  </si>
+  <si>
+    <t>205803;0.16</t>
+  </si>
+  <si>
+    <t>205803;0.17</t>
+  </si>
+  <si>
+    <t>205803;0.18</t>
+  </si>
+  <si>
+    <t>205803;0.19</t>
+  </si>
+  <si>
+    <t>205803;0.20</t>
+  </si>
+  <si>
+    <t>205903;0.005</t>
+  </si>
+  <si>
+    <t>205903;0.01</t>
+  </si>
+  <si>
+    <t>205903;0.015</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.02</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.025</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.03</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.035</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.04</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.045</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.05</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.055</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.06</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.065</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.07</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.075</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.085</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.09</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.095</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>206003;0.01</t>
+  </si>
+  <si>
+    <t>206003;0.02</t>
+  </si>
+  <si>
+    <t>206003;0.03</t>
+  </si>
+  <si>
+    <t>206003;0.04</t>
+  </si>
+  <si>
+    <t>206003;0.05</t>
+  </si>
+  <si>
+    <t>206003;0.06</t>
+  </si>
+  <si>
+    <t>206003;0.07</t>
+  </si>
+  <si>
+    <t>206003;0.08</t>
+  </si>
+  <si>
+    <t>206003;0.09</t>
+  </si>
+  <si>
+    <t>206003;0.10</t>
+  </si>
+  <si>
+    <t>206003;0.11</t>
+  </si>
+  <si>
+    <t>206003;0.12</t>
+  </si>
+  <si>
+    <t>206003;0.13</t>
+  </si>
+  <si>
+    <t>206003;0.14</t>
+  </si>
+  <si>
+    <t>206003;0.15</t>
+  </si>
+  <si>
+    <t>206003;0.16</t>
+  </si>
+  <si>
+    <t>206003;0.17</t>
+  </si>
+  <si>
+    <t>206003;0.18</t>
+  </si>
+  <si>
+    <t>206003;0.19</t>
+  </si>
+  <si>
+    <t>206003;0.20</t>
+  </si>
+  <si>
+    <t>206103;0.01</t>
+  </si>
+  <si>
+    <t>206103;0.02</t>
+  </si>
+  <si>
+    <t>206103;0.03</t>
+  </si>
+  <si>
+    <t>206103;0.04</t>
+  </si>
+  <si>
+    <t>206103;0.05</t>
+  </si>
+  <si>
+    <t>206103;0.06</t>
+  </si>
+  <si>
+    <t>206103;0.07</t>
+  </si>
+  <si>
+    <t>206103;0.08</t>
+  </si>
+  <si>
+    <t>206103;0.09</t>
+  </si>
+  <si>
+    <t>206103;0.10</t>
+  </si>
+  <si>
+    <t>206103;0.11</t>
+  </si>
+  <si>
+    <t>206103;0.12</t>
+  </si>
+  <si>
+    <t>206103;0.13</t>
+  </si>
+  <si>
+    <t>206103;0.14</t>
+  </si>
+  <si>
+    <t>206103;0.15</t>
+  </si>
+  <si>
+    <t>206103;0.16</t>
+  </si>
+  <si>
+    <t>206103;0.17</t>
+  </si>
+  <si>
+    <t>206103;0.18</t>
+  </si>
+  <si>
+    <t>206103;0.19</t>
+  </si>
+  <si>
+    <t>206103;0.20</t>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.02</t>
+  </si>
+  <si>
+    <t>100202;0.03</t>
+  </si>
+  <si>
+    <t>100202;0.04</t>
+  </si>
+  <si>
+    <t>100202;0.05</t>
+  </si>
+  <si>
+    <t>100202;0.06</t>
+  </si>
+  <si>
+    <t>100202;0.07</t>
+  </si>
+  <si>
+    <t>100202;0.08</t>
+  </si>
+  <si>
+    <t>100202;0.09</t>
+  </si>
+  <si>
+    <t>100202;0.10</t>
+  </si>
+  <si>
+    <t>100202;0.11</t>
+  </si>
+  <si>
+    <t>100202;0.12</t>
+  </si>
+  <si>
+    <t>100202;0.13</t>
+  </si>
+  <si>
+    <t>100202;0.14</t>
+  </si>
+  <si>
+    <t>100202;0.15</t>
+  </si>
+  <si>
+    <t>100202;0.16</t>
+  </si>
+  <si>
+    <t>100202;0.17</t>
+  </si>
+  <si>
+    <t>100202;0.18</t>
+  </si>
+  <si>
+    <t>100202;0.19</t>
+  </si>
+  <si>
+    <t>100202;0.20</t>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2502,15 +3238,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="9" width="23.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2519,7 +3256,7 @@
     </row>
     <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2530,10 +3267,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -2542,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2553,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
@@ -2565,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2599,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2608,10 +3345,10 @@
         <v>3000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2622,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
@@ -2631,10 +3368,10 @@
         <v>6000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2645,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
@@ -2654,10 +3391,10 @@
         <v>10000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2668,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -2677,10 +3414,10 @@
         <v>15000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2691,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
@@ -2700,10 +3437,10 @@
         <v>22500</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2714,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
         <v>6</v>
@@ -2723,10 +3460,10 @@
         <v>32500</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2737,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5">
         <v>7</v>
@@ -2746,10 +3483,10 @@
         <v>45000</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2760,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5">
         <v>8</v>
@@ -2769,10 +3506,10 @@
         <v>60000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2783,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5">
         <v>9</v>
@@ -2792,10 +3529,10 @@
         <v>80000</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2806,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5">
         <v>10</v>
@@ -2815,10 +3552,10 @@
         <v>100000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2829,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5">
         <v>11</v>
@@ -2838,10 +3575,10 @@
         <v>120000</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2852,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5">
         <v>12</v>
@@ -2861,10 +3598,10 @@
         <v>140000</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2875,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5">
         <v>13</v>
@@ -2884,10 +3621,10 @@
         <v>160000</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2898,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5">
         <v>14</v>
@@ -2907,10 +3644,10 @@
         <v>180000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2921,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5">
         <v>15</v>
@@ -2930,10 +3667,10 @@
         <v>200000</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2945,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F21" s="5">
         <f>F20+1</f>
@@ -2955,9 +3692,11 @@
         <v>230000</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
@@ -2968,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F25" si="1">F21+1</f>
@@ -2978,9 +3717,11 @@
         <v>270000</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="5">
@@ -2991,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
@@ -3001,9 +3742,11 @@
         <v>320000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="5">
@@ -3014,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
@@ -3024,9 +3767,11 @@
         <v>380000</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="5">
@@ -3037,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
@@ -3047,9 +3792,11 @@
         <v>450000</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5">
@@ -3059,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -3068,10 +3815,10 @@
         <v>3000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3082,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -3091,10 +3838,10 @@
         <v>6000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3105,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F28" s="5">
         <v>3</v>
@@ -3114,10 +3861,10 @@
         <v>10000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3128,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -3137,10 +3884,10 @@
         <v>15000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3151,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5">
         <v>5</v>
@@ -3160,10 +3907,10 @@
         <v>22500</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3174,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5">
         <v>6</v>
@@ -3183,10 +3930,10 @@
         <v>32500</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3197,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5">
         <v>7</v>
@@ -3206,10 +3953,10 @@
         <v>45000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3220,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" s="5">
         <v>8</v>
@@ -3229,10 +3976,10 @@
         <v>60000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3243,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5">
         <v>9</v>
@@ -3252,10 +3999,10 @@
         <v>80000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3266,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F35" s="5">
         <v>10</v>
@@ -3275,10 +4022,10 @@
         <v>100000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3289,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F36" s="5">
         <v>11</v>
@@ -3298,10 +4045,10 @@
         <v>120000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3312,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="5">
         <v>12</v>
@@ -3321,10 +4068,10 @@
         <v>140000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3335,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5">
         <v>13</v>
@@ -3344,10 +4091,10 @@
         <v>160000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3358,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F39" s="5">
         <v>14</v>
@@ -3367,10 +4114,10 @@
         <v>180000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,7 +4128,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F40" s="5">
         <v>15</v>
@@ -3390,10 +4137,10 @@
         <v>200000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3405,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F41" s="5">
         <f>F40+1</f>
@@ -3415,9 +4162,11 @@
         <v>230000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
@@ -3428,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ref="F42:F45" si="3">F41+1</f>
@@ -3438,9 +4187,11 @@
         <v>270000</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="43" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5">
@@ -3451,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="3"/>
@@ -3461,9 +4212,11 @@
         <v>320000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="7"/>
+        <v>287</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="44" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5">
@@ -3474,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="3"/>
@@ -3484,9 +4237,11 @@
         <v>380000</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="7"/>
+        <v>288</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5">
@@ -3497,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="3"/>
@@ -3507,9 +4262,11 @@
         <v>450000</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5">
@@ -3519,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -3528,10 +4285,10 @@
         <v>3000</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3542,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -3551,10 +4308,10 @@
         <v>6000</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3565,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F48" s="5">
         <v>3</v>
@@ -3574,10 +4331,10 @@
         <v>10000</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3588,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F49" s="5">
         <v>4</v>
@@ -3597,10 +4354,10 @@
         <v>15000</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3611,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F50" s="5">
         <v>5</v>
@@ -3620,10 +4377,10 @@
         <v>22500</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3634,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F51" s="5">
         <v>6</v>
@@ -3643,10 +4400,10 @@
         <v>32500</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3657,7 +4414,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F52" s="5">
         <v>7</v>
@@ -3666,10 +4423,10 @@
         <v>45000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3680,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F53" s="5">
         <v>8</v>
@@ -3689,10 +4446,10 @@
         <v>60000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3703,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F54" s="5">
         <v>9</v>
@@ -3712,10 +4469,10 @@
         <v>80000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3726,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F55" s="5">
         <v>10</v>
@@ -3735,10 +4492,10 @@
         <v>100000</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3749,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F56" s="5">
         <v>11</v>
@@ -3758,10 +4515,10 @@
         <v>120000</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3772,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F57" s="5">
         <v>12</v>
@@ -3781,10 +4538,10 @@
         <v>140000</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3795,7 +4552,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F58" s="5">
         <v>13</v>
@@ -3804,10 +4561,10 @@
         <v>160000</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3818,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F59" s="5">
         <v>14</v>
@@ -3827,10 +4584,10 @@
         <v>180000</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3841,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F60" s="5">
         <v>15</v>
@@ -3850,10 +4607,10 @@
         <v>200000</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3865,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F61" s="5">
         <f>F60+1</f>
@@ -3875,9 +4632,11 @@
         <v>230000</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
@@ -3888,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" ref="F62:F65" si="5">F61+1</f>
@@ -3898,9 +4657,11 @@
         <v>270000</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="5">
@@ -3911,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="5"/>
@@ -3921,9 +4682,11 @@
         <v>320000</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5">
@@ -3934,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="5"/>
@@ -3944,9 +4707,11 @@
         <v>380000</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
@@ -3957,7 +4722,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="5"/>
@@ -3967,9 +4732,11 @@
         <v>450000</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="5">
@@ -3979,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F66" s="5">
         <v>1</v>
@@ -3988,10 +4755,10 @@
         <v>3000</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4002,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F67" s="5">
         <v>2</v>
@@ -4011,10 +4778,10 @@
         <v>6000</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4025,7 +4792,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F68" s="5">
         <v>3</v>
@@ -4034,10 +4801,10 @@
         <v>10000</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4048,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F69" s="5">
         <v>4</v>
@@ -4057,10 +4824,10 @@
         <v>15000</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4071,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F70" s="5">
         <v>5</v>
@@ -4080,10 +4847,10 @@
         <v>22500</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4094,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F71" s="5">
         <v>6</v>
@@ -4103,10 +4870,10 @@
         <v>32500</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4117,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F72" s="5">
         <v>7</v>
@@ -4126,10 +4893,10 @@
         <v>45000</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4140,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F73" s="5">
         <v>8</v>
@@ -4149,10 +4916,10 @@
         <v>60000</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4163,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F74" s="5">
         <v>9</v>
@@ -4172,10 +4939,10 @@
         <v>80000</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,7 +4953,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F75" s="5">
         <v>10</v>
@@ -4195,10 +4962,10 @@
         <v>100000</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F76" s="5">
         <v>11</v>
@@ -4218,10 +4985,10 @@
         <v>120000</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4232,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F77" s="5">
         <v>12</v>
@@ -4241,10 +5008,10 @@
         <v>140000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4255,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F78" s="5">
         <v>13</v>
@@ -4264,10 +5031,10 @@
         <v>160000</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F79" s="5">
         <v>14</v>
@@ -4287,10 +5054,10 @@
         <v>180000</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4301,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F80" s="5">
         <v>15</v>
@@ -4310,10 +5077,10 @@
         <v>200000</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4325,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F81" s="5">
         <f>F80+1</f>
@@ -4335,9 +5102,11 @@
         <v>230000</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="7"/>
+        <v>325</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="82" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="5">
@@ -4348,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F82" s="5">
         <f t="shared" ref="F82:F85" si="7">F81+1</f>
@@ -4358,9 +5127,11 @@
         <v>270000</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="7"/>
+        <v>326</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="83" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="5">
@@ -4371,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F83" s="5">
         <f t="shared" si="7"/>
@@ -4381,9 +5152,11 @@
         <v>320000</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="7"/>
+        <v>327</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="84" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="5">
@@ -4394,7 +5167,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F84" s="5">
         <f t="shared" si="7"/>
@@ -4404,9 +5177,11 @@
         <v>380000</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="85" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="5">
@@ -4417,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F85" s="5">
         <f t="shared" si="7"/>
@@ -4427,9 +5202,11 @@
         <v>450000</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="7"/>
+        <v>329</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="5">
@@ -4439,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F86" s="5">
         <v>1</v>
@@ -4448,10 +5225,10 @@
         <v>3000</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4462,7 +5239,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F87" s="5">
         <v>2</v>
@@ -4471,10 +5248,10 @@
         <v>6000</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F88" s="5">
         <v>3</v>
@@ -4494,10 +5271,10 @@
         <v>10000</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4508,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
@@ -4517,10 +5294,10 @@
         <v>15000</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4531,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F90" s="5">
         <v>5</v>
@@ -4540,10 +5317,10 @@
         <v>22500</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F91" s="5">
         <v>6</v>
@@ -4563,10 +5340,10 @@
         <v>32500</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4577,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F92" s="5">
         <v>7</v>
@@ -4586,10 +5363,10 @@
         <v>45000</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4600,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F93" s="5">
         <v>8</v>
@@ -4609,10 +5386,10 @@
         <v>60000</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4623,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F94" s="5">
         <v>9</v>
@@ -4632,10 +5409,10 @@
         <v>80000</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4646,7 +5423,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F95" s="5">
         <v>10</v>
@@ -4655,10 +5432,10 @@
         <v>100000</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,7 +5446,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F96" s="5">
         <v>11</v>
@@ -4678,10 +5455,10 @@
         <v>120000</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4692,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F97" s="5">
         <v>12</v>
@@ -4701,10 +5478,10 @@
         <v>140000</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4715,7 +5492,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F98" s="5">
         <v>13</v>
@@ -4724,10 +5501,10 @@
         <v>160000</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4738,7 +5515,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F99" s="5">
         <v>14</v>
@@ -4747,10 +5524,10 @@
         <v>180000</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4761,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F100" s="5">
         <v>15</v>
@@ -4770,10 +5547,10 @@
         <v>200000</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4785,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F101" s="5">
         <f>F100+1</f>
@@ -4795,9 +5572,11 @@
         <v>230000</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="7"/>
+        <v>345</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="5">
@@ -4808,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F102" s="5">
         <f t="shared" ref="F102:F105" si="9">F101+1</f>
@@ -4818,9 +5597,11 @@
         <v>270000</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="7"/>
+        <v>346</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="5">
@@ -4831,7 +5612,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F103" s="5">
         <f t="shared" si="9"/>
@@ -4841,9 +5622,11 @@
         <v>320000</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="5">
@@ -4854,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" si="9"/>
@@ -4864,9 +5647,11 @@
         <v>380000</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="5">
@@ -4877,7 +5662,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F105" s="5">
         <f t="shared" si="9"/>
@@ -4887,9 +5672,11 @@
         <v>450000</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="5">
@@ -4899,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -4908,10 +5695,10 @@
         <v>3000</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4922,7 +5709,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
@@ -4931,10 +5718,10 @@
         <v>6000</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4945,7 +5732,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F108" s="5">
         <v>3</v>
@@ -4954,10 +5741,10 @@
         <v>10000</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4968,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
@@ -4977,10 +5764,10 @@
         <v>15000</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4991,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F110" s="5">
         <v>5</v>
@@ -5000,10 +5787,10 @@
         <v>22500</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5014,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F111" s="5">
         <v>6</v>
@@ -5023,10 +5810,10 @@
         <v>32500</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5037,7 +5824,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F112" s="5">
         <v>7</v>
@@ -5046,10 +5833,10 @@
         <v>45000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5060,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F113" s="5">
         <v>8</v>
@@ -5069,10 +5856,10 @@
         <v>60000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5083,7 +5870,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F114" s="5">
         <v>9</v>
@@ -5092,10 +5879,10 @@
         <v>80000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5106,7 +5893,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F115" s="5">
         <v>10</v>
@@ -5115,10 +5902,10 @@
         <v>100000</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>13</v>
+        <v>359</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5129,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F116" s="5">
         <v>11</v>
@@ -5138,10 +5925,10 @@
         <v>120000</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5152,7 +5939,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F117" s="5">
         <v>12</v>
@@ -5161,10 +5948,10 @@
         <v>140000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5175,7 +5962,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F118" s="5">
         <v>13</v>
@@ -5184,10 +5971,10 @@
         <v>160000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5198,7 +5985,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F119" s="5">
         <v>14</v>
@@ -5207,10 +5994,10 @@
         <v>180000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5221,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F120" s="5">
         <v>15</v>
@@ -5230,10 +6017,10 @@
         <v>200000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5245,7 +6032,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F121" s="5">
         <f>F120+1</f>
@@ -5255,9 +6042,11 @@
         <v>230000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" s="7"/>
+        <v>365</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="5">
@@ -5268,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F122" s="5">
         <f t="shared" ref="F122:F125" si="11">F121+1</f>
@@ -5278,9 +6067,11 @@
         <v>270000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I122" s="7"/>
+        <v>366</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="5">
@@ -5291,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F123" s="5">
         <f t="shared" si="11"/>
@@ -5301,9 +6092,11 @@
         <v>320000</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="5">
@@ -5314,7 +6107,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F124" s="5">
         <f t="shared" si="11"/>
@@ -5324,9 +6117,11 @@
         <v>380000</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="5">
@@ -5337,7 +6132,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F125" s="5">
         <f t="shared" si="11"/>
@@ -5347,9 +6142,11 @@
         <v>450000</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC01A14-8988-4F7C-BEBD-65BCFBB138A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A1DBD-9F4C-4FAD-BF24-A369FB04EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1440" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -3238,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20470AD4-39FE-4AB9-8F88-54E9B5F35D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,6 +33,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -38,6 +45,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1 潮汐之盾1
@@ -49,6 +57,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2 潮汐之盾2
@@ -60,6 +69,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3 潮汐之盾3
@@ -71,6 +81,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4 潮汐之盾4
@@ -82,6 +93,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5 潮汐之盾5
@@ -93,6 +105,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6 生命之盾</t>
@@ -104,15 +117,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="351">
   <si>
     <t>c</t>
   </si>
@@ -1050,134 +1063,129 @@
     <t>生命之魂1级</t>
   </si>
   <si>
-    <t>100202;0.01@213103,0.01</t>
-  </si>
-  <si>
     <t>生命之魂2级</t>
   </si>
   <si>
-    <t>100202;0.02@213103,0.02</t>
-  </si>
-  <si>
     <t>生命之魂3级</t>
   </si>
   <si>
-    <t>100202;0.03@213103,0.03</t>
-  </si>
-  <si>
     <t>生命之魂4级</t>
   </si>
   <si>
-    <t>100202;0.04@213103,0.04</t>
-  </si>
-  <si>
     <t>生命之魂5级</t>
   </si>
   <si>
-    <t>100202;0.05@213103,0.05</t>
-  </si>
-  <si>
     <t>生命之魂6级</t>
   </si>
   <si>
-    <t>100202;0.06@213103,0.06</t>
-  </si>
-  <si>
     <t>生命之魂7级</t>
   </si>
   <si>
-    <t>100202;0.07@213103,0.07</t>
-  </si>
-  <si>
     <t>生命之魂8级</t>
   </si>
   <si>
-    <t>100202;0.08@213103,0.08</t>
-  </si>
-  <si>
     <t>生命之魂9级</t>
   </si>
   <si>
-    <t>100202;0.09@213103,0.09</t>
-  </si>
-  <si>
     <t>生命之魂10级</t>
   </si>
   <si>
-    <t>100202;0.10@213103,0.1</t>
-  </si>
-  <si>
     <t>生命之魂11级</t>
   </si>
   <si>
-    <t>100202;0.11@213103,0.11</t>
-  </si>
-  <si>
     <t>生命之魂12级</t>
   </si>
   <si>
-    <t>100202;0.12@213103,0.12</t>
-  </si>
-  <si>
     <t>生命之魂13级</t>
   </si>
   <si>
-    <t>100202;0.13@213103,0.13</t>
-  </si>
-  <si>
     <t>生命之魂14级</t>
   </si>
   <si>
-    <t>100202;0.14@213103,0.14</t>
-  </si>
-  <si>
     <t>生命之魂15级</t>
   </si>
   <si>
-    <t>100202;0.15@213103,0.15</t>
-  </si>
-  <si>
     <t>生命之魂16级</t>
   </si>
   <si>
-    <t>100202;0.16@213103,0.16</t>
-  </si>
-  <si>
     <t>生命之魂17级</t>
   </si>
   <si>
-    <t>100202;0.17@213103,0.17</t>
-  </si>
-  <si>
     <t>生命之魂18级</t>
   </si>
   <si>
-    <t>100202;0.18@213103,0.18</t>
-  </si>
-  <si>
     <t>生命之魂19级</t>
   </si>
   <si>
-    <t>100202;0.19@213103,0.19</t>
-  </si>
-  <si>
     <t>生命之魂20级</t>
   </si>
   <si>
-    <t>100202;0.20@213103,0.2</t>
+    <t>100202;0.01@213103;0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.02@213103;0.02</t>
+  </si>
+  <si>
+    <t>100202;0.03@213103;0.03</t>
+  </si>
+  <si>
+    <t>100202;0.04@213103;0.04</t>
+  </si>
+  <si>
+    <t>100202;0.05@213103;0.05</t>
+  </si>
+  <si>
+    <t>100202;0.06@213103;0.06</t>
+  </si>
+  <si>
+    <t>100202;0.07@213103;0.07</t>
+  </si>
+  <si>
+    <t>100202;0.08@213103;0.08</t>
+  </si>
+  <si>
+    <t>100202;0.09@213103;0.09</t>
+  </si>
+  <si>
+    <t>100202;0.10@213103;0.1</t>
+  </si>
+  <si>
+    <t>100202;0.11@213103;0.11</t>
+  </si>
+  <si>
+    <t>100202;0.12@213103;0.12</t>
+  </si>
+  <si>
+    <t>100202;0.13@213103;0.13</t>
+  </si>
+  <si>
+    <t>100202;0.14@213103;0.14</t>
+  </si>
+  <si>
+    <t>100202;0.15@213103;0.15</t>
+  </si>
+  <si>
+    <t>100202;0.16@213103;0.16</t>
+  </si>
+  <si>
+    <t>100202;0.17@213103;0.17</t>
+  </si>
+  <si>
+    <t>100202;0.18@213103;0.18</t>
+  </si>
+  <si>
+    <t>100202;0.19@213103;0.19</t>
+  </si>
+  <si>
+    <t>100202;0.20@213103;0.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,12 +1197,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1202,6 +1212,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1209,161 +1220,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,97 +1261,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,174 +1315,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1705,72 +1402,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,55 +1421,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1849,72 +1439,30 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,819 +1472,741 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2762,7 +2232,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2783,7 +2253,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2846,40 +2316,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2905,373 +2375,325 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="22"/>
-    <cellStyle name="标题 4" xfId="23" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="24" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="29"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="31"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="34"/>
-    <cellStyle name="标题 3" xfId="35" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="36"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="39" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="40"/>
-    <cellStyle name="输出" xfId="41" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="42"/>
-    <cellStyle name="计算" xfId="43" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="44"/>
-    <cellStyle name="检查单元格" xfId="45" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="58"/>
-    <cellStyle name="适中" xfId="59" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="61" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="62"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="64"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="70" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="72" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="73" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="80"/>
-    <cellStyle name="强调文字颜色 5" xfId="81" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="89" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 5" xfId="93"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="95"/>
-    <cellStyle name="常规 2 3 2 6" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
-    <cellStyle name="常规 2 3 2 7" xfId="99"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="101"/>
-    <cellStyle name="常规 2 3 3 3" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 4" xfId="104"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="106"/>
-    <cellStyle name="常规 2 3 4 3" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="148"/>
-    <cellStyle name="常规 3" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="159"/>
-    <cellStyle name="常规 4" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="163"/>
-    <cellStyle name="常规 5" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="注释 2" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="221"/>
-    <cellStyle name="常规 5 7" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="225"/>
-    <cellStyle name="注释 2 2 3 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="244"/>
-    <cellStyle name="注释 2 5 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="248"/>
-    <cellStyle name="常规 2 3 2 2" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="254"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="264"/>
-    <cellStyle name="常规 2 3 3 5" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="267"/>
-    <cellStyle name="常规 2 3 3 6" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="293"/>
-    <cellStyle name="注释 2 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="297"/>
-    <cellStyle name="常规 5 6" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="311"/>
-    <cellStyle name="常规 2" xfId="312"/>
-    <cellStyle name="常规 2 2" xfId="313"/>
-    <cellStyle name="常规 2 3" xfId="314"/>
-    <cellStyle name="常规 2 3 2" xfId="315"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="320"/>
-    <cellStyle name="注释 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="323"/>
-    <cellStyle name="常规 2 3 3" xfId="324"/>
-    <cellStyle name="常规 2 3 3 2" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="327"/>
-    <cellStyle name="注释 2 5" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
-    <cellStyle name="常规 2 3 4" xfId="330"/>
-    <cellStyle name="常规 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 2 3 5" xfId="332"/>
-    <cellStyle name="常规 2 3 5 2" xfId="333"/>
-    <cellStyle name="常规 5 2 2 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 2 3 6 2" xfId="336"/>
-    <cellStyle name="常规 5 2 2 3" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 2 3 8" xfId="339"/>
-    <cellStyle name="常规 5 2 3 2" xfId="340"/>
-    <cellStyle name="常规 5 2 4 2" xfId="341"/>
-    <cellStyle name="常规 5 3" xfId="342"/>
-    <cellStyle name="常规 5 3 2" xfId="343"/>
-    <cellStyle name="常规 5 3 3" xfId="344"/>
-    <cellStyle name="常规 5 4" xfId="345"/>
-    <cellStyle name="常规 5 4 2" xfId="346"/>
-    <cellStyle name="常规 5 5" xfId="347"/>
-    <cellStyle name="常规 5 5 2" xfId="348"/>
-    <cellStyle name="注释 2 2 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 3" xfId="351"/>
-    <cellStyle name="注释 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 4" xfId="353"/>
-    <cellStyle name="注释 2 2 4 2" xfId="354"/>
-    <cellStyle name="注释 2 2 5" xfId="355"/>
-    <cellStyle name="注释 2 2 6" xfId="356"/>
-    <cellStyle name="注释 2 4" xfId="357"/>
-    <cellStyle name="注释 2 4 2" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="注释 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="注释 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 5" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -3291,11 +2713,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3323,21 +2753,27 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:I125" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I125" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="生命之盾类型"/>
-    <tableColumn id="3" name="名字"/>
-    <tableColumn id="4" name="等级"/>
-    <tableColumn id="5" name="生命之盾经验"/>
-    <tableColumn id="6" name="额外属性"/>
-    <tableColumn id="7" name="额外描述"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
+      <calculatedColumnFormula>C3+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="名字"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="等级">
+      <calculatedColumnFormula>F3+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="生命之盾经验"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="额外属性"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="额外描述">
+      <calculatedColumnFormula>"生命上限提升+"&amp;F4&amp;"%,眩晕抵抗概率+"&amp;F4&amp;"%"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3622,19 +3058,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:M126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="E103" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
@@ -3642,13 +3078,13 @@
     <col min="9" max="9" width="26.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="9:9">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3671,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
@@ -3740,7 +3176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
@@ -3763,7 +3199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
@@ -3786,7 +3222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
         <v>1004</v>
       </c>
@@ -3809,7 +3245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
         <v>1005</v>
       </c>
@@ -3832,7 +3268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5">
         <v>1006</v>
       </c>
@@ -3855,7 +3291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5">
         <v>1007</v>
       </c>
@@ -3878,7 +3314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5">
         <v>1008</v>
       </c>
@@ -3901,7 +3337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5">
         <v>1009</v>
       </c>
@@ -3924,7 +3360,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="5">
         <v>1010</v>
       </c>
@@ -3947,7 +3383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="5">
         <v>1011</v>
       </c>
@@ -3970,7 +3406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5">
         <v>1012</v>
       </c>
@@ -3993,7 +3429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="5">
         <v>1013</v>
       </c>
@@ -4016,7 +3452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5">
         <v>1014</v>
       </c>
@@ -4039,7 +3475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="5">
         <v>1015</v>
       </c>
@@ -4062,7 +3498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="5">
         <f>C20+1</f>
         <v>1016</v>
@@ -4087,7 +3523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
         <f t="shared" ref="C22:C25" si="0">C21+1</f>
         <v>1017</v>
@@ -4112,7 +3548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -4137,7 +3573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -4162,7 +3598,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -4187,7 +3623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5">
         <v>2001</v>
       </c>
@@ -4210,7 +3646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="5">
         <v>2002</v>
       </c>
@@ -4233,7 +3669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="5">
         <v>2003</v>
       </c>
@@ -4256,7 +3692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="5">
         <v>2004</v>
       </c>
@@ -4279,7 +3715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="30" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="5">
         <v>2005</v>
       </c>
@@ -4302,7 +3738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="5">
         <v>2006</v>
       </c>
@@ -4325,7 +3761,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="5">
         <v>2007</v>
       </c>
@@ -4348,7 +3784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="5">
         <v>2008</v>
       </c>
@@ -4371,7 +3807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5">
         <v>2009</v>
       </c>
@@ -4394,7 +3830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5">
         <v>2010</v>
       </c>
@@ -4417,7 +3853,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="5">
         <v>2011</v>
       </c>
@@ -4440,7 +3876,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5">
         <v>2012</v>
       </c>
@@ -4463,7 +3899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5">
         <v>2013</v>
       </c>
@@ -4486,7 +3922,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5">
         <v>2014</v>
       </c>
@@ -4509,7 +3945,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5">
         <v>2015</v>
       </c>
@@ -4532,7 +3968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="41" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5">
         <f>C40+1</f>
         <v>2016</v>
@@ -4557,7 +3993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
         <f t="shared" ref="C42:C45" si="2">C41+1</f>
         <v>2017</v>
@@ -4582,7 +4018,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="43" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -4607,7 +4043,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="44" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -4632,7 +4068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -4657,7 +4093,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5">
         <v>3001</v>
       </c>
@@ -4680,7 +4116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5">
         <v>3002</v>
       </c>
@@ -4703,7 +4139,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5">
         <v>3003</v>
       </c>
@@ -4726,7 +4162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5">
         <v>3004</v>
       </c>
@@ -4749,7 +4185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5">
         <v>3005</v>
       </c>
@@ -4772,7 +4208,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="5">
         <v>3006</v>
       </c>
@@ -4795,7 +4231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="52" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5">
         <v>3007</v>
       </c>
@@ -4818,7 +4254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5">
         <v>3008</v>
       </c>
@@ -4841,7 +4277,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5">
         <v>3009</v>
       </c>
@@ -4864,7 +4300,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="55" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5">
         <v>3010</v>
       </c>
@@ -4887,7 +4323,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="5">
         <v>3011</v>
       </c>
@@ -4910,7 +4346,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="5">
         <v>3012</v>
       </c>
@@ -4933,7 +4369,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5">
         <v>3013</v>
       </c>
@@ -4956,7 +4392,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5">
         <v>3014</v>
       </c>
@@ -4979,7 +4415,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
         <v>3015</v>
       </c>
@@ -5002,7 +4438,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="5">
         <f>C60+1</f>
         <v>3016</v>
@@ -5027,7 +4463,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
         <f t="shared" ref="C62:C65" si="4">C61+1</f>
         <v>3017</v>
@@ -5052,7 +4488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
@@ -5077,7 +4513,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
@@ -5102,7 +4538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
@@ -5127,7 +4563,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="5">
         <v>4001</v>
       </c>
@@ -5150,7 +4586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="5">
         <v>4002</v>
       </c>
@@ -5173,7 +4609,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="5">
         <v>4003</v>
       </c>
@@ -5196,7 +4632,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5">
         <v>4004</v>
       </c>
@@ -5219,7 +4655,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="5">
         <v>4005</v>
       </c>
@@ -5242,7 +4678,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="5">
         <v>4006</v>
       </c>
@@ -5265,7 +4701,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5">
         <v>4007</v>
       </c>
@@ -5288,7 +4724,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="5">
         <v>4008</v>
       </c>
@@ -5311,7 +4747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5">
         <v>4009</v>
       </c>
@@ -5334,7 +4770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="5">
         <v>4010</v>
       </c>
@@ -5357,7 +4793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="5">
         <v>4011</v>
       </c>
@@ -5380,7 +4816,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5">
         <v>4012</v>
       </c>
@@ -5403,7 +4839,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5">
         <v>4013</v>
       </c>
@@ -5426,7 +4862,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
         <v>4014</v>
       </c>
@@ -5449,7 +4885,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
         <v>4015</v>
       </c>
@@ -5472,7 +4908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="81" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="5">
         <f>C80+1</f>
         <v>4016</v>
@@ -5497,7 +4933,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="82" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="5">
         <f t="shared" ref="C82:C85" si="6">C81+1</f>
         <v>4017</v>
@@ -5522,7 +4958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="83" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
@@ -5547,7 +4983,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="84" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
@@ -5572,7 +5008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="85" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
@@ -5597,7 +5033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="5">
         <v>5001</v>
       </c>
@@ -5620,7 +5056,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="5">
         <v>5002</v>
       </c>
@@ -5643,7 +5079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="5">
         <v>5003</v>
       </c>
@@ -5666,7 +5102,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="5">
         <v>5004</v>
       </c>
@@ -5689,7 +5125,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="5">
         <v>5005</v>
       </c>
@@ -5712,7 +5148,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="5">
         <v>5006</v>
       </c>
@@ -5735,7 +5171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="92" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="5">
         <v>5007</v>
       </c>
@@ -5758,7 +5194,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="5">
         <v>5008</v>
       </c>
@@ -5781,7 +5217,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="5">
         <v>5009</v>
       </c>
@@ -5804,7 +5240,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="95" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="5">
         <v>5010</v>
       </c>
@@ -5827,7 +5263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="96" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="5">
         <v>5011</v>
       </c>
@@ -5850,7 +5286,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="5">
         <v>5012</v>
       </c>
@@ -5873,7 +5309,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="5">
         <v>5013</v>
       </c>
@@ -5896,7 +5332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="5">
         <v>5014</v>
       </c>
@@ -5919,7 +5355,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="5">
         <v>5015</v>
       </c>
@@ -5942,7 +5378,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="5">
         <f>C100+1</f>
         <v>5016</v>
@@ -5967,7 +5403,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="5">
         <f t="shared" ref="C102:C105" si="8">C101+1</f>
         <v>5017</v>
@@ -5992,7 +5428,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
@@ -6017,7 +5453,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
@@ -6042,7 +5478,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
@@ -6067,7 +5503,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="5">
         <v>6001</v>
       </c>
@@ -6084,14 +5520,14 @@
         <v>3000</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="I106" s="7" t="str">
         <f>"生命上限提升+"&amp;F106&amp;"%,眩晕抵抗概率+"&amp;F106&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="5">
         <v>6002</v>
       </c>
@@ -6099,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
@@ -6108,14 +5544,14 @@
         <v>6000</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="I107" s="7" t="str">
         <f t="shared" ref="I107:I125" si="10">"生命上限提升+"&amp;F107&amp;"%,眩晕抵抗概率+"&amp;F107&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="5">
         <v>6003</v>
       </c>
@@ -6123,7 +5559,7 @@
         <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F108" s="5">
         <v>3</v>
@@ -6132,14 +5568,14 @@
         <v>10000</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="I108" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="5">
         <v>6004</v>
       </c>
@@ -6147,7 +5583,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
@@ -6156,14 +5592,14 @@
         <v>15000</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I109" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="5">
         <v>6005</v>
       </c>
@@ -6171,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F110" s="5">
         <v>5</v>
@@ -6180,14 +5616,14 @@
         <v>22500</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="I110" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="5">
         <v>6006</v>
       </c>
@@ -6195,7 +5631,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F111" s="5">
         <v>6</v>
@@ -6204,14 +5640,14 @@
         <v>32500</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I111" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="5">
         <v>6007</v>
       </c>
@@ -6219,7 +5655,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F112" s="5">
         <v>7</v>
@@ -6228,14 +5664,14 @@
         <v>45000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I112" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="113" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="5">
         <v>6008</v>
       </c>
@@ -6243,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F113" s="5">
         <v>8</v>
@@ -6252,14 +5688,14 @@
         <v>60000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I113" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="114" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="5">
         <v>6009</v>
       </c>
@@ -6267,7 +5703,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F114" s="5">
         <v>9</v>
@@ -6276,14 +5712,14 @@
         <v>80000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="I114" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="115" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="5">
         <v>6010</v>
       </c>
@@ -6291,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F115" s="5">
         <v>10</v>
@@ -6300,14 +5736,14 @@
         <v>100000</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="I115" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="116" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="5">
         <v>6011</v>
       </c>
@@ -6315,7 +5751,7 @@
         <v>6</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F116" s="5">
         <v>11</v>
@@ -6324,14 +5760,14 @@
         <v>120000</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="I116" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="117" spans="3:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="5">
         <v>6012</v>
       </c>
@@ -6339,7 +5775,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F117" s="5">
         <v>12</v>
@@ -6348,14 +5784,14 @@
         <v>140000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I117" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="118" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="5">
         <v>6013</v>
       </c>
@@ -6363,7 +5799,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F118" s="5">
         <v>13</v>
@@ -6372,14 +5808,14 @@
         <v>160000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I118" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="119" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="5">
         <v>6014</v>
       </c>
@@ -6387,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F119" s="5">
         <v>14</v>
@@ -6396,14 +5832,14 @@
         <v>180000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I119" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="120" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="5">
         <v>6015</v>
       </c>
@@ -6411,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="F120" s="5">
         <v>15</v>
@@ -6420,14 +5856,14 @@
         <v>200000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I120" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:13">
+    <row r="121" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="5">
         <f>C120+1</f>
         <v>6016</v>
@@ -6436,7 +5872,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F121" s="5">
         <f>F120+1</f>
@@ -6446,7 +5882,7 @@
         <v>230000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I121" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6456,7 +5892,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:13">
+    <row r="122" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="5">
         <f t="shared" ref="C122:C125" si="11">C121+1</f>
         <v>6017</v>
@@ -6465,7 +5901,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="F122" s="5">
         <f t="shared" ref="F122:F125" si="12">F121+1</f>
@@ -6475,7 +5911,7 @@
         <v>270000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I122" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6485,7 +5921,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:13">
+    <row r="123" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
@@ -6494,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F123" s="5">
         <f t="shared" si="12"/>
@@ -6504,7 +5940,7 @@
         <v>320000</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I123" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6514,7 +5950,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:13">
+    <row r="124" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
@@ -6523,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F124" s="5">
         <f t="shared" si="12"/>
@@ -6533,7 +5969,7 @@
         <v>380000</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I124" s="7" t="str">
         <f t="shared" si="10"/>
@@ -6543,7 +5979,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:13">
+    <row r="125" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
@@ -6552,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="F125" s="5">
         <f t="shared" si="12"/>
@@ -6572,14 +6008,13 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" ht="13.5"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20470AD4-39FE-4AB9-8F88-54E9B5F35D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D76586-4778-4D68-A66B-3658E7AA4673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="431">
   <si>
     <t>c</t>
   </si>
@@ -1178,7 +1178,262 @@
     <t>100202;0.19@213103;0.19</t>
   </si>
   <si>
-    <t>100202;0.20@213103;0.2</t>
+    <t>熔岩之魂21级</t>
+  </si>
+  <si>
+    <t>熔岩之魂22级</t>
+  </si>
+  <si>
+    <t>熔岩之魂23级</t>
+  </si>
+  <si>
+    <t>熔岩之魂24级</t>
+  </si>
+  <si>
+    <t>熔岩之魂25级</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害21%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害22%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害23%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害24%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害25%</t>
+  </si>
+  <si>
+    <t>205703;0.21</t>
+  </si>
+  <si>
+    <t>205703;0.22</t>
+  </si>
+  <si>
+    <t>205703;0.23</t>
+  </si>
+  <si>
+    <t>205703;0.24</t>
+  </si>
+  <si>
+    <t>205703;0.25</t>
+  </si>
+  <si>
+    <t>205803;0.21</t>
+  </si>
+  <si>
+    <t>205803;0.22</t>
+  </si>
+  <si>
+    <t>205803;0.23</t>
+  </si>
+  <si>
+    <t>205803;0.24</t>
+  </si>
+  <si>
+    <t>205803;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害21%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害22%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害23%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害24%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害25%</t>
+  </si>
+  <si>
+    <t>205903;0.105</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.115</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.125</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害11%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害10.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害11.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害12%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害12.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>独兽之魂21级</t>
+  </si>
+  <si>
+    <t>独兽之魂22级</t>
+  </si>
+  <si>
+    <t>独兽之魂23级</t>
+  </si>
+  <si>
+    <t>独兽之魂24级</t>
+  </si>
+  <si>
+    <t>独兽之魂25级</t>
+  </si>
+  <si>
+    <t>206003;0.21</t>
+  </si>
+  <si>
+    <t>206003;0.22</t>
+  </si>
+  <si>
+    <t>206003;0.23</t>
+  </si>
+  <si>
+    <t>206003;0.24</t>
+  </si>
+  <si>
+    <t>206003;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率21%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率22%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率23%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率24%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率25%</t>
+  </si>
+  <si>
+    <t>愤怒之魂21级</t>
+  </si>
+  <si>
+    <t>愤怒之魂22级</t>
+  </si>
+  <si>
+    <t>愤怒之魂23级</t>
+  </si>
+  <si>
+    <t>愤怒之魂24级</t>
+  </si>
+  <si>
+    <t>愤怒之魂25级</t>
+  </si>
+  <si>
+    <t>206103;0.21</t>
+  </si>
+  <si>
+    <t>206103;0.22</t>
+  </si>
+  <si>
+    <t>206103;0.23</t>
+  </si>
+  <si>
+    <t>206103;0.24</t>
+  </si>
+  <si>
+    <t>206103;0.25</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率21%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率22%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率23%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率24%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率25%</t>
+  </si>
+  <si>
+    <t>驱逐之魂21级</t>
+  </si>
+  <si>
+    <t>驱逐之魂22级</t>
+  </si>
+  <si>
+    <t>驱逐之魂23级</t>
+  </si>
+  <si>
+    <t>驱逐之魂24级</t>
+  </si>
+  <si>
+    <t>驱逐之魂25级</t>
+  </si>
+  <si>
+    <t>生命之魂21级</t>
+  </si>
+  <si>
+    <t>生命之魂22级</t>
+  </si>
+  <si>
+    <t>生命之魂23级</t>
+  </si>
+  <si>
+    <t>生命之魂24级</t>
+  </si>
+  <si>
+    <t>生命之魂25级</t>
+  </si>
+  <si>
+    <t>100202;0.25@213103;0.25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.24@213103;0.24</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.23@213103;0.23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.22@213103;0.22</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.21@213103;0.21</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.20@213103;0.20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2759,7 +3014,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I125" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I155" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
       <calculatedColumnFormula>C3+1</calculatedColumnFormula>
@@ -3064,18 +3319,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M125"/>
+  <dimension ref="C1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E103" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3525,7 +3780,7 @@
     </row>
     <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
-        <f t="shared" ref="C22:C25" si="0">C21+1</f>
+        <f t="shared" ref="C22:C30" si="0">C21+1</f>
         <v>1017</v>
       </c>
       <c r="D22" s="5">
@@ -3535,7 +3790,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F25" si="1">F21+1</f>
+        <f t="shared" ref="F22:F30" si="1">F21+1</f>
         <v>17</v>
       </c>
       <c r="G22" s="5">
@@ -3623,1895 +3878,1925 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5">
-        <v>2001</v>
+        <f t="shared" si="0"/>
+        <v>1021</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="F26" s="5">
+        <f>F25+1</f>
+        <v>21</v>
+      </c>
+      <c r="G26" s="5">
+        <v>520000</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="F27" s="5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="G27" s="5">
-        <v>6000</v>
+        <v>600000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="5">
-        <v>2003</v>
+        <f t="shared" si="0"/>
+        <v>1023</v>
       </c>
       <c r="D28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="F28" s="5">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="G28" s="5">
-        <v>10000</v>
+        <v>680000</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="5">
-        <v>2004</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="F29" s="5">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="G29" s="5">
-        <v>15000</v>
+        <v>760000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="5">
-        <v>2005</v>
+        <f t="shared" si="0"/>
+        <v>1025</v>
       </c>
       <c r="D30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="F30" s="5">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="G30" s="5">
-        <v>22500</v>
+        <v>850000</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>90</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="5">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F31" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>32500</v>
+        <v>3000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="5">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D32" s="5">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F32" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G32" s="5">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F33" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" s="5">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F34" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G34" s="5">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F35" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G35" s="5">
-        <v>100000</v>
+        <v>22500</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F36" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G36" s="5">
-        <v>120000</v>
+        <v>32500</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F37" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G37" s="5">
-        <v>140000</v>
+        <v>45000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F38" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G38" s="5">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F39" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39" s="5">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F40" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5">
-        <f>C40+1</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F41" s="5">
-        <f>F40+1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G41" s="5">
-        <v>230000</v>
+        <v>120000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
-        <f t="shared" ref="C42:C45" si="2">C41+1</f>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="5">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="5">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="5">
+        <v>13</v>
+      </c>
+      <c r="G43" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="5">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="5">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="5">
+        <f>C45+1</f>
+        <v>2016</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="5">
+        <f>F45+1</f>
+        <v>16</v>
+      </c>
+      <c r="G46" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="5">
+        <f t="shared" ref="C47:C55" si="2">C46+1</f>
+        <v>2017</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" ref="F42:F45" si="3">F41+1</f>
+      <c r="F47" s="5">
+        <f t="shared" ref="F47:F55" si="3">F46+1</f>
         <v>17</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G47" s="5">
         <v>270000</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="5">
+    <row r="48" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D48" s="5">
         <v>2</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F48" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G48" s="5">
         <v>320000</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="5">
+    <row r="49" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D49" s="5">
         <v>2</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F49" s="5">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G49" s="5">
         <v>380000</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="5">
+    <row r="50" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D50" s="5">
         <v>2</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F50" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G50" s="5">
         <v>450000</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="5">
-        <v>3001</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="5">
-        <v>3002</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="5">
+    <row r="51" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="5">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="D51" s="5">
         <v>2</v>
       </c>
-      <c r="G47" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="5">
-        <v>3003</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="5">
-        <v>3</v>
-      </c>
-      <c r="G48" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="5">
-        <v>3004</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="5">
-        <v>4</v>
-      </c>
-      <c r="G49" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="5">
-        <v>3005</v>
-      </c>
-      <c r="D50" s="5">
-        <v>3</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="5">
-        <v>5</v>
-      </c>
-      <c r="G50" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="5">
-        <v>3006</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="F51" s="5">
-        <v>6</v>
+        <f>F50+1</f>
+        <v>21</v>
       </c>
       <c r="G51" s="5">
-        <v>32500</v>
+        <v>520000</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5">
-        <v>3007</v>
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
       <c r="D52" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="F52" s="5">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="G52" s="5">
-        <v>45000</v>
+        <v>600000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5">
-        <v>3008</v>
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
       <c r="D53" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="F53" s="5">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="G53" s="5">
-        <v>60000</v>
+        <v>680000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>153</v>
+        <v>367</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5">
-        <v>3009</v>
+        <f t="shared" si="2"/>
+        <v>2024</v>
       </c>
       <c r="D54" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="F54" s="5">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="G54" s="5">
-        <v>80000</v>
+        <v>760000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5">
-        <v>3010</v>
+        <f t="shared" si="2"/>
+        <v>2025</v>
       </c>
       <c r="D55" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="F55" s="5">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="G55" s="5">
-        <v>100000</v>
+        <v>850000</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>160</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="5">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="D56" s="5">
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F56" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="5">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F57" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G57" s="5">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F58" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G58" s="5">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="D59" s="5">
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F59" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G59" s="5">
-        <v>180000</v>
+        <v>15000</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F60" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G60" s="5">
-        <v>200000</v>
+        <v>22500</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="5">
-        <f>C60+1</f>
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="D61" s="5">
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F61" s="5">
-        <f>F60+1</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G61" s="5">
-        <v>230000</v>
+        <v>32500</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
-        <f t="shared" ref="C62:C65" si="4">C61+1</f>
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="D62" s="5">
         <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="5">
+        <v>7</v>
+      </c>
+      <c r="G62" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="5">
+        <v>3008</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="5">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="5">
+        <v>3009</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" s="5">
+        <v>9</v>
+      </c>
+      <c r="G64" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="5">
+        <v>3010</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="5">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
+        <v>3011</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="5">
+        <v>11</v>
+      </c>
+      <c r="G66" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="5">
+        <v>3012</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="5">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="5">
+        <v>3013</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="5">
+        <v>13</v>
+      </c>
+      <c r="G68" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="5">
+        <v>3014</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="5">
+        <v>14</v>
+      </c>
+      <c r="G69" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="5">
+        <v>3015</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="5">
+        <v>15</v>
+      </c>
+      <c r="G70" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="5">
+        <f>C70+1</f>
+        <v>3016</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="5">
+        <f>F70+1</f>
+        <v>16</v>
+      </c>
+      <c r="G71" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="5">
+        <f t="shared" ref="C72:C80" si="4">C71+1</f>
+        <v>3017</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="5">
-        <f t="shared" ref="F62:F65" si="5">F61+1</f>
+      <c r="F72" s="5">
+        <f t="shared" ref="F72:F80" si="5">F71+1</f>
         <v>17</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G72" s="5">
         <v>270000</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="5">
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D73" s="5">
         <v>3</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F73" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G73" s="5">
         <v>320000</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="5">
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D74" s="5">
         <v>3</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F74" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G74" s="5">
         <v>380000</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="5">
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D75" s="5">
         <v>3</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F75" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G75" s="5">
         <v>450000</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I75" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="5">
-        <v>4001</v>
-      </c>
-      <c r="D66" s="5">
-        <v>4</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="5">
-        <v>4002</v>
-      </c>
-      <c r="D67" s="5">
-        <v>4</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2</v>
-      </c>
-      <c r="G67" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="5">
-        <v>4003</v>
-      </c>
-      <c r="D68" s="5">
-        <v>4</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68" s="5">
+    <row r="76" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="5">
+        <f>C75+1</f>
+        <v>3021</v>
+      </c>
+      <c r="D76" s="5">
         <v>3</v>
       </c>
-      <c r="G68" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="5">
-        <v>4004</v>
-      </c>
-      <c r="D69" s="5">
-        <v>4</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" s="5">
-        <v>4</v>
-      </c>
-      <c r="G69" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="5">
-        <v>4005</v>
-      </c>
-      <c r="D70" s="5">
-        <v>4</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="5">
-        <v>5</v>
-      </c>
-      <c r="G70" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="5">
-        <v>4006</v>
-      </c>
-      <c r="D71" s="5">
-        <v>4</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="5">
-        <v>6</v>
-      </c>
-      <c r="G71" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="5">
-        <v>4007</v>
-      </c>
-      <c r="D72" s="5">
-        <v>4</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" s="5">
-        <v>7</v>
-      </c>
-      <c r="G72" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="5">
-        <v>4008</v>
-      </c>
-      <c r="D73" s="5">
-        <v>4</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F73" s="5">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="5">
-        <v>4009</v>
-      </c>
-      <c r="D74" s="5">
-        <v>4</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" s="5">
-        <v>9</v>
-      </c>
-      <c r="G74" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="5">
-        <v>4010</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="5">
-        <v>10</v>
-      </c>
-      <c r="G75" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="5">
-        <v>4011</v>
-      </c>
-      <c r="D76" s="5">
-        <v>4</v>
-      </c>
       <c r="E76" s="5" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="F76" s="5">
-        <v>11</v>
+        <f>F75+1</f>
+        <v>21</v>
       </c>
       <c r="G76" s="5">
-        <v>120000</v>
+        <v>520000</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>222</v>
+        <v>375</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>223</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5">
-        <v>4012</v>
+        <f t="shared" si="4"/>
+        <v>3022</v>
       </c>
       <c r="D77" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>224</v>
+        <v>386</v>
       </c>
       <c r="F77" s="5">
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="G77" s="5">
-        <v>140000</v>
+        <v>600000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>225</v>
+        <v>376</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5">
-        <v>4013</v>
+        <f t="shared" si="4"/>
+        <v>3023</v>
       </c>
       <c r="D78" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="F78" s="5">
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="G78" s="5">
-        <v>160000</v>
+        <v>680000</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
-        <v>4014</v>
+        <f t="shared" si="4"/>
+        <v>3024</v>
       </c>
       <c r="D79" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>230</v>
+        <v>388</v>
       </c>
       <c r="F79" s="5">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="G79" s="5">
-        <v>180000</v>
+        <v>760000</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>232</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
-        <v>4015</v>
+        <f t="shared" si="4"/>
+        <v>3025</v>
       </c>
       <c r="D80" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="F80" s="5">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="G80" s="5">
-        <v>200000</v>
+        <v>850000</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="5">
-        <f>C80+1</f>
-        <v>4016</v>
+        <v>4001</v>
       </c>
       <c r="D81" s="5">
         <v>4</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F81" s="5">
-        <f>F80+1</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G81" s="5">
-        <v>230000</v>
+        <v>3000</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="5">
-        <f t="shared" ref="C82:C85" si="6">C81+1</f>
-        <v>4017</v>
+        <v>4002</v>
       </c>
       <c r="D82" s="5">
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="5">
+        <v>4003</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="5">
+        <v>3</v>
+      </c>
+      <c r="G83" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="5">
+        <v>4004</v>
+      </c>
+      <c r="D84" s="5">
+        <v>4</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="5">
+        <v>4</v>
+      </c>
+      <c r="G84" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="5">
+        <v>4005</v>
+      </c>
+      <c r="D85" s="5">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="5">
+        <v>5</v>
+      </c>
+      <c r="G85" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="5">
+        <v>4006</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="5">
+        <v>6</v>
+      </c>
+      <c r="G86" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="5">
+        <v>4007</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="5">
+        <v>7</v>
+      </c>
+      <c r="G87" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="5">
+        <v>4008</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F88" s="5">
+        <v>8</v>
+      </c>
+      <c r="G88" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="5">
+        <v>4009</v>
+      </c>
+      <c r="D89" s="5">
+        <v>4</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" s="5">
+        <v>9</v>
+      </c>
+      <c r="G89" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="5">
+        <v>4010</v>
+      </c>
+      <c r="D90" s="5">
+        <v>4</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" s="5">
+        <v>10</v>
+      </c>
+      <c r="G90" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="5">
+        <v>4011</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F91" s="5">
+        <v>11</v>
+      </c>
+      <c r="G91" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="5">
+        <v>4012</v>
+      </c>
+      <c r="D92" s="5">
+        <v>4</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="5">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="5">
+        <v>4013</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="5">
+        <v>13</v>
+      </c>
+      <c r="G93" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="5">
+        <v>4014</v>
+      </c>
+      <c r="D94" s="5">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="5">
+        <v>14</v>
+      </c>
+      <c r="G94" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="5">
+        <v>4015</v>
+      </c>
+      <c r="D95" s="5">
+        <v>4</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" s="5">
+        <v>15</v>
+      </c>
+      <c r="G95" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="5">
+        <f>C95+1</f>
+        <v>4016</v>
+      </c>
+      <c r="D96" s="5">
+        <v>4</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" s="5">
+        <f>F95+1</f>
+        <v>16</v>
+      </c>
+      <c r="G96" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="5">
+        <f t="shared" ref="C97:C105" si="6">C96+1</f>
+        <v>4017</v>
+      </c>
+      <c r="D97" s="5">
+        <v>4</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F82" s="5">
-        <f t="shared" ref="F82:F85" si="7">F81+1</f>
+      <c r="F97" s="5">
+        <f t="shared" ref="F97:F105" si="7">F96+1</f>
         <v>17</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G97" s="5">
         <v>270000</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="5">
+    <row r="98" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D98" s="5">
         <v>4</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F98" s="5">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G98" s="5">
         <v>320000</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="5">
+    <row r="99" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D99" s="5">
         <v>4</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F99" s="5">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G99" s="5">
         <v>380000</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="5">
+    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D100" s="5">
         <v>4</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F100" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G100" s="5">
         <v>450000</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="5">
-        <v>5001</v>
-      </c>
-      <c r="D86" s="5">
-        <v>5</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F86" s="5">
-        <v>1</v>
-      </c>
-      <c r="G86" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="5">
-        <v>5002</v>
-      </c>
-      <c r="D87" s="5">
-        <v>5</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F87" s="5">
-        <v>2</v>
-      </c>
-      <c r="G87" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="5">
-        <v>5003</v>
-      </c>
-      <c r="D88" s="5">
-        <v>5</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="5">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="5">
-        <v>5004</v>
-      </c>
-      <c r="D89" s="5">
-        <v>5</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F89" s="5">
-        <v>4</v>
-      </c>
-      <c r="G89" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="5">
-        <v>5005</v>
-      </c>
-      <c r="D90" s="5">
-        <v>5</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F90" s="5">
-        <v>5</v>
-      </c>
-      <c r="G90" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="5">
-        <v>5006</v>
-      </c>
-      <c r="D91" s="5">
-        <v>5</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="5">
-        <v>6</v>
-      </c>
-      <c r="G91" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="5">
-        <v>5007</v>
-      </c>
-      <c r="D92" s="5">
-        <v>5</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F92" s="5">
-        <v>7</v>
-      </c>
-      <c r="G92" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="5">
-        <v>5008</v>
-      </c>
-      <c r="D93" s="5">
-        <v>5</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="5">
-        <v>8</v>
-      </c>
-      <c r="G93" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="5">
-        <v>5009</v>
-      </c>
-      <c r="D94" s="5">
-        <v>5</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F94" s="5">
-        <v>9</v>
-      </c>
-      <c r="G94" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="5">
-        <v>5010</v>
-      </c>
-      <c r="D95" s="5">
-        <v>5</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F95" s="5">
-        <v>10</v>
-      </c>
-      <c r="G95" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="5">
-        <v>5011</v>
-      </c>
-      <c r="D96" s="5">
-        <v>5</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" s="5">
-        <v>11</v>
-      </c>
-      <c r="G96" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="5">
-        <v>5012</v>
-      </c>
-      <c r="D97" s="5">
-        <v>5</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F97" s="5">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5">
-        <v>140000</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="5">
-        <v>5013</v>
-      </c>
-      <c r="D98" s="5">
-        <v>5</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F98" s="5">
-        <v>13</v>
-      </c>
-      <c r="G98" s="5">
-        <v>160000</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="5">
-        <v>5014</v>
-      </c>
-      <c r="D99" s="5">
-        <v>5</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F99" s="5">
-        <v>14</v>
-      </c>
-      <c r="G99" s="5">
-        <v>180000</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="5">
-        <v>5015</v>
-      </c>
-      <c r="D100" s="5">
-        <v>5</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" s="5">
-        <v>15</v>
-      </c>
-      <c r="G100" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="5">
         <f>C100+1</f>
-        <v>5016</v>
+        <v>4021</v>
       </c>
       <c r="D101" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="F101" s="5">
         <f>F100+1</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G101" s="5">
-        <v>230000</v>
+        <v>520000</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>298</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="5">
-        <f t="shared" ref="C102:C105" si="8">C101+1</f>
-        <v>5017</v>
+        <f t="shared" si="6"/>
+        <v>4022</v>
       </c>
       <c r="D102" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" ref="F102:F105" si="9">F101+1</f>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="G102" s="5">
-        <v>270000</v>
+        <v>600000</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="5">
-        <f t="shared" si="8"/>
-        <v>5018</v>
+        <f t="shared" si="6"/>
+        <v>4023</v>
       </c>
       <c r="D103" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="G103" s="5">
-        <v>320000</v>
+        <v>680000</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="5">
-        <f t="shared" si="8"/>
-        <v>5019</v>
+        <f t="shared" si="6"/>
+        <v>4024</v>
       </c>
       <c r="D104" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="G104" s="5">
-        <v>380000</v>
+        <v>760000</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="5">
-        <f t="shared" si="8"/>
-        <v>5020</v>
+        <f t="shared" si="6"/>
+        <v>4025</v>
       </c>
       <c r="D105" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="G105" s="5">
-        <v>450000</v>
+        <v>850000</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="5">
-        <v>6001</v>
+        <v>5001</v>
       </c>
       <c r="D106" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="F106" s="5">
         <v>1</v>
@@ -5520,22 +5805,21 @@
         <v>3000</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I106" s="7" t="str">
-        <f>"生命上限提升+"&amp;F106&amp;"%,眩晕抵抗概率+"&amp;F106&amp;"%"</f>
-        <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
+        <v>252</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="5">
-        <v>6002</v>
+        <v>5002</v>
       </c>
       <c r="D107" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="F107" s="5">
         <v>2</v>
@@ -5544,22 +5828,21 @@
         <v>6000</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I107" s="7" t="str">
-        <f t="shared" ref="I107:I125" si="10">"生命上限提升+"&amp;F107&amp;"%,眩晕抵抗概率+"&amp;F107&amp;"%"</f>
-        <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
+        <v>255</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="5">
-        <v>6003</v>
+        <v>5003</v>
       </c>
       <c r="D108" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="F108" s="5">
         <v>3</v>
@@ -5568,22 +5851,21 @@
         <v>10000</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I108" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
+        <v>258</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="5">
-        <v>6004</v>
+        <v>5004</v>
       </c>
       <c r="D109" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
@@ -5592,22 +5874,21 @@
         <v>15000</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I109" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
+        <v>261</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="5">
-        <v>6005</v>
+        <v>5005</v>
       </c>
       <c r="D110" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="F110" s="5">
         <v>5</v>
@@ -5616,22 +5897,21 @@
         <v>22500</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I110" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
+        <v>264</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="5">
-        <v>6006</v>
+        <v>5006</v>
       </c>
       <c r="D111" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="F111" s="5">
         <v>6</v>
@@ -5640,22 +5920,21 @@
         <v>32500</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I111" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
+        <v>267</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="5">
-        <v>6007</v>
+        <v>5007</v>
       </c>
       <c r="D112" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="F112" s="5">
         <v>7</v>
@@ -5664,22 +5943,21 @@
         <v>45000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="I112" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
-      </c>
-    </row>
-    <row r="113" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="5">
-        <v>6008</v>
+        <v>5008</v>
       </c>
       <c r="D113" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="F113" s="5">
         <v>8</v>
@@ -5688,22 +5966,21 @@
         <v>60000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I113" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
-      </c>
-    </row>
-    <row r="114" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="5">
-        <v>6009</v>
+        <v>5009</v>
       </c>
       <c r="D114" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="F114" s="5">
         <v>9</v>
@@ -5712,22 +5989,21 @@
         <v>80000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I114" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
-      </c>
-    </row>
-    <row r="115" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="5">
-        <v>6010</v>
+        <v>5010</v>
       </c>
       <c r="D115" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="F115" s="5">
         <v>10</v>
@@ -5736,22 +6012,21 @@
         <v>100000</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I115" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
-      </c>
-    </row>
-    <row r="116" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="5">
-        <v>6011</v>
+        <v>5011</v>
       </c>
       <c r="D116" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="F116" s="5">
         <v>11</v>
@@ -5760,22 +6035,21 @@
         <v>120000</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I116" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
-      </c>
-    </row>
-    <row r="117" spans="3:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="5">
-        <v>6012</v>
+        <v>5012</v>
       </c>
       <c r="D117" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="F117" s="5">
         <v>12</v>
@@ -5784,22 +6058,21 @@
         <v>140000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I117" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
-      </c>
-    </row>
-    <row r="118" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="5">
-        <v>6013</v>
+        <v>5013</v>
       </c>
       <c r="D118" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="F118" s="5">
         <v>13</v>
@@ -5808,22 +6081,21 @@
         <v>160000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I118" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
-      </c>
-    </row>
-    <row r="119" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="5">
-        <v>6014</v>
+        <v>5014</v>
       </c>
       <c r="D119" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F119" s="5">
         <v>14</v>
@@ -5832,22 +6104,21 @@
         <v>180000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I119" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
-      </c>
-    </row>
-    <row r="120" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="5">
-        <v>6015</v>
+        <v>5015</v>
       </c>
       <c r="D120" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F120" s="5">
         <v>15</v>
@@ -5856,23 +6127,22 @@
         <v>200000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I120" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
-      </c>
-    </row>
-    <row r="121" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="5">
         <f>C120+1</f>
-        <v>6016</v>
+        <v>5016</v>
       </c>
       <c r="D121" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F121" s="5">
         <f>F120+1</f>
@@ -5882,131 +6152,871 @@
         <v>230000</v>
       </c>
       <c r="H121" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="5">
+        <f t="shared" ref="C122:C130" si="8">C121+1</f>
+        <v>5017</v>
+      </c>
+      <c r="D122" s="5">
+        <v>5</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" ref="F122:F130" si="9">F121+1</f>
+        <v>17</v>
+      </c>
+      <c r="G122" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="5">
+        <f t="shared" si="8"/>
+        <v>5018</v>
+      </c>
+      <c r="D123" s="5">
+        <v>5</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="G123" s="5">
+        <v>320000</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="5">
+        <f t="shared" si="8"/>
+        <v>5019</v>
+      </c>
+      <c r="D124" s="5">
+        <v>5</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="G124" s="5">
+        <v>380000</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="5">
+        <f t="shared" si="8"/>
+        <v>5020</v>
+      </c>
+      <c r="D125" s="5">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G125" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="5">
+        <f>C125+1</f>
+        <v>5021</v>
+      </c>
+      <c r="D126" s="5">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F126" s="5">
+        <f>F125+1</f>
+        <v>21</v>
+      </c>
+      <c r="G126" s="5">
+        <v>520000</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="5">
+        <f t="shared" si="8"/>
+        <v>5022</v>
+      </c>
+      <c r="D127" s="5">
+        <v>5</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="G127" s="5">
+        <v>600000</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="5">
+        <f t="shared" si="8"/>
+        <v>5023</v>
+      </c>
+      <c r="D128" s="5">
+        <v>5</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="G128" s="5">
+        <v>680000</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="5">
+        <f t="shared" si="8"/>
+        <v>5024</v>
+      </c>
+      <c r="D129" s="5">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="G129" s="5">
+        <v>760000</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="5">
+        <f t="shared" si="8"/>
+        <v>5025</v>
+      </c>
+      <c r="D130" s="5">
+        <v>5</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="G130" s="5">
+        <v>850000</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="5">
+        <v>6001</v>
+      </c>
+      <c r="D131" s="5">
+        <v>6</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F131" s="5">
+        <v>1</v>
+      </c>
+      <c r="G131" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I131" s="7" t="str">
+        <f>"生命上限提升+"&amp;F131&amp;"%,眩晕抵抗概率+"&amp;F131&amp;"%"</f>
+        <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="5">
+        <v>6002</v>
+      </c>
+      <c r="D132" s="5">
+        <v>6</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="5">
+        <v>2</v>
+      </c>
+      <c r="G132" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" s="7" t="str">
+        <f t="shared" ref="I132:I150" si="10">"生命上限提升+"&amp;F132&amp;"%,眩晕抵抗概率+"&amp;F132&amp;"%"</f>
+        <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="5">
+        <v>6003</v>
+      </c>
+      <c r="D133" s="5">
+        <v>6</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F133" s="5">
+        <v>3</v>
+      </c>
+      <c r="G133" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I133" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="5">
+        <v>6004</v>
+      </c>
+      <c r="D134" s="5">
+        <v>6</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F134" s="5">
+        <v>4</v>
+      </c>
+      <c r="G134" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I134" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="5">
+        <v>6005</v>
+      </c>
+      <c r="D135" s="5">
+        <v>6</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="5">
+        <v>5</v>
+      </c>
+      <c r="G135" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I135" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="5">
+        <v>6006</v>
+      </c>
+      <c r="D136" s="5">
+        <v>6</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F136" s="5">
+        <v>6</v>
+      </c>
+      <c r="G136" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I136" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="5">
+        <v>6007</v>
+      </c>
+      <c r="D137" s="5">
+        <v>6</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F137" s="5">
+        <v>7</v>
+      </c>
+      <c r="G137" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I137" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="5">
+        <v>6008</v>
+      </c>
+      <c r="D138" s="5">
+        <v>6</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" s="5">
+        <v>8</v>
+      </c>
+      <c r="G138" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I138" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="5">
+        <v>6009</v>
+      </c>
+      <c r="D139" s="5">
+        <v>6</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" s="5">
+        <v>9</v>
+      </c>
+      <c r="G139" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I139" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="5">
+        <v>6010</v>
+      </c>
+      <c r="D140" s="5">
+        <v>6</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F140" s="5">
+        <v>10</v>
+      </c>
+      <c r="G140" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I140" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="5">
+        <v>6011</v>
+      </c>
+      <c r="D141" s="5">
+        <v>6</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F141" s="5">
+        <v>11</v>
+      </c>
+      <c r="G141" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I141" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="5">
+        <v>6012</v>
+      </c>
+      <c r="D142" s="5">
+        <v>6</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F142" s="5">
+        <v>12</v>
+      </c>
+      <c r="G142" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I142" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="5">
+        <v>6013</v>
+      </c>
+      <c r="D143" s="5">
+        <v>6</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F143" s="5">
+        <v>13</v>
+      </c>
+      <c r="G143" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I143" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="5">
+        <v>6014</v>
+      </c>
+      <c r="D144" s="5">
+        <v>6</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F144" s="5">
+        <v>14</v>
+      </c>
+      <c r="G144" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I144" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="5">
+        <v>6015</v>
+      </c>
+      <c r="D145" s="5">
+        <v>6</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F145" s="5">
+        <v>15</v>
+      </c>
+      <c r="G145" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I145" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
+      </c>
+    </row>
+    <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="5">
+        <f>C145+1</f>
+        <v>6016</v>
+      </c>
+      <c r="D146" s="5">
+        <v>6</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F146" s="5">
+        <f>F145+1</f>
+        <v>16</v>
+      </c>
+      <c r="G146" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H146" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I121" s="7" t="str">
+      <c r="I146" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
       </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="5">
-        <f t="shared" ref="C122:C125" si="11">C121+1</f>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="5">
+        <f t="shared" ref="C147:C155" si="11">C146+1</f>
         <v>6017</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D147" s="5">
         <v>6</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F122" s="5">
-        <f t="shared" ref="F122:F125" si="12">F121+1</f>
+      <c r="F147" s="5">
+        <f t="shared" ref="F147:F155" si="12">F146+1</f>
         <v>17</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G147" s="5">
         <v>270000</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I122" s="7" t="str">
+      <c r="I147" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
       </c>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="5">
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+    </row>
+    <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D148" s="5">
         <v>6</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F148" s="5">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G148" s="5">
         <v>320000</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="I123" s="7" t="str">
+      <c r="I148" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
       </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="5">
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D149" s="5">
         <v>6</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F149" s="5">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G149" s="5">
         <v>380000</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I124" s="7" t="str">
+      <c r="I149" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="5">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D150" s="5">
         <v>6</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F150" s="5">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G150" s="5">
         <v>450000</v>
       </c>
-      <c r="H125" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="I125" s="7" t="str">
+      <c r="H150" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I150" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="5">
+        <f t="shared" si="11"/>
+        <v>6021</v>
+      </c>
+      <c r="D151" s="5">
+        <v>6</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="G151" s="5">
+        <v>520000</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I151" s="5" t="str">
+        <f t="shared" ref="I151:I155" si="13">"生命上限提升+"&amp;F151&amp;"%,眩晕抵抗概率+"&amp;F151&amp;"%"</f>
+        <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
+      </c>
+    </row>
+    <row r="152" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="5">
+        <f t="shared" si="11"/>
+        <v>6022</v>
+      </c>
+      <c r="D152" s="5">
+        <v>6</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="G152" s="5">
+        <v>600000</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I152" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
+      </c>
+    </row>
+    <row r="153" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="5">
+        <f t="shared" si="11"/>
+        <v>6023</v>
+      </c>
+      <c r="D153" s="5">
+        <v>6</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="G153" s="5">
+        <v>680000</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I153" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="5">
+        <f t="shared" si="11"/>
+        <v>6024</v>
+      </c>
+      <c r="D154" s="5">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="G154" s="5">
+        <v>760000</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I154" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="5">
+        <f t="shared" si="11"/>
+        <v>6025</v>
+      </c>
+      <c r="D155" s="5">
+        <v>6</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="G155" s="5">
+        <v>850000</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I155" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D76586-4778-4D68-A66B-3658E7AA4673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257E4699-7011-4631-80CE-F7E73EEC787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -3321,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3331,6 +3331,7 @@
     <col min="4" max="7" width="28.875" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4805,7 +4806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
         <v>3010</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="5">
         <v>3011</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="5">
         <v>3012</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="5">
         <v>3013</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5">
         <v>3014</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="5">
         <v>3015</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="5">
         <f>C70+1</f>
         <v>3016</v>
@@ -4968,7 +4969,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5">
         <f t="shared" ref="C72:C80" si="4">C71+1</f>
         <v>3017</v>
@@ -4993,7 +4994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
@@ -5018,7 +5019,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
@@ -5043,7 +5044,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
@@ -5068,7 +5069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="5">
         <f>C75+1</f>
         <v>3021</v>
@@ -5093,7 +5094,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
@@ -5118,7 +5119,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
@@ -5143,7 +5144,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
@@ -5168,7 +5169,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
@@ -5191,6 +5192,10 @@
       </c>
       <c r="I80" s="7" t="s">
         <v>384</v>
+      </c>
+      <c r="L80" s="2">
+        <f>表1[[#This Row],[生命之盾经验]]/1000</f>
+        <v>850</v>
       </c>
     </row>
     <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257E4699-7011-4631-80CE-F7E73EEC787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE80A9-F7DE-459F-914D-9BD33AE772FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="511">
   <si>
     <t>c</t>
   </si>
@@ -1434,6 +1434,258 @@
   <si>
     <t>100202;0.20@213103;0.20</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩之魂26级</t>
+  </si>
+  <si>
+    <t>熔岩之魂27级</t>
+  </si>
+  <si>
+    <t>熔岩之魂28级</t>
+  </si>
+  <si>
+    <t>熔岩之魂29级</t>
+  </si>
+  <si>
+    <t>熔岩之魂30级</t>
+  </si>
+  <si>
+    <t>205703;0.26</t>
+  </si>
+  <si>
+    <t>205703;0.27</t>
+  </si>
+  <si>
+    <t>205703;0.28</t>
+  </si>
+  <si>
+    <t>205703;0.29</t>
+  </si>
+  <si>
+    <t>205703;0.30</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害26%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害27%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害28%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害29%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害30%</t>
+  </si>
+  <si>
+    <t>205803;0.26</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害26%</t>
+  </si>
+  <si>
+    <t>205803;0.27</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害27%</t>
+  </si>
+  <si>
+    <t>205803;0.28</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害28%</t>
+  </si>
+  <si>
+    <t>205803;0.29</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害29%</t>
+  </si>
+  <si>
+    <t>205803;0.30</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害30%</t>
+  </si>
+  <si>
+    <t>生命之魂26级</t>
+  </si>
+  <si>
+    <t>生命之魂27级</t>
+  </si>
+  <si>
+    <t>生命之魂28级</t>
+  </si>
+  <si>
+    <t>生命之魂29级</t>
+  </si>
+  <si>
+    <t>生命之魂30级</t>
+  </si>
+  <si>
+    <t>100202;0.27@213103;0.27</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.28@213103;0.28</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.29@213103;0.29</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.3@213103;0.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.26@213103;0.26</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒之魂26级</t>
+  </si>
+  <si>
+    <t>愤怒之魂27级</t>
+  </si>
+  <si>
+    <t>愤怒之魂28级</t>
+  </si>
+  <si>
+    <t>愤怒之魂29级</t>
+  </si>
+  <si>
+    <t>愤怒之魂30级</t>
+  </si>
+  <si>
+    <t>206003;0.26</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率26%</t>
+  </si>
+  <si>
+    <t>206003;0.27</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率27%</t>
+  </si>
+  <si>
+    <t>206003;0.28</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率28%</t>
+  </si>
+  <si>
+    <t>206003;0.29</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率29%</t>
+  </si>
+  <si>
+    <t>206003;0.30</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率30%</t>
+  </si>
+  <si>
+    <t>独兽之魂26级</t>
+  </si>
+  <si>
+    <t>独兽之魂27级</t>
+  </si>
+  <si>
+    <t>独兽之魂28级</t>
+  </si>
+  <si>
+    <t>独兽之魂29级</t>
+  </si>
+  <si>
+    <t>独兽之魂30级</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害13%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害14%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害15%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害13.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害14.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.15</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.145</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.14</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.135</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐之魂26级</t>
+  </si>
+  <si>
+    <t>驱逐之魂27级</t>
+  </si>
+  <si>
+    <t>驱逐之魂28级</t>
+  </si>
+  <si>
+    <t>驱逐之魂29级</t>
+  </si>
+  <si>
+    <t>驱逐之魂30级</t>
+  </si>
+  <si>
+    <t>206103;0.26</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率26%</t>
+  </si>
+  <si>
+    <t>206103;0.27</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率27%</t>
+  </si>
+  <si>
+    <t>206103;0.28</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率28%</t>
+  </si>
+  <si>
+    <t>206103;0.29</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率29%</t>
+  </si>
+  <si>
+    <t>206103;0.30</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率30%</t>
   </si>
 </sst>
 </file>
@@ -3014,7 +3266,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I155" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I185" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
       <calculatedColumnFormula>C3+1</calculatedColumnFormula>
@@ -3319,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M155"/>
+  <dimension ref="C1:M185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C91" sqref="C90:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3781,7 +4033,7 @@
     </row>
     <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
-        <f t="shared" ref="C22:C30" si="0">C21+1</f>
+        <f t="shared" ref="C22:C35" si="0">C21+1</f>
         <v>1017</v>
       </c>
       <c r="D22" s="5">
@@ -3791,7 +4043,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F30" si="1">F21+1</f>
+        <f t="shared" ref="F22:F35" si="1">F21+1</f>
         <v>17</v>
       </c>
       <c r="G22" s="5">
@@ -4004,3023 +4256,3778 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="5">
-        <v>2001</v>
+        <f t="shared" si="0"/>
+        <v>1026</v>
       </c>
       <c r="D31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="G31" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="F32" s="5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="G32" s="5">
-        <v>6000</v>
+        <v>1250000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="5">
-        <v>2003</v>
+        <f t="shared" si="0"/>
+        <v>1028</v>
       </c>
       <c r="D33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="F33" s="5">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="G33" s="5">
-        <v>10000</v>
+        <v>1500000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5">
-        <v>2004</v>
+        <f t="shared" si="0"/>
+        <v>1029</v>
       </c>
       <c r="D34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="F34" s="5">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="G34" s="5">
-        <v>15000</v>
+        <v>1750000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>86</v>
+        <v>439</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5">
-        <v>2005</v>
+        <f t="shared" si="0"/>
+        <v>1030</v>
       </c>
       <c r="D35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>88</v>
+        <v>435</v>
       </c>
       <c r="F35" s="5">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="G35" s="5">
-        <v>22500</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>89</v>
+        <v>440</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>90</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="5">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F36" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>32500</v>
+        <v>3000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F37" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F38" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38" s="5">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F39" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G39" s="5">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F40" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40" s="5">
-        <v>100000</v>
+        <v>22500</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F41" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G41" s="5">
-        <v>120000</v>
+        <v>32500</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F42" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G42" s="5">
-        <v>140000</v>
+        <v>45000</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F43" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G43" s="5">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F44" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G44" s="5">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F45" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5">
-        <f>C45+1</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F46" s="5">
-        <f>F45+1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G46" s="5">
-        <v>230000</v>
+        <v>120000</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5">
-        <f t="shared" ref="C47:C55" si="2">C46+1</f>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:F55" si="3">F46+1</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G47" s="5">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5">
-        <f t="shared" si="2"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G48" s="5">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5">
-        <f t="shared" si="2"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5">
-        <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D50" s="5">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G50" s="5">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="5">
-        <f t="shared" si="2"/>
-        <v>2021</v>
+        <f>C50+1</f>
+        <v>2016</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="F51" s="5">
         <f>F50+1</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5">
-        <v>520000</v>
+        <v>230000</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>370</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5">
-        <f t="shared" si="2"/>
-        <v>2022</v>
+        <f t="shared" ref="C52:C65" si="2">C51+1</f>
+        <v>2017</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" ref="F52:F65" si="3">F51+1</f>
+        <v>17</v>
       </c>
       <c r="G52" s="5">
-        <v>600000</v>
+        <v>270000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>371</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5">
         <f t="shared" si="2"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G53" s="5">
-        <v>680000</v>
+        <v>320000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5">
         <f t="shared" si="2"/>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G54" s="5">
-        <v>760000</v>
+        <v>380000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>373</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5">
         <f t="shared" si="2"/>
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="5">
+        <v>450000</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="5">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F56" s="5">
+        <f>F55+1</f>
+        <v>21</v>
+      </c>
+      <c r="G56" s="5">
+        <v>520000</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="5">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="G57" s="5">
+        <v>600000</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="5">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G58" s="5">
+        <v>680000</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="5">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G59" s="5">
+        <v>760000</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="5">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G60" s="5">
         <v>850000</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I60" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="5">
+    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="5">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="5">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="5">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="5">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="5">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
         <v>3001</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="5">
-        <v>3002</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="5">
-        <v>2</v>
-      </c>
-      <c r="G57" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="5">
-        <v>3003</v>
-      </c>
-      <c r="D58" s="5">
-        <v>3</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" s="5">
-        <v>3</v>
-      </c>
-      <c r="G58" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="5">
-        <v>3004</v>
-      </c>
-      <c r="D59" s="5">
-        <v>3</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="5">
-        <v>4</v>
-      </c>
-      <c r="G59" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="5">
-        <v>3005</v>
-      </c>
-      <c r="D60" s="5">
-        <v>3</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="5">
-        <v>5</v>
-      </c>
-      <c r="G60" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="5">
-        <v>3006</v>
-      </c>
-      <c r="D61" s="5">
-        <v>3</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" s="5">
-        <v>6</v>
-      </c>
-      <c r="G61" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="5">
-        <v>3007</v>
-      </c>
-      <c r="D62" s="5">
-        <v>3</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="5">
-        <v>7</v>
-      </c>
-      <c r="G62" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="5">
-        <v>3008</v>
-      </c>
-      <c r="D63" s="5">
-        <v>3</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" s="5">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="5">
-        <v>3009</v>
-      </c>
-      <c r="D64" s="5">
-        <v>3</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F64" s="5">
-        <v>9</v>
-      </c>
-      <c r="G64" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="5">
-        <v>3010</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="5">
-        <v>10</v>
-      </c>
-      <c r="G65" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="5">
-        <v>3011</v>
       </c>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F66" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G66" s="5">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="5">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="D67" s="5">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F67" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="5">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="D68" s="5">
         <v>3</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F68" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G68" s="5">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="D69" s="5">
         <v>3</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F69" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G69" s="5">
-        <v>180000</v>
+        <v>15000</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="5">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="D70" s="5">
         <v>3</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F70" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G70" s="5">
-        <v>200000</v>
+        <v>22500</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="5">
-        <f>C70+1</f>
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="D71" s="5">
         <v>3</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F71" s="5">
-        <f>F70+1</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G71" s="5">
-        <v>230000</v>
+        <v>32500</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5">
-        <f t="shared" ref="C72:C80" si="4">C71+1</f>
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="D72" s="5">
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="5">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="5">
+        <v>3008</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="5">
+        <v>8</v>
+      </c>
+      <c r="G73" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="5">
+        <v>3009</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="5">
+        <v>9</v>
+      </c>
+      <c r="G74" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="5">
+        <v>3010</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="5">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="5">
+        <v>3011</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="5">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="5">
+        <v>3012</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="5">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="5">
+        <v>3013</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="5">
+        <v>13</v>
+      </c>
+      <c r="G78" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="5">
+        <v>3014</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="5">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="5">
+        <v>3015</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="5">
+        <v>15</v>
+      </c>
+      <c r="G80" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="5">
+        <f>C80+1</f>
+        <v>3016</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="5">
+        <f>F80+1</f>
+        <v>16</v>
+      </c>
+      <c r="G81" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="5">
+        <f t="shared" ref="C82:C95" si="4">C81+1</f>
+        <v>3017</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F72" s="5">
-        <f t="shared" ref="F72:F80" si="5">F71+1</f>
+      <c r="F82" s="5">
+        <f t="shared" ref="F82:F95" si="5">F81+1</f>
         <v>17</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G82" s="5">
         <v>270000</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I82" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="5">
+    <row r="83" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D83" s="5">
         <v>3</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F83" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G83" s="5">
         <v>320000</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="5">
+    <row r="84" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D84" s="5">
         <v>3</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F84" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G84" s="5">
         <v>380000</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H84" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="5">
+    <row r="85" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D85" s="5">
         <v>3</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F85" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G85" s="5">
         <v>450000</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="5">
-        <f>C75+1</f>
+    <row r="86" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="5">
+        <f>C85+1</f>
         <v>3021</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D86" s="5">
         <v>3</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F76" s="5">
-        <f>F75+1</f>
+      <c r="F86" s="5">
+        <f>F85+1</f>
         <v>21</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G86" s="5">
         <v>520000</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I86" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="5">
+    <row r="87" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D87" s="5">
         <v>3</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F87" s="5">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G87" s="5">
         <v>600000</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I87" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="78" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="5">
+    <row r="88" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D88" s="5">
         <v>3</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F88" s="5">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G88" s="5">
         <v>680000</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H88" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I88" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="5">
+    <row r="89" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D89" s="5">
         <v>3</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F89" s="5">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G89" s="5">
         <v>760000</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="5">
+    <row r="90" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D90" s="5">
         <v>3</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F90" s="5">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G90" s="5">
         <v>850000</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I90" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L90" s="2">
         <f>表1[[#This Row],[生命之盾经验]]/1000</f>
         <v>850</v>
       </c>
     </row>
-    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="5">
+    <row r="91" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="5">
+        <f>C90+1</f>
+        <v>3026</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="5">
+        <f t="shared" si="4"/>
+        <v>3027</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="5">
+        <f t="shared" si="4"/>
+        <v>3028</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="5">
+        <f t="shared" si="4"/>
+        <v>3029</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="5">
+        <f t="shared" si="4"/>
+        <v>3030</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="G95" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="5">
         <v>4001</v>
-      </c>
-      <c r="D81" s="5">
-        <v>4</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1</v>
-      </c>
-      <c r="G81" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="5">
-        <v>4002</v>
-      </c>
-      <c r="D82" s="5">
-        <v>4</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2</v>
-      </c>
-      <c r="G82" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="5">
-        <v>4003</v>
-      </c>
-      <c r="D83" s="5">
-        <v>4</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83" s="5">
-        <v>3</v>
-      </c>
-      <c r="G83" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="5">
-        <v>4004</v>
-      </c>
-      <c r="D84" s="5">
-        <v>4</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="5">
-        <v>4</v>
-      </c>
-      <c r="G84" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="5">
-        <v>4005</v>
-      </c>
-      <c r="D85" s="5">
-        <v>4</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="5">
-        <v>5</v>
-      </c>
-      <c r="G85" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="5">
-        <v>4006</v>
-      </c>
-      <c r="D86" s="5">
-        <v>4</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F86" s="5">
-        <v>6</v>
-      </c>
-      <c r="G86" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="5">
-        <v>4007</v>
-      </c>
-      <c r="D87" s="5">
-        <v>4</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" s="5">
-        <v>7</v>
-      </c>
-      <c r="G87" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="5">
-        <v>4008</v>
-      </c>
-      <c r="D88" s="5">
-        <v>4</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F88" s="5">
-        <v>8</v>
-      </c>
-      <c r="G88" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="5">
-        <v>4009</v>
-      </c>
-      <c r="D89" s="5">
-        <v>4</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="5">
-        <v>9</v>
-      </c>
-      <c r="G89" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="5">
-        <v>4010</v>
-      </c>
-      <c r="D90" s="5">
-        <v>4</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F90" s="5">
-        <v>10</v>
-      </c>
-      <c r="G90" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="5">
-        <v>4011</v>
-      </c>
-      <c r="D91" s="5">
-        <v>4</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F91" s="5">
-        <v>11</v>
-      </c>
-      <c r="G91" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="5">
-        <v>4012</v>
-      </c>
-      <c r="D92" s="5">
-        <v>4</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F92" s="5">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5">
-        <v>140000</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="5">
-        <v>4013</v>
-      </c>
-      <c r="D93" s="5">
-        <v>4</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="5">
-        <v>13</v>
-      </c>
-      <c r="G93" s="5">
-        <v>160000</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="5">
-        <v>4014</v>
-      </c>
-      <c r="D94" s="5">
-        <v>4</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F94" s="5">
-        <v>14</v>
-      </c>
-      <c r="G94" s="5">
-        <v>180000</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="5">
-        <v>4015</v>
-      </c>
-      <c r="D95" s="5">
-        <v>4</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F95" s="5">
-        <v>15</v>
-      </c>
-      <c r="G95" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="5">
-        <f>C95+1</f>
-        <v>4016</v>
       </c>
       <c r="D96" s="5">
         <v>4</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F96" s="5">
-        <f>F95+1</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G96" s="5">
-        <v>230000</v>
+        <v>3000</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="5">
-        <f t="shared" ref="C97:C105" si="6">C96+1</f>
-        <v>4017</v>
+        <v>4002</v>
       </c>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F97" s="5">
+        <v>2</v>
+      </c>
+      <c r="G97" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="5">
+        <v>4003</v>
+      </c>
+      <c r="D98" s="5">
+        <v>4</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" s="5">
+        <v>3</v>
+      </c>
+      <c r="G98" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="5">
+        <v>4004</v>
+      </c>
+      <c r="D99" s="5">
+        <v>4</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99" s="5">
+        <v>4</v>
+      </c>
+      <c r="G99" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="5">
+        <v>4005</v>
+      </c>
+      <c r="D100" s="5">
+        <v>4</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="5">
+        <v>5</v>
+      </c>
+      <c r="G100" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="5">
+        <v>4006</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6</v>
+      </c>
+      <c r="G101" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="5">
+        <v>4007</v>
+      </c>
+      <c r="D102" s="5">
+        <v>4</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" s="5">
+        <v>7</v>
+      </c>
+      <c r="G102" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="5">
+        <v>4008</v>
+      </c>
+      <c r="D103" s="5">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="5">
+        <v>8</v>
+      </c>
+      <c r="G103" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="5">
+        <v>4009</v>
+      </c>
+      <c r="D104" s="5">
+        <v>4</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" s="5">
+        <v>9</v>
+      </c>
+      <c r="G104" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="5">
+        <v>4010</v>
+      </c>
+      <c r="D105" s="5">
+        <v>4</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F105" s="5">
+        <v>10</v>
+      </c>
+      <c r="G105" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="5">
+        <v>4011</v>
+      </c>
+      <c r="D106" s="5">
+        <v>4</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="5">
+        <v>11</v>
+      </c>
+      <c r="G106" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="5">
+        <v>4012</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107" s="5">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="5">
+        <v>4013</v>
+      </c>
+      <c r="D108" s="5">
+        <v>4</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F108" s="5">
+        <v>13</v>
+      </c>
+      <c r="G108" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="5">
+        <v>4014</v>
+      </c>
+      <c r="D109" s="5">
+        <v>4</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F109" s="5">
+        <v>14</v>
+      </c>
+      <c r="G109" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="5">
+        <v>4015</v>
+      </c>
+      <c r="D110" s="5">
+        <v>4</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="5">
+        <v>15</v>
+      </c>
+      <c r="G110" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="5">
+        <f>C110+1</f>
+        <v>4016</v>
+      </c>
+      <c r="D111" s="5">
+        <v>4</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F111" s="5">
+        <f>F110+1</f>
+        <v>16</v>
+      </c>
+      <c r="G111" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="5">
+        <f t="shared" ref="C112:C125" si="6">C111+1</f>
+        <v>4017</v>
+      </c>
+      <c r="D112" s="5">
+        <v>4</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F97" s="5">
-        <f t="shared" ref="F97:F105" si="7">F96+1</f>
+      <c r="F112" s="5">
+        <f t="shared" ref="F112:F125" si="7">F111+1</f>
         <v>17</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G112" s="5">
         <v>270000</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I112" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="5">
+    <row r="113" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D113" s="5">
         <v>4</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F113" s="5">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G113" s="5">
         <v>320000</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H113" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I113" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="5">
+    <row r="114" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D114" s="5">
         <v>4</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F114" s="5">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G114" s="5">
         <v>380000</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H114" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I114" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="5">
+    <row r="115" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D115" s="5">
         <v>4</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F115" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G115" s="5">
         <v>450000</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I115" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="5">
-        <f>C100+1</f>
+    <row r="116" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="5">
+        <f>C115+1</f>
         <v>4021</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D116" s="5">
         <v>4</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F101" s="5">
-        <f>F100+1</f>
+      <c r="F116" s="5">
+        <f>F115+1</f>
         <v>21</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G116" s="5">
         <v>520000</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H116" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I116" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="102" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="5">
+    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="5">
         <f t="shared" si="6"/>
         <v>4022</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D117" s="5">
         <v>4</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F117" s="5">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G117" s="5">
         <v>600000</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="103" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="5">
+    <row r="118" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="5">
         <f t="shared" si="6"/>
         <v>4023</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D118" s="5">
         <v>4</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F118" s="5">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G118" s="5">
         <v>680000</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I118" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="104" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="5">
+    <row r="119" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="5">
         <f t="shared" si="6"/>
         <v>4024</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D119" s="5">
         <v>4</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F119" s="5">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G119" s="5">
         <v>760000</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I119" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="105" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="5">
+    <row r="120" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="5">
         <f t="shared" si="6"/>
         <v>4025</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D120" s="5">
         <v>4</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F120" s="5">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G120" s="5">
         <v>850000</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I120" s="7" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="5">
-        <v>5001</v>
-      </c>
-      <c r="D106" s="5">
-        <v>5</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F106" s="5">
-        <v>1</v>
-      </c>
-      <c r="G106" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="5">
-        <v>5002</v>
-      </c>
-      <c r="D107" s="5">
-        <v>5</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F107" s="5">
-        <v>2</v>
-      </c>
-      <c r="G107" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="5">
-        <v>5003</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F108" s="5">
-        <v>3</v>
-      </c>
-      <c r="G108" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="5">
-        <v>5004</v>
-      </c>
-      <c r="D109" s="5">
-        <v>5</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F109" s="5">
-        <v>4</v>
-      </c>
-      <c r="G109" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="5">
-        <v>5005</v>
-      </c>
-      <c r="D110" s="5">
-        <v>5</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F110" s="5">
-        <v>5</v>
-      </c>
-      <c r="G110" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="5">
-        <v>5006</v>
-      </c>
-      <c r="D111" s="5">
-        <v>5</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F111" s="5">
-        <v>6</v>
-      </c>
-      <c r="G111" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="5">
-        <v>5007</v>
-      </c>
-      <c r="D112" s="5">
-        <v>5</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F112" s="5">
-        <v>7</v>
-      </c>
-      <c r="G112" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="5">
-        <v>5008</v>
-      </c>
-      <c r="D113" s="5">
-        <v>5</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F113" s="5">
-        <v>8</v>
-      </c>
-      <c r="G113" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="5">
-        <v>5009</v>
-      </c>
-      <c r="D114" s="5">
-        <v>5</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F114" s="5">
-        <v>9</v>
-      </c>
-      <c r="G114" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="5">
-        <v>5010</v>
-      </c>
-      <c r="D115" s="5">
-        <v>5</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F115" s="5">
-        <v>10</v>
-      </c>
-      <c r="G115" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="5">
-        <v>5011</v>
-      </c>
-      <c r="D116" s="5">
-        <v>5</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F116" s="5">
-        <v>11</v>
-      </c>
-      <c r="G116" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="5">
-        <v>5012</v>
-      </c>
-      <c r="D117" s="5">
-        <v>5</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F117" s="5">
-        <v>12</v>
-      </c>
-      <c r="G117" s="5">
-        <v>140000</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="5">
-        <v>5013</v>
-      </c>
-      <c r="D118" s="5">
-        <v>5</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F118" s="5">
-        <v>13</v>
-      </c>
-      <c r="G118" s="5">
-        <v>160000</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="5">
-        <v>5014</v>
-      </c>
-      <c r="D119" s="5">
-        <v>5</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F119" s="5">
-        <v>14</v>
-      </c>
-      <c r="G119" s="5">
-        <v>180000</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="5">
-        <v>5015</v>
-      </c>
-      <c r="D120" s="5">
-        <v>5</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F120" s="5">
-        <v>15</v>
-      </c>
-      <c r="G120" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="121" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="5">
         <f>C120+1</f>
-        <v>5016</v>
+        <v>4026</v>
       </c>
       <c r="D121" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>296</v>
+        <v>466</v>
       </c>
       <c r="F121" s="5">
-        <f>F120+1</f>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="G121" s="5">
-        <v>230000</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>297</v>
+        <v>471</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>298</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="5">
-        <f t="shared" ref="C122:C130" si="8">C121+1</f>
-        <v>5017</v>
+        <f t="shared" si="6"/>
+        <v>4027</v>
       </c>
       <c r="D122" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>299</v>
+        <v>467</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" ref="F122:F130" si="9">F121+1</f>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="G122" s="5">
-        <v>270000</v>
+        <v>1250000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>301</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="5">
+        <f t="shared" si="6"/>
+        <v>4028</v>
+      </c>
+      <c r="D123" s="5">
+        <v>4</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="G123" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="5">
+        <f t="shared" si="6"/>
+        <v>4029</v>
+      </c>
+      <c r="D124" s="5">
+        <v>4</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="G124" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="5">
+        <f t="shared" si="6"/>
+        <v>4030</v>
+      </c>
+      <c r="D125" s="5">
+        <v>4</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G125" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D126" s="5">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D127" s="5">
+        <v>5</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F127" s="5">
+        <v>2</v>
+      </c>
+      <c r="G127" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="5">
+        <v>5003</v>
+      </c>
+      <c r="D128" s="5">
+        <v>5</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F128" s="5">
+        <v>3</v>
+      </c>
+      <c r="G128" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="5">
+        <v>5004</v>
+      </c>
+      <c r="D129" s="5">
+        <v>5</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" s="5">
+        <v>4</v>
+      </c>
+      <c r="G129" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="5">
+        <v>5005</v>
+      </c>
+      <c r="D130" s="5">
+        <v>5</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" s="5">
+        <v>5</v>
+      </c>
+      <c r="G130" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="5">
+        <v>5006</v>
+      </c>
+      <c r="D131" s="5">
+        <v>5</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F131" s="5">
+        <v>6</v>
+      </c>
+      <c r="G131" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="5">
+        <v>5007</v>
+      </c>
+      <c r="D132" s="5">
+        <v>5</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F132" s="5">
+        <v>7</v>
+      </c>
+      <c r="G132" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="5">
+        <v>5008</v>
+      </c>
+      <c r="D133" s="5">
+        <v>5</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F133" s="5">
+        <v>8</v>
+      </c>
+      <c r="G133" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="5">
+        <v>5009</v>
+      </c>
+      <c r="D134" s="5">
+        <v>5</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" s="5">
+        <v>9</v>
+      </c>
+      <c r="G134" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="5">
+        <v>5010</v>
+      </c>
+      <c r="D135" s="5">
+        <v>5</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" s="5">
+        <v>10</v>
+      </c>
+      <c r="G135" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="5">
+        <v>5011</v>
+      </c>
+      <c r="D136" s="5">
+        <v>5</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F136" s="5">
+        <v>11</v>
+      </c>
+      <c r="G136" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="5">
+        <v>5012</v>
+      </c>
+      <c r="D137" s="5">
+        <v>5</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F137" s="5">
+        <v>12</v>
+      </c>
+      <c r="G137" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="5">
+        <v>5013</v>
+      </c>
+      <c r="D138" s="5">
+        <v>5</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F138" s="5">
+        <v>13</v>
+      </c>
+      <c r="G138" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="5">
+        <v>5014</v>
+      </c>
+      <c r="D139" s="5">
+        <v>5</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F139" s="5">
+        <v>14</v>
+      </c>
+      <c r="G139" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="5">
+        <v>5015</v>
+      </c>
+      <c r="D140" s="5">
+        <v>5</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" s="5">
+        <v>15</v>
+      </c>
+      <c r="G140" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="5">
+        <f>C140+1</f>
+        <v>5016</v>
+      </c>
+      <c r="D141" s="5">
+        <v>5</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F141" s="5">
+        <f>F140+1</f>
+        <v>16</v>
+      </c>
+      <c r="G141" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="5">
+        <f t="shared" ref="C142:C155" si="8">C141+1</f>
+        <v>5017</v>
+      </c>
+      <c r="D142" s="5">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" ref="F142:F155" si="9">F141+1</f>
+        <v>17</v>
+      </c>
+      <c r="G142" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D143" s="5">
         <v>5</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F143" s="5">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G143" s="5">
         <v>320000</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I143" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="5">
+    <row r="144" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D144" s="5">
         <v>5</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F144" s="5">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G144" s="5">
         <v>380000</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H144" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I144" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="5">
+    <row r="145" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D145" s="5">
         <v>5</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F145" s="5">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G145" s="5">
         <v>450000</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I145" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="5">
-        <f>C125+1</f>
+    <row r="146" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="5">
+        <f>C145+1</f>
         <v>5021</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D146" s="5">
         <v>5</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E146" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F126" s="5">
-        <f>F125+1</f>
+      <c r="F146" s="5">
+        <f>F145+1</f>
         <v>21</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G146" s="5">
         <v>520000</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H146" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I126" s="7" t="s">
+      <c r="I146" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="127" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="5">
+    <row r="147" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="5">
         <f t="shared" si="8"/>
         <v>5022</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D147" s="5">
         <v>5</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F147" s="5">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G147" s="5">
         <v>600000</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I147" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="5">
+    <row r="148" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="5">
         <f t="shared" si="8"/>
         <v>5023</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D148" s="5">
         <v>5</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F148" s="5">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G148" s="5">
         <v>680000</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="I128" s="7" t="s">
+      <c r="I148" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="5">
+    <row r="149" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="5">
         <f t="shared" si="8"/>
         <v>5024</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D149" s="5">
         <v>5</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F149" s="5">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G149" s="5">
         <v>760000</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I129" s="7" t="s">
+      <c r="I149" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="5">
+    <row r="150" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="5">
         <f t="shared" si="8"/>
         <v>5025</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D150" s="5">
         <v>5</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F150" s="5">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G150" s="5">
         <v>850000</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H150" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I130" s="7" t="s">
+      <c r="I150" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="5">
+    <row r="151" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="5">
+        <f>C150+1</f>
+        <v>5026</v>
+      </c>
+      <c r="D151" s="5">
+        <v>5</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="5">
+        <f t="shared" si="8"/>
+        <v>5027</v>
+      </c>
+      <c r="D152" s="5">
+        <v>5</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="G152" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="5">
+        <f t="shared" si="8"/>
+        <v>5028</v>
+      </c>
+      <c r="D153" s="5">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="G153" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="5">
+        <f t="shared" si="8"/>
+        <v>5029</v>
+      </c>
+      <c r="D154" s="5">
+        <v>5</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="5">
+        <f t="shared" si="8"/>
+        <v>5030</v>
+      </c>
+      <c r="D155" s="5">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="G155" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="5">
         <v>6001</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D156" s="5">
         <v>6</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F156" s="5">
         <v>1</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G156" s="5">
         <v>3000</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I131" s="7" t="str">
-        <f>"生命上限提升+"&amp;F131&amp;"%,眩晕抵抗概率+"&amp;F131&amp;"%"</f>
+      <c r="I156" s="7" t="str">
+        <f>"生命上限提升+"&amp;F156&amp;"%,眩晕抵抗概率+"&amp;F156&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="132" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="5">
+    <row r="157" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="5">
         <v>6002</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D157" s="5">
         <v>6</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E157" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F157" s="5">
         <v>2</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G157" s="5">
         <v>6000</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H157" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I132" s="7" t="str">
-        <f t="shared" ref="I132:I150" si="10">"生命上限提升+"&amp;F132&amp;"%,眩晕抵抗概率+"&amp;F132&amp;"%"</f>
+      <c r="I157" s="7" t="str">
+        <f t="shared" ref="I157:I175" si="10">"生命上限提升+"&amp;F157&amp;"%,眩晕抵抗概率+"&amp;F157&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="133" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="5">
+    <row r="158" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C158" s="5">
         <v>6003</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D158" s="5">
         <v>6</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F158" s="5">
         <v>3</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G158" s="5">
         <v>10000</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H158" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I133" s="7" t="str">
+      <c r="I158" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="134" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="5">
+    <row r="159" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C159" s="5">
         <v>6004</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D159" s="5">
         <v>6</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F159" s="5">
         <v>4</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G159" s="5">
         <v>15000</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H159" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I134" s="7" t="str">
+      <c r="I159" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="135" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="5">
+    <row r="160" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="5">
         <v>6005</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D160" s="5">
         <v>6</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E160" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F160" s="5">
         <v>5</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G160" s="5">
         <v>22500</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H160" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="I135" s="7" t="str">
+      <c r="I160" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="136" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="5">
+    <row r="161" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="5">
         <v>6006</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D161" s="5">
         <v>6</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E161" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F161" s="5">
         <v>6</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G161" s="5">
         <v>32500</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H161" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I136" s="7" t="str">
+      <c r="I161" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="137" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="5">
+    <row r="162" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C162" s="5">
         <v>6007</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D162" s="5">
         <v>6</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F162" s="5">
         <v>7</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G162" s="5">
         <v>45000</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="H162" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I137" s="7" t="str">
+      <c r="I162" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="138" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="5">
+    <row r="163" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="5">
         <v>6008</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D163" s="5">
         <v>6</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E163" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F163" s="5">
         <v>8</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G163" s="5">
         <v>60000</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H163" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I138" s="7" t="str">
+      <c r="I163" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="139" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="5">
+    <row r="164" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="5">
         <v>6009</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D164" s="5">
         <v>6</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E164" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F164" s="5">
         <v>9</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G164" s="5">
         <v>80000</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H164" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I139" s="7" t="str">
+      <c r="I164" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="140" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="5">
+    <row r="165" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="5">
         <v>6010</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D165" s="5">
         <v>6</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E165" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F165" s="5">
         <v>10</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G165" s="5">
         <v>100000</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I140" s="7" t="str">
+      <c r="I165" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="141" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="5">
+    <row r="166" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="5">
         <v>6011</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D166" s="5">
         <v>6</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F166" s="5">
         <v>11</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G166" s="5">
         <v>120000</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I141" s="7" t="str">
+      <c r="I166" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="142" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="5">
+    <row r="167" spans="3:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C167" s="5">
         <v>6012</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D167" s="5">
         <v>6</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F167" s="5">
         <v>12</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G167" s="5">
         <v>140000</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I142" s="7" t="str">
+      <c r="I167" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="143" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="5">
+    <row r="168" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="5">
         <v>6013</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D168" s="5">
         <v>6</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F168" s="5">
         <v>13</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G168" s="5">
         <v>160000</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I143" s="7" t="str">
+      <c r="I168" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="144" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="5">
+    <row r="169" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C169" s="5">
         <v>6014</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D169" s="5">
         <v>6</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F169" s="5">
         <v>14</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G169" s="5">
         <v>180000</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I144" s="7" t="str">
+      <c r="I169" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="145" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="5">
+    <row r="170" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="5">
         <v>6015</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D170" s="5">
         <v>6</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F170" s="5">
         <v>15</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G170" s="5">
         <v>200000</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="I145" s="7" t="str">
+      <c r="I170" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="5">
-        <f>C145+1</f>
+    <row r="171" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C171" s="5">
+        <f>C170+1</f>
         <v>6016</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D171" s="5">
         <v>6</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F146" s="5">
-        <f>F145+1</f>
+      <c r="F171" s="5">
+        <f>F170+1</f>
         <v>16</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G171" s="5">
         <v>230000</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I146" s="7" t="str">
+      <c r="I171" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
       </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-    </row>
-    <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="5">
-        <f t="shared" ref="C147:C155" si="11">C146+1</f>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+    </row>
+    <row r="172" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="5">
+        <f t="shared" ref="C172:C185" si="11">C171+1</f>
         <v>6017</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D172" s="5">
         <v>6</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E172" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F147" s="5">
-        <f t="shared" ref="F147:F155" si="12">F146+1</f>
+      <c r="F172" s="5">
+        <f t="shared" ref="F172:F185" si="12">F171+1</f>
         <v>17</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G172" s="5">
         <v>270000</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I147" s="7" t="str">
+      <c r="I172" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
       </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-    </row>
-    <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="5">
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+    </row>
+    <row r="173" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D173" s="5">
         <v>6</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F173" s="5">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G173" s="5">
         <v>320000</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="I148" s="7" t="str">
+      <c r="I173" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
       </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-    </row>
-    <row r="149" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="5">
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+    </row>
+    <row r="174" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C174" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D174" s="5">
         <v>6</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E174" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F174" s="5">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G174" s="5">
         <v>380000</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H174" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I149" s="7" t="str">
+      <c r="I174" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-    </row>
-    <row r="150" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="5">
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+    </row>
+    <row r="175" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C175" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D175" s="5">
         <v>6</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E175" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F175" s="5">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G175" s="5">
         <v>450000</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H175" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I150" s="7" t="str">
+      <c r="I175" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
       </c>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-    </row>
-    <row r="151" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="5">
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+    </row>
+    <row r="176" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C176" s="5">
         <f t="shared" si="11"/>
         <v>6021</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D176" s="5">
         <v>6</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F176" s="5">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G176" s="5">
         <v>520000</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H176" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="I151" s="5" t="str">
-        <f t="shared" ref="I151:I155" si="13">"生命上限提升+"&amp;F151&amp;"%,眩晕抵抗概率+"&amp;F151&amp;"%"</f>
+      <c r="I176" s="5" t="str">
+        <f t="shared" ref="I176:I180" si="13">"生命上限提升+"&amp;F176&amp;"%,眩晕抵抗概率+"&amp;F176&amp;"%"</f>
         <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
       </c>
     </row>
-    <row r="152" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="5">
+    <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C177" s="5">
         <f t="shared" si="11"/>
         <v>6022</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D177" s="5">
         <v>6</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E177" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F177" s="5">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G177" s="5">
         <v>600000</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H177" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I152" s="5" t="str">
+      <c r="I177" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
       </c>
     </row>
-    <row r="153" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="5">
+    <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C178" s="5">
         <f t="shared" si="11"/>
         <v>6023</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D178" s="5">
         <v>6</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E178" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F178" s="5">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G178" s="5">
         <v>680000</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H178" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="I153" s="5" t="str">
+      <c r="I178" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
       </c>
     </row>
-    <row r="154" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="5">
+    <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C179" s="5">
         <f t="shared" si="11"/>
         <v>6024</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D179" s="5">
         <v>6</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E179" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F179" s="5">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G179" s="5">
         <v>760000</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H179" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="I154" s="5" t="str">
+      <c r="I179" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
       </c>
     </row>
-    <row r="155" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="5">
+    <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C180" s="5">
         <f t="shared" si="11"/>
         <v>6025</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D180" s="5">
         <v>6</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E180" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F180" s="5">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G180" s="5">
         <v>850000</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H180" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="I155" s="5" t="str">
+      <c r="I180" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C181" s="5">
+        <f t="shared" si="11"/>
+        <v>6026</v>
+      </c>
+      <c r="D181" s="5">
+        <v>6</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F181" s="5">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="G181" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="I181" s="5" t="str">
+        <f t="shared" ref="I181:I185" si="14">"生命上限提升+"&amp;F181&amp;"%,眩晕抵抗概率+"&amp;F181&amp;"%"</f>
+        <v>生命上限提升+26%,眩晕抵抗概率+26%</v>
+      </c>
+    </row>
+    <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C182" s="5">
+        <f t="shared" si="11"/>
+        <v>6027</v>
+      </c>
+      <c r="D182" s="5">
+        <v>6</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F182" s="5">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="G182" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I182" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+27%,眩晕抵抗概率+27%</v>
+      </c>
+    </row>
+    <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C183" s="5">
+        <f t="shared" si="11"/>
+        <v>6028</v>
+      </c>
+      <c r="D183" s="5">
+        <v>6</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F183" s="5">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="G183" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I183" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+28%,眩晕抵抗概率+28%</v>
+      </c>
+    </row>
+    <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C184" s="5">
+        <f t="shared" si="11"/>
+        <v>6029</v>
+      </c>
+      <c r="D184" s="5">
+        <v>6</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F184" s="5">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="G184" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I184" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+29%,眩晕抵抗概率+29%</v>
+      </c>
+    </row>
+    <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C185" s="5">
+        <f t="shared" si="11"/>
+        <v>6030</v>
+      </c>
+      <c r="D185" s="5">
+        <v>6</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F185" s="5">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="G185" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="I185" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+30%,眩晕抵抗概率+30%</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE80A9-F7DE-459F-914D-9BD33AE772FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63823A7-ED46-4C17-9F9E-2E9A085BB8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="592">
   <si>
     <t>c</t>
   </si>
@@ -1686,6 +1686,263 @@
   </si>
   <si>
     <t>降低受到玩家命中概率30%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害31%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害32%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害33%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害34%</t>
+  </si>
+  <si>
+    <t>降低受到玩家普通攻击伤害35%</t>
+  </si>
+  <si>
+    <t>205703;0.31</t>
+  </si>
+  <si>
+    <t>205703;0.32</t>
+  </si>
+  <si>
+    <t>205703;0.33</t>
+  </si>
+  <si>
+    <t>205703;0.34</t>
+  </si>
+  <si>
+    <t>205703;0.35</t>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩之魂31级</t>
+  </si>
+  <si>
+    <t>熔岩之魂32级</t>
+  </si>
+  <si>
+    <t>熔岩之魂33级</t>
+  </si>
+  <si>
+    <t>熔岩之魂34级</t>
+  </si>
+  <si>
+    <t>熔岩之魂35级</t>
+  </si>
+  <si>
+    <t>205803;0.31</t>
+  </si>
+  <si>
+    <t>205803;0.32</t>
+  </si>
+  <si>
+    <t>205803;0.33</t>
+  </si>
+  <si>
+    <t>205803;0.34</t>
+  </si>
+  <si>
+    <t>205803;0.35</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害31%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害32%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害33%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害34%</t>
+  </si>
+  <si>
+    <t>降低受到玩家技能伤害35%</t>
+  </si>
+  <si>
+    <t>205903;0.155</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.16</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.165</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205903;0.175</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害16%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害17%</t>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害15.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害16.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到玩家全部伤害17.5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>独兽之魂31级</t>
+  </si>
+  <si>
+    <t>独兽之魂32级</t>
+  </si>
+  <si>
+    <t>独兽之魂33级</t>
+  </si>
+  <si>
+    <t>独兽之魂34级</t>
+  </si>
+  <si>
+    <t>独兽之魂35级</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率31%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率32%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率33%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率34%</t>
+  </si>
+  <si>
+    <t>降低受到玩家暴击概率35%</t>
+  </si>
+  <si>
+    <t>206003;0.31</t>
+  </si>
+  <si>
+    <t>206003;0.32</t>
+  </si>
+  <si>
+    <t>206003;0.33</t>
+  </si>
+  <si>
+    <t>206003;0.34</t>
+  </si>
+  <si>
+    <t>206003;0.35</t>
+  </si>
+  <si>
+    <t>愤怒之魂31级</t>
+  </si>
+  <si>
+    <t>愤怒之魂32级</t>
+  </si>
+  <si>
+    <t>愤怒之魂33级</t>
+  </si>
+  <si>
+    <t>愤怒之魂34级</t>
+  </si>
+  <si>
+    <t>愤怒之魂35级</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率31%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率32%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率33%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率34%</t>
+  </si>
+  <si>
+    <t>降低受到玩家命中概率35%</t>
+  </si>
+  <si>
+    <t>206103;0.31</t>
+  </si>
+  <si>
+    <t>206103;0.32</t>
+  </si>
+  <si>
+    <t>206103;0.33</t>
+  </si>
+  <si>
+    <t>206103;0.34</t>
+  </si>
+  <si>
+    <t>206103;0.35</t>
+  </si>
+  <si>
+    <t>驱逐之魂31级</t>
+  </si>
+  <si>
+    <t>驱逐之魂32级</t>
+  </si>
+  <si>
+    <t>驱逐之魂33级</t>
+  </si>
+  <si>
+    <t>驱逐之魂34级</t>
+  </si>
+  <si>
+    <t>驱逐之魂35级</t>
+  </si>
+  <si>
+    <t>100202;0.35@213103;0.35</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.34@213103;0.34</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.33@213103;0.33</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.32@213103;0.32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.31@213103;0.31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之魂31级</t>
+  </si>
+  <si>
+    <t>生命之魂32级</t>
+  </si>
+  <si>
+    <t>生命之魂33级</t>
+  </si>
+  <si>
+    <t>生命之魂34级</t>
+  </si>
+  <si>
+    <t>生命之魂35级</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +3117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2881,6 +3138,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="313">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3266,7 +3527,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I185" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I215" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
       <calculatedColumnFormula>C3+1</calculatedColumnFormula>
@@ -3571,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:M185"/>
+  <dimension ref="B1:M215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C91" sqref="C90:C95"/>
+    <sheetView tabSelected="1" topLeftCell="B190" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4033,7 +4294,7 @@
     </row>
     <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
-        <f t="shared" ref="C22:C35" si="0">C21+1</f>
+        <f t="shared" ref="C22:C40" si="0">C21+1</f>
         <v>1017</v>
       </c>
       <c r="D22" s="5">
@@ -4043,7 +4304,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:F35" si="1">F21+1</f>
+        <f t="shared" ref="F22:F40" si="1">F21+1</f>
         <v>17</v>
       </c>
       <c r="G22" s="5">
@@ -4381,3653 +4642,4411 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="5">
-        <v>2001</v>
+        <f>C35+1</f>
+        <v>1031</v>
       </c>
       <c r="D36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>76</v>
+        <v>522</v>
       </c>
       <c r="F36" s="5">
+        <f>F35+1</f>
+        <v>31</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="5">
-        <v>2002</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="F37" s="5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="G37" s="5">
-        <v>6000</v>
+        <v>3000000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5">
-        <v>2003</v>
+        <f t="shared" si="0"/>
+        <v>1033</v>
       </c>
       <c r="D38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="F38" s="5">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="G38" s="5">
-        <v>10000</v>
+        <v>4000000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>83</v>
+        <v>518</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5">
-        <v>2004</v>
+        <f t="shared" si="0"/>
+        <v>1034</v>
       </c>
       <c r="D39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="F39" s="5">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="G39" s="5">
-        <v>15000</v>
+        <v>5000000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>86</v>
+        <v>519</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5">
-        <v>2005</v>
+        <f t="shared" si="0"/>
+        <v>1035</v>
       </c>
       <c r="D40" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>88</v>
+        <v>526</v>
       </c>
       <c r="F40" s="5">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="G40" s="5">
-        <v>22500</v>
+        <v>6000000</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>89</v>
+        <v>520</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>90</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F41" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>32500</v>
+        <v>3000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F42" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G42" s="5">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F43" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G43" s="5">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F44" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G44" s="5">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F45" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <v>100000</v>
+        <v>22500</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F46" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G46" s="5">
-        <v>120000</v>
+        <v>32500</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F47" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G47" s="5">
-        <v>140000</v>
+        <v>45000</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F48" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G48" s="5">
-        <v>160000</v>
+        <v>60000</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D49" s="5">
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F49" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G49" s="5">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D50" s="5">
         <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F50" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G50" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="5">
-        <f>C50+1</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F51" s="5">
-        <f>F50+1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G51" s="5">
-        <v>230000</v>
+        <v>120000</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5">
-        <f t="shared" ref="C52:C65" si="2">C51+1</f>
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" ref="F52:F65" si="3">F51+1</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G52" s="5">
-        <v>270000</v>
+        <v>140000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5">
-        <f t="shared" si="2"/>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G53" s="5">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5">
-        <f t="shared" si="2"/>
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D54" s="5">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5">
-        <v>380000</v>
+        <v>180000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5">
-        <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G55" s="5">
-        <v>450000</v>
+        <v>200000</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="5">
-        <f t="shared" si="2"/>
-        <v>2021</v>
+        <f>C55+1</f>
+        <v>2016</v>
       </c>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="F56" s="5">
         <f>F55+1</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G56" s="5">
-        <v>520000</v>
+        <v>230000</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>370</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="5">
-        <f t="shared" si="2"/>
-        <v>2022</v>
+        <f t="shared" ref="C57:C75" si="2">C56+1</f>
+        <v>2017</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" ref="F57:F70" si="3">F56+1</f>
+        <v>17</v>
       </c>
       <c r="G57" s="5">
-        <v>600000</v>
+        <v>270000</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>371</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5">
         <f t="shared" si="2"/>
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="D58" s="5">
         <v>2</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G58" s="5">
-        <v>680000</v>
+        <v>320000</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5">
         <f t="shared" si="2"/>
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G59" s="5">
-        <v>760000</v>
+        <v>380000</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>373</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
         <f t="shared" si="2"/>
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D60" s="5">
         <v>2</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G60" s="5">
-        <v>850000</v>
+        <v>450000</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="5">
         <f t="shared" si="2"/>
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="D61" s="5">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f>F60+1</f>
+        <v>21</v>
       </c>
       <c r="G61" s="5">
-        <v>1000000</v>
+        <v>520000</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
         <f t="shared" si="2"/>
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="D62" s="5">
         <v>2</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G62" s="5">
-        <v>1250000</v>
+        <v>600000</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>449</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="5">
         <f t="shared" si="2"/>
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="D63" s="5">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G63" s="5">
-        <v>1500000</v>
+        <v>680000</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5">
         <f t="shared" si="2"/>
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G64" s="5">
-        <v>1750000</v>
+        <v>760000</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
         <f t="shared" si="2"/>
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G65" s="5">
+        <v>850000</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="5">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1250000</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="5">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="5">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1750000</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="5">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G70" s="5">
         <v>2000000</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="5">
-        <v>3001</v>
-      </c>
-      <c r="D66" s="5">
-        <v>3</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="5">
-        <v>3002</v>
-      </c>
-      <c r="D67" s="5">
-        <v>3</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="5">
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="5">
+        <f>C70+1</f>
+        <v>2031</v>
+      </c>
+      <c r="D71" s="5">
         <v>2</v>
       </c>
-      <c r="G67" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="5">
-        <v>3003</v>
-      </c>
-      <c r="D68" s="5">
-        <v>3</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="5">
-        <v>3</v>
-      </c>
-      <c r="G68" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="5">
-        <v>3004</v>
-      </c>
-      <c r="D69" s="5">
-        <v>3</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F69" s="5">
-        <v>4</v>
-      </c>
-      <c r="G69" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="5">
-        <v>3005</v>
-      </c>
-      <c r="D70" s="5">
-        <v>3</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="5">
-        <v>5</v>
-      </c>
-      <c r="G70" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="5">
-        <v>3006</v>
-      </c>
-      <c r="D71" s="5">
-        <v>3</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>146</v>
+        <v>522</v>
       </c>
       <c r="F71" s="5">
-        <v>6</v>
+        <f>F70+1</f>
+        <v>31</v>
       </c>
       <c r="G71" s="5">
-        <v>32500</v>
+        <v>2500000</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>147</v>
+        <v>527</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5">
-        <v>3007</v>
+        <f t="shared" si="2"/>
+        <v>2032</v>
       </c>
       <c r="D72" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="F72" s="5">
-        <v>7</v>
+        <f>F70+1</f>
+        <v>31</v>
       </c>
       <c r="G72" s="5">
-        <v>45000</v>
+        <v>3000000</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>150</v>
+        <v>528</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="5">
-        <v>3008</v>
+        <f t="shared" si="2"/>
+        <v>2033</v>
       </c>
       <c r="D73" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>152</v>
+        <v>524</v>
       </c>
       <c r="F73" s="5">
-        <v>8</v>
+        <f>F70+1</f>
+        <v>31</v>
       </c>
       <c r="G73" s="5">
-        <v>60000</v>
+        <v>4000000</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>153</v>
+        <v>529</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5">
-        <v>3009</v>
+        <f t="shared" si="2"/>
+        <v>2034</v>
       </c>
       <c r="D74" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>155</v>
+        <v>525</v>
       </c>
       <c r="F74" s="5">
-        <v>9</v>
+        <f>F70+1</f>
+        <v>31</v>
       </c>
       <c r="G74" s="5">
-        <v>80000</v>
+        <v>5000000</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>156</v>
+        <v>530</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="5">
-        <v>3010</v>
+        <f t="shared" si="2"/>
+        <v>2035</v>
       </c>
       <c r="D75" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>158</v>
+        <v>526</v>
       </c>
       <c r="F75" s="5">
-        <v>10</v>
+        <f>F70+1</f>
+        <v>31</v>
       </c>
       <c r="G75" s="5">
-        <v>100000</v>
+        <v>6000000</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>159</v>
+        <v>531</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>160</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="5">
-        <v>3011</v>
+        <v>3001</v>
       </c>
       <c r="D76" s="5">
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F76" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G76" s="5">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5">
-        <v>3012</v>
+        <v>3002</v>
       </c>
       <c r="D77" s="5">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="F77" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G77" s="5">
-        <v>140000</v>
+        <v>6000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5">
-        <v>3013</v>
+        <v>3003</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F78" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G78" s="5">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
-        <v>3014</v>
+        <v>3004</v>
       </c>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F79" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G79" s="5">
-        <v>180000</v>
+        <v>15000</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
-        <v>3015</v>
+        <v>3005</v>
       </c>
       <c r="D80" s="5">
         <v>3</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F80" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G80" s="5">
-        <v>200000</v>
+        <v>22500</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="5">
-        <f>C80+1</f>
-        <v>3016</v>
+        <v>3006</v>
       </c>
       <c r="D81" s="5">
         <v>3</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F81" s="5">
-        <f>F80+1</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G81" s="5">
-        <v>230000</v>
+        <v>32500</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="5">
-        <f t="shared" ref="C82:C95" si="4">C81+1</f>
-        <v>3017</v>
+        <v>3007</v>
       </c>
       <c r="D82" s="5">
         <v>3</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="5">
+        <v>7</v>
+      </c>
+      <c r="G82" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="5">
+        <v>3008</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" s="5">
+        <v>8</v>
+      </c>
+      <c r="G83" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="5">
+        <v>3009</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="5">
+        <v>9</v>
+      </c>
+      <c r="G84" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="5">
+        <v>3010</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F85" s="5">
+        <v>10</v>
+      </c>
+      <c r="G85" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="5">
+        <v>3011</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86" s="5">
+        <v>11</v>
+      </c>
+      <c r="G86" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="5">
+        <v>3012</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" s="5">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="5">
+        <v>3013</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="5">
+        <v>13</v>
+      </c>
+      <c r="G88" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="5">
+        <v>3014</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="5">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="5">
+        <v>3015</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="5">
+        <v>15</v>
+      </c>
+      <c r="G90" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="5">
+        <f>C90+1</f>
+        <v>3016</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="5">
+        <f>F90+1</f>
+        <v>16</v>
+      </c>
+      <c r="G91" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="5">
+        <f t="shared" ref="C92:C110" si="4">C91+1</f>
+        <v>3017</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F82" s="5">
-        <f t="shared" ref="F82:F95" si="5">F81+1</f>
+      <c r="F92" s="5">
+        <f t="shared" ref="F92:F110" si="5">F91+1</f>
         <v>17</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G92" s="5">
         <v>270000</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="5">
+    <row r="93" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D93" s="5">
         <v>3</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F93" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G93" s="5">
         <v>320000</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="5">
+    <row r="94" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D94" s="5">
         <v>3</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F94" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G94" s="5">
         <v>380000</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I94" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="5">
+    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D95" s="5">
         <v>3</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F95" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G95" s="5">
         <v>450000</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I95" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="5">
-        <f>C85+1</f>
+    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="5">
+        <f>C95+1</f>
         <v>3021</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D96" s="5">
         <v>3</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F86" s="5">
-        <f>F85+1</f>
+      <c r="F96" s="5">
+        <f>F95+1</f>
         <v>21</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G96" s="5">
         <v>520000</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I96" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="5">
+    <row r="97" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D97" s="5">
         <v>3</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F97" s="5">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G97" s="5">
         <v>600000</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I97" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="5">
+    <row r="98" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D98" s="5">
         <v>3</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F98" s="5">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G98" s="5">
         <v>680000</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="5">
+    <row r="99" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D99" s="5">
         <v>3</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F99" s="5">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G99" s="5">
         <v>760000</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="5">
+    <row r="100" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D100" s="5">
         <v>3</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F100" s="5">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G100" s="5">
         <v>850000</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L100" s="2">
         <f>表1[[#This Row],[生命之盾经验]]/1000</f>
         <v>850</v>
       </c>
     </row>
-    <row r="91" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="5">
-        <f>C90+1</f>
+    <row r="101" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="5">
+        <f>C100+1</f>
         <v>3026</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D101" s="5">
         <v>3</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F101" s="5">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G101" s="5">
         <v>1000000</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H101" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I101" s="7" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="5">
+    <row r="102" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="5">
         <f t="shared" si="4"/>
         <v>3027</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D102" s="5">
         <v>3</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F102" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G102" s="5">
         <v>1250000</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="93" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="5">
+    <row r="103" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="5">
         <f t="shared" si="4"/>
         <v>3028</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D103" s="5">
         <v>3</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F103" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G103" s="5">
         <v>1500000</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I103" s="7" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="94" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="5">
+    <row r="104" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="5">
         <f t="shared" si="4"/>
         <v>3029</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D104" s="5">
         <v>3</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F104" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G104" s="5">
         <v>1750000</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="95" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="5">
+    <row r="105" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="5">
         <f t="shared" si="4"/>
         <v>3030</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D105" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F105" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G105" s="5">
         <v>2000000</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="96" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="5">
+    <row r="106" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="5">
+        <f>C105+1</f>
+        <v>3031</v>
+      </c>
+      <c r="D106" s="5">
+        <v>3</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F106" s="5">
+        <f>F105+1</f>
+        <v>31</v>
+      </c>
+      <c r="G106" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="5">
+        <f t="shared" si="4"/>
+        <v>3032</v>
+      </c>
+      <c r="D107" s="5">
+        <v>3</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="G107" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="5">
+        <f t="shared" si="4"/>
+        <v>3033</v>
+      </c>
+      <c r="D108" s="5">
+        <v>3</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G108" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="5">
+        <f t="shared" si="4"/>
+        <v>3034</v>
+      </c>
+      <c r="D109" s="5">
+        <v>3</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="G109" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="5">
+        <f t="shared" si="4"/>
+        <v>3035</v>
+      </c>
+      <c r="D110" s="5">
+        <v>3</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="G110" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="5">
         <v>4001</v>
-      </c>
-      <c r="D96" s="5">
-        <v>4</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F96" s="5">
-        <v>1</v>
-      </c>
-      <c r="G96" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="5">
-        <v>4002</v>
-      </c>
-      <c r="D97" s="5">
-        <v>4</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F97" s="5">
-        <v>2</v>
-      </c>
-      <c r="G97" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="5">
-        <v>4003</v>
-      </c>
-      <c r="D98" s="5">
-        <v>4</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F98" s="5">
-        <v>3</v>
-      </c>
-      <c r="G98" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="5">
-        <v>4004</v>
-      </c>
-      <c r="D99" s="5">
-        <v>4</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F99" s="5">
-        <v>4</v>
-      </c>
-      <c r="G99" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="5">
-        <v>4005</v>
-      </c>
-      <c r="D100" s="5">
-        <v>4</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F100" s="5">
-        <v>5</v>
-      </c>
-      <c r="G100" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="5">
-        <v>4006</v>
-      </c>
-      <c r="D101" s="5">
-        <v>4</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F101" s="5">
-        <v>6</v>
-      </c>
-      <c r="G101" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="5">
-        <v>4007</v>
-      </c>
-      <c r="D102" s="5">
-        <v>4</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F102" s="5">
-        <v>7</v>
-      </c>
-      <c r="G102" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="5">
-        <v>4008</v>
-      </c>
-      <c r="D103" s="5">
-        <v>4</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F103" s="5">
-        <v>8</v>
-      </c>
-      <c r="G103" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="5">
-        <v>4009</v>
-      </c>
-      <c r="D104" s="5">
-        <v>4</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F104" s="5">
-        <v>9</v>
-      </c>
-      <c r="G104" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="5">
-        <v>4010</v>
-      </c>
-      <c r="D105" s="5">
-        <v>4</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F105" s="5">
-        <v>10</v>
-      </c>
-      <c r="G105" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="5">
-        <v>4011</v>
-      </c>
-      <c r="D106" s="5">
-        <v>4</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F106" s="5">
-        <v>11</v>
-      </c>
-      <c r="G106" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="5">
-        <v>4012</v>
-      </c>
-      <c r="D107" s="5">
-        <v>4</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F107" s="5">
-        <v>12</v>
-      </c>
-      <c r="G107" s="5">
-        <v>140000</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="5">
-        <v>4013</v>
-      </c>
-      <c r="D108" s="5">
-        <v>4</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F108" s="5">
-        <v>13</v>
-      </c>
-      <c r="G108" s="5">
-        <v>160000</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="5">
-        <v>4014</v>
-      </c>
-      <c r="D109" s="5">
-        <v>4</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F109" s="5">
-        <v>14</v>
-      </c>
-      <c r="G109" s="5">
-        <v>180000</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="5">
-        <v>4015</v>
-      </c>
-      <c r="D110" s="5">
-        <v>4</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110" s="5">
-        <v>15</v>
-      </c>
-      <c r="G110" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="5">
-        <f>C110+1</f>
-        <v>4016</v>
       </c>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F111" s="5">
-        <f>F110+1</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G111" s="5">
-        <v>230000</v>
+        <v>3000</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="5">
-        <f t="shared" ref="C112:C125" si="6">C111+1</f>
-        <v>4017</v>
+        <v>4002</v>
       </c>
       <c r="D112" s="5">
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F112" s="5">
+        <v>2</v>
+      </c>
+      <c r="G112" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="5">
+        <v>4003</v>
+      </c>
+      <c r="D113" s="5">
+        <v>4</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F113" s="5">
+        <v>3</v>
+      </c>
+      <c r="G113" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="5">
+        <v>4004</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F114" s="5">
+        <v>4</v>
+      </c>
+      <c r="G114" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="5">
+        <v>4005</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" s="5">
+        <v>5</v>
+      </c>
+      <c r="G115" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="5">
+        <v>4006</v>
+      </c>
+      <c r="D116" s="5">
+        <v>4</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" s="5">
+        <v>6</v>
+      </c>
+      <c r="G116" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="5">
+        <v>4007</v>
+      </c>
+      <c r="D117" s="5">
+        <v>4</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F117" s="5">
+        <v>7</v>
+      </c>
+      <c r="G117" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="5">
+        <v>4008</v>
+      </c>
+      <c r="D118" s="5">
+        <v>4</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="5">
+        <v>8</v>
+      </c>
+      <c r="G118" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="5">
+        <v>4009</v>
+      </c>
+      <c r="D119" s="5">
+        <v>4</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F119" s="5">
+        <v>9</v>
+      </c>
+      <c r="G119" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="5">
+        <v>4010</v>
+      </c>
+      <c r="D120" s="5">
+        <v>4</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F120" s="5">
+        <v>10</v>
+      </c>
+      <c r="G120" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="5">
+        <v>4011</v>
+      </c>
+      <c r="D121" s="5">
+        <v>4</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F121" s="5">
+        <v>11</v>
+      </c>
+      <c r="G121" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="5">
+        <v>4012</v>
+      </c>
+      <c r="D122" s="5">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" s="5">
+        <v>12</v>
+      </c>
+      <c r="G122" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="5">
+        <v>4013</v>
+      </c>
+      <c r="D123" s="5">
+        <v>4</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F123" s="5">
+        <v>13</v>
+      </c>
+      <c r="G123" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="5">
+        <v>4014</v>
+      </c>
+      <c r="D124" s="5">
+        <v>4</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F124" s="5">
+        <v>14</v>
+      </c>
+      <c r="G124" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="5">
+        <v>4015</v>
+      </c>
+      <c r="D125" s="5">
+        <v>4</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F125" s="5">
+        <v>15</v>
+      </c>
+      <c r="G125" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="5">
+        <f>C125+1</f>
+        <v>4016</v>
+      </c>
+      <c r="D126" s="5">
+        <v>4</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" s="5">
+        <f>F125+1</f>
+        <v>16</v>
+      </c>
+      <c r="G126" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="5">
+        <f t="shared" ref="C127:C145" si="6">C126+1</f>
+        <v>4017</v>
+      </c>
+      <c r="D127" s="5">
+        <v>4</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F112" s="5">
-        <f t="shared" ref="F112:F125" si="7">F111+1</f>
+      <c r="F127" s="5">
+        <f t="shared" ref="F127:F145" si="7">F126+1</f>
         <v>17</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G127" s="5">
         <v>270000</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I127" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="5">
+    <row r="128" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D128" s="5">
         <v>4</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F128" s="5">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G128" s="5">
         <v>320000</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H128" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I128" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="114" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="5">
+    <row r="129" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D129" s="5">
         <v>4</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F129" s="5">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G129" s="5">
         <v>380000</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H129" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I129" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="5">
+    <row r="130" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D130" s="5">
         <v>4</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F130" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G130" s="5">
         <v>450000</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H130" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I130" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="5">
-        <f>C115+1</f>
+    <row r="131" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="5">
+        <f>C130+1</f>
         <v>4021</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D131" s="5">
         <v>4</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F116" s="5">
-        <f>F115+1</f>
+      <c r="F131" s="5">
+        <f>F130+1</f>
         <v>21</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G131" s="5">
         <v>520000</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H131" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I131" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="5">
+    <row r="132" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="5">
         <f t="shared" si="6"/>
         <v>4022</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D132" s="5">
         <v>4</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E132" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F132" s="5">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G132" s="5">
         <v>600000</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="I132" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="5">
+    <row r="133" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="5">
         <f t="shared" si="6"/>
         <v>4023</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D133" s="5">
         <v>4</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F133" s="5">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G133" s="5">
         <v>680000</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H133" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="I133" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="5">
+    <row r="134" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="5">
         <f t="shared" si="6"/>
         <v>4024</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D134" s="5">
         <v>4</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F134" s="5">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G134" s="5">
         <v>760000</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H134" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="I134" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="120" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="5">
+    <row r="135" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="5">
         <f t="shared" si="6"/>
         <v>4025</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D135" s="5">
         <v>4</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F135" s="5">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G135" s="5">
         <v>850000</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H135" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="I120" s="7" t="s">
+      <c r="I135" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="5">
-        <f>C120+1</f>
+    <row r="136" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="5">
+        <f>C135+1</f>
         <v>4026</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D136" s="5">
         <v>4</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F136" s="5">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G136" s="5">
         <v>1000000</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="I121" s="7" t="s">
+      <c r="I136" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="5">
+    <row r="137" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="5">
         <f t="shared" si="6"/>
         <v>4027</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D137" s="5">
         <v>4</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E137" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F137" s="5">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G137" s="5">
         <v>1250000</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="I137" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="5">
+    <row r="138" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="5">
         <f t="shared" si="6"/>
         <v>4028</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D138" s="5">
         <v>4</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F138" s="5">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G138" s="5">
         <v>1500000</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I138" s="7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="5">
+    <row r="139" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="5">
         <f t="shared" si="6"/>
         <v>4029</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D139" s="5">
         <v>4</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F139" s="5">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G139" s="5">
         <v>1750000</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H139" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I139" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="5">
+    <row r="140" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="5">
         <f t="shared" si="6"/>
         <v>4030</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D140" s="5">
         <v>4</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F140" s="5">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G140" s="5">
         <v>2000000</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H140" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="I125" s="7" t="s">
+      <c r="I140" s="7" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="126" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="5">
-        <v>5001</v>
-      </c>
-      <c r="D126" s="5">
-        <v>5</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F126" s="5">
-        <v>1</v>
-      </c>
-      <c r="G126" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="5">
-        <v>5002</v>
-      </c>
-      <c r="D127" s="5">
-        <v>5</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F127" s="5">
-        <v>2</v>
-      </c>
-      <c r="G127" s="5">
-        <v>6000</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="5">
-        <v>5003</v>
-      </c>
-      <c r="D128" s="5">
-        <v>5</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F128" s="5">
-        <v>3</v>
-      </c>
-      <c r="G128" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="5">
-        <v>5004</v>
-      </c>
-      <c r="D129" s="5">
-        <v>5</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F129" s="5">
-        <v>4</v>
-      </c>
-      <c r="G129" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="5">
-        <v>5005</v>
-      </c>
-      <c r="D130" s="5">
-        <v>5</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F130" s="5">
-        <v>5</v>
-      </c>
-      <c r="G130" s="5">
-        <v>22500</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="5">
-        <v>5006</v>
-      </c>
-      <c r="D131" s="5">
-        <v>5</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F131" s="5">
-        <v>6</v>
-      </c>
-      <c r="G131" s="5">
-        <v>32500</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="5">
-        <v>5007</v>
-      </c>
-      <c r="D132" s="5">
-        <v>5</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F132" s="5">
-        <v>7</v>
-      </c>
-      <c r="G132" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="5">
-        <v>5008</v>
-      </c>
-      <c r="D133" s="5">
-        <v>5</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F133" s="5">
-        <v>8</v>
-      </c>
-      <c r="G133" s="5">
-        <v>60000</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="134" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="5">
-        <v>5009</v>
-      </c>
-      <c r="D134" s="5">
-        <v>5</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F134" s="5">
-        <v>9</v>
-      </c>
-      <c r="G134" s="5">
-        <v>80000</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="5">
-        <v>5010</v>
-      </c>
-      <c r="D135" s="5">
-        <v>5</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F135" s="5">
-        <v>10</v>
-      </c>
-      <c r="G135" s="5">
-        <v>100000</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="5">
-        <v>5011</v>
-      </c>
-      <c r="D136" s="5">
-        <v>5</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F136" s="5">
-        <v>11</v>
-      </c>
-      <c r="G136" s="5">
-        <v>120000</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="5">
-        <v>5012</v>
-      </c>
-      <c r="D137" s="5">
-        <v>5</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F137" s="5">
-        <v>12</v>
-      </c>
-      <c r="G137" s="5">
-        <v>140000</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="5">
-        <v>5013</v>
-      </c>
-      <c r="D138" s="5">
-        <v>5</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F138" s="5">
-        <v>13</v>
-      </c>
-      <c r="G138" s="5">
-        <v>160000</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="139" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="5">
-        <v>5014</v>
-      </c>
-      <c r="D139" s="5">
-        <v>5</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F139" s="5">
-        <v>14</v>
-      </c>
-      <c r="G139" s="5">
-        <v>180000</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="140" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="5">
-        <v>5015</v>
-      </c>
-      <c r="D140" s="5">
-        <v>5</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F140" s="5">
-        <v>15</v>
-      </c>
-      <c r="G140" s="5">
-        <v>200000</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="141" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="5">
         <f>C140+1</f>
-        <v>5016</v>
+        <v>4031</v>
       </c>
       <c r="D141" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>296</v>
+        <v>562</v>
       </c>
       <c r="F141" s="5">
         <f>F140+1</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G141" s="5">
-        <v>230000</v>
+        <v>2500000</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>297</v>
+        <v>557</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>298</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="5">
-        <f t="shared" ref="C142:C155" si="8">C141+1</f>
-        <v>5017</v>
+        <f t="shared" si="6"/>
+        <v>4032</v>
       </c>
       <c r="D142" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" ref="F142:F155" si="9">F141+1</f>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
       <c r="G142" s="5">
-        <v>270000</v>
+        <v>3000000</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>300</v>
+        <v>558</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>301</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="5">
+        <f t="shared" si="6"/>
+        <v>4033</v>
+      </c>
+      <c r="D143" s="5">
+        <v>4</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="G143" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="5">
+        <f t="shared" si="6"/>
+        <v>4034</v>
+      </c>
+      <c r="D144" s="5">
+        <v>4</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G144" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="5">
+        <f t="shared" si="6"/>
+        <v>4035</v>
+      </c>
+      <c r="D145" s="5">
+        <v>4</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="G145" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D146" s="5">
+        <v>5</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+      <c r="G146" s="5">
+        <v>3000</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="5">
+        <v>5002</v>
+      </c>
+      <c r="D147" s="5">
+        <v>5</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F147" s="5">
+        <v>2</v>
+      </c>
+      <c r="G147" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="5">
+        <v>5003</v>
+      </c>
+      <c r="D148" s="5">
+        <v>5</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F148" s="5">
+        <v>3</v>
+      </c>
+      <c r="G148" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="5">
+        <v>5004</v>
+      </c>
+      <c r="D149" s="5">
+        <v>5</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F149" s="5">
+        <v>4</v>
+      </c>
+      <c r="G149" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="5">
+        <v>5005</v>
+      </c>
+      <c r="D150" s="5">
+        <v>5</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F150" s="5">
+        <v>5</v>
+      </c>
+      <c r="G150" s="5">
+        <v>22500</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="5">
+        <v>5006</v>
+      </c>
+      <c r="D151" s="5">
+        <v>5</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F151" s="5">
+        <v>6</v>
+      </c>
+      <c r="G151" s="5">
+        <v>32500</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="5">
+        <v>5007</v>
+      </c>
+      <c r="D152" s="5">
+        <v>5</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F152" s="5">
+        <v>7</v>
+      </c>
+      <c r="G152" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="5">
+        <v>5008</v>
+      </c>
+      <c r="D153" s="5">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" s="5">
+        <v>8</v>
+      </c>
+      <c r="G153" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="5">
+        <v>5009</v>
+      </c>
+      <c r="D154" s="5">
+        <v>5</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F154" s="5">
+        <v>9</v>
+      </c>
+      <c r="G154" s="5">
+        <v>80000</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="5">
+        <v>5010</v>
+      </c>
+      <c r="D155" s="5">
+        <v>5</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F155" s="5">
+        <v>10</v>
+      </c>
+      <c r="G155" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="5">
+        <v>5011</v>
+      </c>
+      <c r="D156" s="5">
+        <v>5</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F156" s="5">
+        <v>11</v>
+      </c>
+      <c r="G156" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="5">
+        <v>5012</v>
+      </c>
+      <c r="D157" s="5">
+        <v>5</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F157" s="5">
+        <v>12</v>
+      </c>
+      <c r="G157" s="5">
+        <v>140000</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C158" s="5">
+        <v>5013</v>
+      </c>
+      <c r="D158" s="5">
+        <v>5</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F158" s="5">
+        <v>13</v>
+      </c>
+      <c r="G158" s="5">
+        <v>160000</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C159" s="5">
+        <v>5014</v>
+      </c>
+      <c r="D159" s="5">
+        <v>5</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" s="5">
+        <v>14</v>
+      </c>
+      <c r="G159" s="5">
+        <v>180000</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="5">
+        <v>5015</v>
+      </c>
+      <c r="D160" s="5">
+        <v>5</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F160" s="5">
+        <v>15</v>
+      </c>
+      <c r="G160" s="5">
+        <v>200000</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="5">
+        <f>C160+1</f>
+        <v>5016</v>
+      </c>
+      <c r="D161" s="5">
+        <v>5</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F161" s="5">
+        <f>F160+1</f>
+        <v>16</v>
+      </c>
+      <c r="G161" s="5">
+        <v>230000</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C162" s="5">
+        <f t="shared" ref="C162:C180" si="8">C161+1</f>
+        <v>5017</v>
+      </c>
+      <c r="D162" s="5">
+        <v>5</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" ref="F162:F180" si="9">F161+1</f>
+        <v>17</v>
+      </c>
+      <c r="G162" s="5">
+        <v>270000</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D163" s="5">
         <v>5</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E163" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F163" s="5">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G163" s="5">
         <v>320000</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H163" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I143" s="7" t="s">
+      <c r="I163" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="144" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="5">
+    <row r="164" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D164" s="5">
         <v>5</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E164" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F164" s="5">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G164" s="5">
         <v>380000</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H164" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I144" s="7" t="s">
+      <c r="I164" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="5">
+    <row r="165" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D165" s="5">
         <v>5</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E165" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F165" s="5">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G165" s="5">
         <v>450000</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I145" s="7" t="s">
+      <c r="I165" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="5">
-        <f>C145+1</f>
+    <row r="166" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="5">
+        <f>C165+1</f>
         <v>5021</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D166" s="5">
         <v>5</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F146" s="5">
-        <f>F145+1</f>
+      <c r="F166" s="5">
+        <f>F165+1</f>
         <v>21</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G166" s="5">
         <v>520000</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I146" s="7" t="s">
+      <c r="I166" s="7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="147" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="5">
+    <row r="167" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C167" s="5">
         <f t="shared" si="8"/>
         <v>5022</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D167" s="5">
         <v>5</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F167" s="5">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G167" s="5">
         <v>600000</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I147" s="7" t="s">
+      <c r="I167" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="148" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="5">
+    <row r="168" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="5">
         <f t="shared" si="8"/>
         <v>5023</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D168" s="5">
         <v>5</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F168" s="5">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G168" s="5">
         <v>680000</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="I148" s="7" t="s">
+      <c r="I168" s="7" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="5">
+    <row r="169" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C169" s="5">
         <f t="shared" si="8"/>
         <v>5024</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D169" s="5">
         <v>5</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F169" s="5">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G169" s="5">
         <v>760000</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I149" s="7" t="s">
+      <c r="I169" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="5">
+    <row r="170" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="5">
         <f t="shared" si="8"/>
         <v>5025</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D170" s="5">
         <v>5</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F170" s="5">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G170" s="5">
         <v>850000</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I150" s="7" t="s">
+      <c r="I170" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="5">
-        <f>C150+1</f>
+    <row r="171" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C171" s="5">
+        <f>C170+1</f>
         <v>5026</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D171" s="5">
         <v>5</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F171" s="5">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G171" s="5">
         <v>1000000</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="I151" s="7" t="s">
+      <c r="I171" s="7" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="5">
+    <row r="172" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C172" s="5">
         <f t="shared" si="8"/>
         <v>5027</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D172" s="5">
         <v>5</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E172" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F172" s="5">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G172" s="5">
         <v>1250000</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="I152" s="7" t="s">
+      <c r="I172" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="153" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="5">
+    <row r="173" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="5">
         <f t="shared" si="8"/>
         <v>5028</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D173" s="5">
         <v>5</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F173" s="5">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G173" s="5">
         <v>1500000</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="I153" s="7" t="s">
+      <c r="I173" s="7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="5">
+    <row r="174" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C174" s="5">
         <f t="shared" si="8"/>
         <v>5029</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D174" s="5">
         <v>5</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E174" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F174" s="5">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G174" s="5">
         <v>1750000</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H174" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="I154" s="7" t="s">
+      <c r="I174" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="155" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="5">
+    <row r="175" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C175" s="5">
         <f t="shared" si="8"/>
         <v>5030</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D175" s="5">
         <v>5</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E175" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F175" s="5">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G175" s="5">
         <v>2000000</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H175" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="I155" s="7" t="s">
+      <c r="I175" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="156" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="5">
+    <row r="176" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C176" s="5">
+        <f>C175+1</f>
+        <v>5031</v>
+      </c>
+      <c r="D176" s="5">
+        <v>5</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F176" s="5">
+        <f>F175+1</f>
+        <v>31</v>
+      </c>
+      <c r="G176" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C177" s="5">
+        <f t="shared" si="8"/>
+        <v>5032</v>
+      </c>
+      <c r="D177" s="5">
+        <v>5</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="G177" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C178" s="5">
+        <f t="shared" si="8"/>
+        <v>5033</v>
+      </c>
+      <c r="D178" s="5">
+        <v>5</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="G178" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C179" s="5">
+        <f t="shared" si="8"/>
+        <v>5034</v>
+      </c>
+      <c r="D179" s="5">
+        <v>5</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F179" s="5">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="G179" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C180" s="5">
+        <f t="shared" si="8"/>
+        <v>5035</v>
+      </c>
+      <c r="D180" s="5">
+        <v>5</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F180" s="5">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="G180" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C181" s="5">
         <v>6001</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D181" s="5">
         <v>6</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E181" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F181" s="5">
         <v>1</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G181" s="5">
         <v>3000</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I156" s="7" t="str">
-        <f>"生命上限提升+"&amp;F156&amp;"%,眩晕抵抗概率+"&amp;F156&amp;"%"</f>
+      <c r="I181" s="7" t="str">
+        <f>"生命上限提升+"&amp;F181&amp;"%,眩晕抵抗概率+"&amp;F181&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="157" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="5">
+    <row r="182" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C182" s="5">
         <v>6002</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D182" s="5">
         <v>6</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E182" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F182" s="5">
         <v>2</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G182" s="5">
         <v>6000</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H182" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I157" s="7" t="str">
-        <f t="shared" ref="I157:I175" si="10">"生命上限提升+"&amp;F157&amp;"%,眩晕抵抗概率+"&amp;F157&amp;"%"</f>
+      <c r="I182" s="7" t="str">
+        <f t="shared" ref="I182:I200" si="10">"生命上限提升+"&amp;F182&amp;"%,眩晕抵抗概率+"&amp;F182&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="158" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="5">
+    <row r="183" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C183" s="5">
         <v>6003</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D183" s="5">
         <v>6</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F183" s="5">
         <v>3</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G183" s="5">
         <v>10000</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="H183" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I158" s="7" t="str">
+      <c r="I183" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="159" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="5">
+    <row r="184" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C184" s="5">
         <v>6004</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D184" s="5">
         <v>6</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E184" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F184" s="5">
         <v>4</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G184" s="5">
         <v>15000</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="H184" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I159" s="7" t="str">
+      <c r="I184" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="160" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="5">
+    <row r="185" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C185" s="5">
         <v>6005</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D185" s="5">
         <v>6</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E185" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F185" s="5">
         <v>5</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G185" s="5">
         <v>22500</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="H185" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="I160" s="7" t="str">
+      <c r="I185" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="161" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="5">
+    <row r="186" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C186" s="5">
         <v>6006</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D186" s="5">
         <v>6</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E186" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F186" s="5">
         <v>6</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G186" s="5">
         <v>32500</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="H186" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I161" s="7" t="str">
+      <c r="I186" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="162" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="5">
+    <row r="187" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C187" s="5">
         <v>6007</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D187" s="5">
         <v>6</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F187" s="5">
         <v>7</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G187" s="5">
         <v>45000</v>
       </c>
-      <c r="H162" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I162" s="7" t="str">
+      <c r="I187" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="163" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="5">
+    <row r="188" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C188" s="5">
         <v>6008</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D188" s="5">
         <v>6</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F188" s="5">
         <v>8</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G188" s="5">
         <v>60000</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="H188" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I163" s="7" t="str">
+      <c r="I188" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="164" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="5">
+    <row r="189" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C189" s="5">
         <v>6009</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D189" s="5">
         <v>6</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E189" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F189" s="5">
         <v>9</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G189" s="5">
         <v>80000</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="H189" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I164" s="7" t="str">
+      <c r="I189" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="165" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="5">
+    <row r="190" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C190" s="5">
         <v>6010</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D190" s="5">
         <v>6</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E190" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F190" s="5">
         <v>10</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G190" s="5">
         <v>100000</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="H190" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I165" s="7" t="str">
+      <c r="I190" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="166" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="5">
+    <row r="191" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C191" s="5">
         <v>6011</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D191" s="5">
         <v>6</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F191" s="5">
         <v>11</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G191" s="5">
         <v>120000</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="H191" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I166" s="7" t="str">
+      <c r="I191" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="167" spans="3:13" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="5">
+    <row r="192" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C192" s="5">
         <v>6012</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D192" s="5">
         <v>6</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E192" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F192" s="5">
         <v>12</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G192" s="5">
         <v>140000</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H192" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="I167" s="7" t="str">
+      <c r="I192" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="168" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="5">
+    <row r="193" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C193" s="5">
         <v>6013</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D193" s="5">
         <v>6</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E193" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F193" s="5">
         <v>13</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G193" s="5">
         <v>160000</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="I168" s="7" t="str">
+      <c r="I193" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="169" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="5">
+    <row r="194" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C194" s="5">
         <v>6014</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D194" s="5">
         <v>6</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E194" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F194" s="5">
         <v>14</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G194" s="5">
         <v>180000</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="H194" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I169" s="7" t="str">
+      <c r="I194" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="170" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="5">
+    <row r="195" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C195" s="5">
         <v>6015</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D195" s="5">
         <v>6</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E195" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F195" s="5">
         <v>15</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G195" s="5">
         <v>200000</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="H195" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="I170" s="7" t="str">
+      <c r="I195" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="171" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="5">
-        <f>C170+1</f>
+    <row r="196" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C196" s="5">
+        <f>C195+1</f>
         <v>6016</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D196" s="5">
         <v>6</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E196" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F171" s="5">
-        <f>F170+1</f>
+      <c r="F196" s="5">
+        <f>F195+1</f>
         <v>16</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G196" s="5">
         <v>230000</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="H196" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="I171" s="7" t="str">
+      <c r="I196" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
       </c>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-    </row>
-    <row r="172" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="5">
-        <f t="shared" ref="C172:C185" si="11">C171+1</f>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+    </row>
+    <row r="197" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C197" s="5">
+        <f t="shared" ref="C197:C210" si="11">C196+1</f>
         <v>6017</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D197" s="5">
         <v>6</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E197" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F172" s="5">
-        <f t="shared" ref="F172:F185" si="12">F171+1</f>
+      <c r="F197" s="5">
+        <f t="shared" ref="F197:F210" si="12">F196+1</f>
         <v>17</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G197" s="5">
         <v>270000</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H197" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I172" s="7" t="str">
+      <c r="I197" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
       </c>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-    </row>
-    <row r="173" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="5">
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+    </row>
+    <row r="198" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C198" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D198" s="5">
         <v>6</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E198" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F198" s="5">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G198" s="5">
         <v>320000</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H198" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="I173" s="7" t="str">
+      <c r="I198" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
       </c>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-    </row>
-    <row r="174" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="5">
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+    </row>
+    <row r="199" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C199" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D199" s="5">
         <v>6</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E199" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F199" s="5">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G199" s="5">
         <v>380000</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I174" s="7" t="str">
+      <c r="I199" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
       </c>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-    </row>
-    <row r="175" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="5">
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+    </row>
+    <row r="200" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C200" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D200" s="5">
         <v>6</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F200" s="5">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G200" s="5">
         <v>450000</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H200" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="I175" s="7" t="str">
+      <c r="I200" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-    </row>
-    <row r="176" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="5">
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+    </row>
+    <row r="201" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C201" s="5">
         <f t="shared" si="11"/>
         <v>6021</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D201" s="5">
         <v>6</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E201" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F201" s="5">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G201" s="5">
         <v>520000</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H201" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="I176" s="5" t="str">
-        <f t="shared" ref="I176:I180" si="13">"生命上限提升+"&amp;F176&amp;"%,眩晕抵抗概率+"&amp;F176&amp;"%"</f>
+      <c r="I201" s="5" t="str">
+        <f t="shared" ref="I201:I205" si="13">"生命上限提升+"&amp;F201&amp;"%,眩晕抵抗概率+"&amp;F201&amp;"%"</f>
         <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
       </c>
     </row>
-    <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="5">
+    <row r="202" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C202" s="5">
         <f t="shared" si="11"/>
         <v>6022</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D202" s="5">
         <v>6</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E202" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F202" s="5">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G202" s="5">
         <v>600000</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H202" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I177" s="5" t="str">
+      <c r="I202" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
       </c>
     </row>
-    <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="5">
+    <row r="203" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C203" s="5">
         <f t="shared" si="11"/>
         <v>6023</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D203" s="5">
         <v>6</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E203" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F203" s="5">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G203" s="5">
         <v>680000</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H203" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="I178" s="5" t="str">
+      <c r="I203" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
       </c>
     </row>
-    <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="5">
+    <row r="204" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C204" s="5">
         <f t="shared" si="11"/>
         <v>6024</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D204" s="5">
         <v>6</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F204" s="5">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G204" s="5">
         <v>760000</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H204" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="I179" s="5" t="str">
+      <c r="I204" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
       </c>
     </row>
-    <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="5">
+    <row r="205" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C205" s="5">
         <f t="shared" si="11"/>
         <v>6025</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D205" s="5">
         <v>6</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E205" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F205" s="5">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G205" s="5">
         <v>850000</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="H205" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="I180" s="5" t="str">
+      <c r="I205" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
       </c>
     </row>
-    <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="5">
+    <row r="206" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C206" s="5">
         <f t="shared" si="11"/>
         <v>6026</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D206" s="5">
         <v>6</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E206" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F206" s="5">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="G181" s="5">
+      <c r="G206" s="5">
         <v>1000000</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="H206" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="I181" s="5" t="str">
-        <f t="shared" ref="I181:I185" si="14">"生命上限提升+"&amp;F181&amp;"%,眩晕抵抗概率+"&amp;F181&amp;"%"</f>
+      <c r="I206" s="5" t="str">
+        <f t="shared" ref="I206:I215" si="14">"生命上限提升+"&amp;F206&amp;"%,眩晕抵抗概率+"&amp;F206&amp;"%"</f>
         <v>生命上限提升+26%,眩晕抵抗概率+26%</v>
       </c>
     </row>
-    <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="5">
+    <row r="207" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C207" s="5">
         <f t="shared" si="11"/>
         <v>6027</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D207" s="5">
         <v>6</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E207" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="F182" s="5">
+      <c r="F207" s="5">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="G182" s="5">
+      <c r="G207" s="5">
         <v>1250000</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="H207" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I182" s="5" t="str">
+      <c r="I207" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+27%,眩晕抵抗概率+27%</v>
       </c>
     </row>
-    <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C183" s="5">
+    <row r="208" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C208" s="5">
         <f t="shared" si="11"/>
         <v>6028</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D208" s="5">
         <v>6</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F208" s="5">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="G183" s="5">
+      <c r="G208" s="5">
         <v>1500000</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="H208" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="I183" s="5" t="str">
+      <c r="I208" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+28%,眩晕抵抗概率+28%</v>
       </c>
     </row>
-    <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="5">
+    <row r="209" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C209" s="5">
         <f t="shared" si="11"/>
         <v>6029</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D209" s="5">
         <v>6</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E209" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F209" s="5">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G209" s="5">
         <v>1750000</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="H209" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I184" s="5" t="str">
+      <c r="I209" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+29%,眩晕抵抗概率+29%</v>
       </c>
     </row>
-    <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="5">
+    <row r="210" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C210" s="5">
         <f t="shared" si="11"/>
         <v>6030</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D210" s="5">
         <v>6</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E210" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F210" s="5">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="G185" s="5">
+      <c r="G210" s="5">
         <v>2000000</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="H210" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I185" s="5" t="str">
+      <c r="I210" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+30%,眩晕抵抗概率+30%</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C211" s="8">
+        <f t="shared" ref="C211:C214" si="15">C210+1</f>
+        <v>6031</v>
+      </c>
+      <c r="D211" s="5">
+        <v>6</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F211" s="8">
+        <f t="shared" ref="F211:F214" si="16">F210+1</f>
+        <v>31</v>
+      </c>
+      <c r="G211" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I211" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+31%,眩晕抵抗概率+31%</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C212" s="8">
+        <f t="shared" si="15"/>
+        <v>6032</v>
+      </c>
+      <c r="D212" s="5">
+        <v>6</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F212" s="8">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="G212" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I212" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+32%,眩晕抵抗概率+32%</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C213" s="8">
+        <f t="shared" si="15"/>
+        <v>6033</v>
+      </c>
+      <c r="D213" s="5">
+        <v>6</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F213" s="8">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="G213" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I213" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+33%,眩晕抵抗概率+33%</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C214" s="8">
+        <f t="shared" si="15"/>
+        <v>6034</v>
+      </c>
+      <c r="D214" s="5">
+        <v>6</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F214" s="8">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="G214" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="I214" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+34%,眩晕抵抗概率+34%</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C215" s="8">
+        <f>C214+1</f>
+        <v>6035</v>
+      </c>
+      <c r="D215" s="5">
+        <v>6</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F215" s="8">
+        <f>F214+1</f>
+        <v>35</v>
+      </c>
+      <c r="G215" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="I215" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>生命上限提升+35%,眩晕抵抗概率+35%</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368E7BA-B058-4A92-B8BC-822915EF562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,6 +33,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,9 +51,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -1003,633 +997,213 @@
     <t>愤怒之魂1级</t>
   </si>
   <si>
-    <t>206003;0.01</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率1%</t>
-  </si>
-  <si>
     <t>愤怒之魂2级</t>
   </si>
   <si>
-    <t>206003;0.02</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率2%</t>
-  </si>
-  <si>
     <t>愤怒之魂3级</t>
   </si>
   <si>
-    <t>206003;0.03</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率3%</t>
-  </si>
-  <si>
     <t>愤怒之魂4级</t>
   </si>
   <si>
-    <t>206003;0.04</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率4%</t>
-  </si>
-  <si>
     <t>愤怒之魂5级</t>
   </si>
   <si>
-    <t>206003;0.05</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率5%</t>
-  </si>
-  <si>
     <t>愤怒之魂6级</t>
   </si>
   <si>
-    <t>206003;0.06</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率6%</t>
-  </si>
-  <si>
     <t>愤怒之魂7级</t>
   </si>
   <si>
-    <t>206003;0.07</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率7%</t>
-  </si>
-  <si>
     <t>愤怒之魂8级</t>
   </si>
   <si>
-    <t>206003;0.08</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率8%</t>
-  </si>
-  <si>
     <t>愤怒之魂9级</t>
   </si>
   <si>
-    <t>206003;0.09</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率9%</t>
-  </si>
-  <si>
     <t>愤怒之魂10级</t>
   </si>
   <si>
-    <t>206003;0.10</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率10%</t>
-  </si>
-  <si>
     <t>愤怒之魂11级</t>
   </si>
   <si>
-    <t>206003;0.11</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率11%</t>
-  </si>
-  <si>
     <t>愤怒之魂12级</t>
   </si>
   <si>
-    <t>206003;0.12</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率12%</t>
-  </si>
-  <si>
     <t>愤怒之魂13级</t>
   </si>
   <si>
-    <t>206003;0.13</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率13%</t>
-  </si>
-  <si>
     <t>愤怒之魂14级</t>
   </si>
   <si>
-    <t>206003;0.14</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率14%</t>
-  </si>
-  <si>
     <t>愤怒之魂15级</t>
   </si>
   <si>
-    <t>206003;0.15</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率15%</t>
-  </si>
-  <si>
     <t>愤怒之魂16级</t>
   </si>
   <si>
-    <t>206003;0.16</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率16%</t>
-  </si>
-  <si>
     <t>愤怒之魂17级</t>
   </si>
   <si>
-    <t>206003;0.17</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率17%</t>
-  </si>
-  <si>
     <t>愤怒之魂18级</t>
   </si>
   <si>
-    <t>206003;0.18</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率18%</t>
-  </si>
-  <si>
     <t>愤怒之魂19级</t>
   </si>
   <si>
-    <t>206003;0.19</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率19%</t>
-  </si>
-  <si>
     <t>愤怒之魂20级</t>
   </si>
   <si>
-    <t>206003;0.20</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率20%</t>
-  </si>
-  <si>
     <t>愤怒之魂21级</t>
   </si>
   <si>
-    <t>206003;0.21</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率21%</t>
-  </si>
-  <si>
     <t>愤怒之魂22级</t>
   </si>
   <si>
-    <t>206003;0.22</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率22%</t>
-  </si>
-  <si>
     <t>愤怒之魂23级</t>
   </si>
   <si>
-    <t>206003;0.23</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率23%</t>
-  </si>
-  <si>
     <t>愤怒之魂24级</t>
   </si>
   <si>
-    <t>206003;0.24</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率24%</t>
-  </si>
-  <si>
     <t>愤怒之魂25级</t>
   </si>
   <si>
-    <t>206003;0.25</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率25%</t>
-  </si>
-  <si>
     <t>愤怒之魂26级</t>
   </si>
   <si>
-    <t>206003;0.26</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率26%</t>
-  </si>
-  <si>
     <t>愤怒之魂27级</t>
   </si>
   <si>
-    <t>206003;0.27</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率27%</t>
-  </si>
-  <si>
     <t>愤怒之魂28级</t>
   </si>
   <si>
-    <t>206003;0.28</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率28%</t>
-  </si>
-  <si>
     <t>愤怒之魂29级</t>
   </si>
   <si>
-    <t>206003;0.29</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率29%</t>
-  </si>
-  <si>
     <t>愤怒之魂30级</t>
   </si>
   <si>
-    <t>206003;0.30</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率30%</t>
-  </si>
-  <si>
     <t>愤怒之魂31级</t>
   </si>
   <si>
-    <t>206003;0.31</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率31%</t>
-  </si>
-  <si>
     <t>愤怒之魂32级</t>
   </si>
   <si>
-    <t>206003;0.32</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率32%</t>
-  </si>
-  <si>
     <t>愤怒之魂33级</t>
   </si>
   <si>
-    <t>206003;0.33</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率33%</t>
-  </si>
-  <si>
     <t>愤怒之魂34级</t>
   </si>
   <si>
-    <t>206003;0.34</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率34%</t>
-  </si>
-  <si>
     <t>愤怒之魂35级</t>
   </si>
   <si>
-    <t>206003;0.35</t>
-  </si>
-  <si>
-    <t>降低受到玩家暴击概率35%</t>
-  </si>
-  <si>
     <t>驱逐之魂1级</t>
   </si>
   <si>
-    <t>206103;0.01</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率1%</t>
-  </si>
-  <si>
     <t>驱逐之魂2级</t>
   </si>
   <si>
-    <t>206103;0.02</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率2%</t>
-  </si>
-  <si>
     <t>驱逐之魂3级</t>
   </si>
   <si>
-    <t>206103;0.03</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率3%</t>
-  </si>
-  <si>
     <t>驱逐之魂4级</t>
   </si>
   <si>
-    <t>206103;0.04</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率4%</t>
-  </si>
-  <si>
     <t>驱逐之魂5级</t>
   </si>
   <si>
-    <t>206103;0.05</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率5%</t>
-  </si>
-  <si>
     <t>驱逐之魂6级</t>
   </si>
   <si>
-    <t>206103;0.06</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率6%</t>
-  </si>
-  <si>
     <t>驱逐之魂7级</t>
   </si>
   <si>
-    <t>206103;0.07</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率7%</t>
-  </si>
-  <si>
     <t>驱逐之魂8级</t>
   </si>
   <si>
-    <t>206103;0.08</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率8%</t>
-  </si>
-  <si>
     <t>驱逐之魂9级</t>
   </si>
   <si>
-    <t>206103;0.09</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率9%</t>
-  </si>
-  <si>
     <t>驱逐之魂10级</t>
   </si>
   <si>
-    <t>206103;0.10</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率10%</t>
-  </si>
-  <si>
     <t>驱逐之魂11级</t>
   </si>
   <si>
-    <t>206103;0.11</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率11%</t>
-  </si>
-  <si>
     <t>驱逐之魂12级</t>
   </si>
   <si>
-    <t>206103;0.12</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率12%</t>
-  </si>
-  <si>
     <t>驱逐之魂13级</t>
   </si>
   <si>
-    <t>206103;0.13</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率13%</t>
-  </si>
-  <si>
     <t>驱逐之魂14级</t>
   </si>
   <si>
-    <t>206103;0.14</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率14%</t>
-  </si>
-  <si>
     <t>驱逐之魂15级</t>
   </si>
   <si>
-    <t>206103;0.15</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率15%</t>
-  </si>
-  <si>
     <t>驱逐之魂16级</t>
   </si>
   <si>
-    <t>206103;0.16</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率16%</t>
-  </si>
-  <si>
     <t>驱逐之魂17级</t>
   </si>
   <si>
-    <t>206103;0.17</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率17%</t>
-  </si>
-  <si>
     <t>驱逐之魂18级</t>
   </si>
   <si>
-    <t>206103;0.18</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率18%</t>
-  </si>
-  <si>
     <t>驱逐之魂19级</t>
   </si>
   <si>
-    <t>206103;0.19</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率19%</t>
-  </si>
-  <si>
     <t>驱逐之魂20级</t>
   </si>
   <si>
-    <t>206103;0.20</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率20%</t>
-  </si>
-  <si>
     <t>驱逐之魂21级</t>
   </si>
   <si>
-    <t>206103;0.21</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率21%</t>
-  </si>
-  <si>
     <t>驱逐之魂22级</t>
   </si>
   <si>
-    <t>206103;0.22</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率22%</t>
-  </si>
-  <si>
     <t>驱逐之魂23级</t>
   </si>
   <si>
-    <t>206103;0.23</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率23%</t>
-  </si>
-  <si>
     <t>驱逐之魂24级</t>
   </si>
   <si>
-    <t>206103;0.24</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率24%</t>
-  </si>
-  <si>
     <t>驱逐之魂25级</t>
   </si>
   <si>
-    <t>206103;0.25</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率25%</t>
-  </si>
-  <si>
     <t>驱逐之魂26级</t>
   </si>
   <si>
-    <t>206103;0.26</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率26%</t>
-  </si>
-  <si>
     <t>驱逐之魂27级</t>
   </si>
   <si>
-    <t>206103;0.27</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率27%</t>
-  </si>
-  <si>
     <t>驱逐之魂28级</t>
   </si>
   <si>
-    <t>206103;0.28</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率28%</t>
-  </si>
-  <si>
     <t>驱逐之魂29级</t>
   </si>
   <si>
-    <t>206103;0.29</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率29%</t>
-  </si>
-  <si>
     <t>驱逐之魂30级</t>
   </si>
   <si>
-    <t>206103;0.30</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率30%</t>
-  </si>
-  <si>
     <t>驱逐之魂31级</t>
   </si>
   <si>
-    <t>206103;0.31</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率31%</t>
-  </si>
-  <si>
     <t>驱逐之魂32级</t>
   </si>
   <si>
-    <t>206103;0.32</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率32%</t>
-  </si>
-  <si>
     <t>驱逐之魂33级</t>
   </si>
   <si>
-    <t>206103;0.33</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率33%</t>
-  </si>
-  <si>
     <t>驱逐之魂34级</t>
   </si>
   <si>
-    <t>206103;0.34</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率34%</t>
-  </si>
-  <si>
     <t>驱逐之魂35级</t>
   </si>
   <si>
-    <t>206103;0.35</t>
-  </si>
-  <si>
-    <t>降低受到玩家命中概率35%</t>
-  </si>
-  <si>
     <t>生命之魂1级</t>
   </si>
   <si>
@@ -1841,19 +1415,433 @@
   </si>
   <si>
     <t>100202;0.35@213103;0.35</t>
+  </si>
+  <si>
+    <t>206003;0.005@208103;0.005</t>
+  </si>
+  <si>
+    <t>206003;0.01@208103;0.01</t>
+  </si>
+  <si>
+    <t>206003;0.015@208103;0.015</t>
+  </si>
+  <si>
+    <t>206003;0.02@208103;0.02</t>
+  </si>
+  <si>
+    <t>206003;0.025@208103;0.025</t>
+  </si>
+  <si>
+    <t>206003;0.03@208103;0.03</t>
+  </si>
+  <si>
+    <t>206003;0.035@208103;0.035</t>
+  </si>
+  <si>
+    <t>206003;0.04@208103;0.04</t>
+  </si>
+  <si>
+    <t>206003;0.045@208103;0.045</t>
+  </si>
+  <si>
+    <t>206003;0.05@208103;0.05</t>
+  </si>
+  <si>
+    <t>206003;0.055@208103;0.055</t>
+  </si>
+  <si>
+    <t>206003;0.06@208103;0.06</t>
+  </si>
+  <si>
+    <t>206003;0.065@208103;0.065</t>
+  </si>
+  <si>
+    <t>206003;0.07@208103;0.07</t>
+  </si>
+  <si>
+    <t>206003;0.075@208103;0.075</t>
+  </si>
+  <si>
+    <t>206003;0.08@208103;0.08</t>
+  </si>
+  <si>
+    <t>206003;0.085@208103;0.085</t>
+  </si>
+  <si>
+    <t>206003;0.09@208103;0.09</t>
+  </si>
+  <si>
+    <t>206003;0.095@208103;0.095</t>
+  </si>
+  <si>
+    <t>206003;0.1@208103;0.1</t>
+  </si>
+  <si>
+    <t>206003;0.105@208103;0.105</t>
+  </si>
+  <si>
+    <t>206003;0.11@208103;0.11</t>
+  </si>
+  <si>
+    <t>206003;0.115@208103;0.115</t>
+  </si>
+  <si>
+    <t>206003;0.12@208103;0.12</t>
+  </si>
+  <si>
+    <t>206003;0.125@208103;0.125</t>
+  </si>
+  <si>
+    <t>206003;0.13@208103;0.13</t>
+  </si>
+  <si>
+    <t>206003;0.135@208103;0.135</t>
+  </si>
+  <si>
+    <t>206003;0.14@208103;0.14</t>
+  </si>
+  <si>
+    <t>206003;0.145@208103;0.145</t>
+  </si>
+  <si>
+    <t>206003;0.15@208103;0.15</t>
+  </si>
+  <si>
+    <t>206003;0.155@208103;0.155</t>
+  </si>
+  <si>
+    <t>206003;0.16@208103;0.16</t>
+  </si>
+  <si>
+    <t>206003;0.165@208103;0.165</t>
+  </si>
+  <si>
+    <t>206003;0.17@208103;0.17</t>
+  </si>
+  <si>
+    <t>206003;0.175@208103;0.175</t>
+  </si>
+  <si>
+    <t>206103;0.005@208203;0.005</t>
+  </si>
+  <si>
+    <t>206103;0.01@208203;0.01</t>
+  </si>
+  <si>
+    <t>206103;0.015@208203;0.015</t>
+  </si>
+  <si>
+    <t>206103;0.02@208203;0.02</t>
+  </si>
+  <si>
+    <t>206103;0.025@208203;0.025</t>
+  </si>
+  <si>
+    <t>206103;0.03@208203;0.03</t>
+  </si>
+  <si>
+    <t>206103;0.035@208203;0.035</t>
+  </si>
+  <si>
+    <t>206103;0.04@208203;0.04</t>
+  </si>
+  <si>
+    <t>206103;0.045@208203;0.045</t>
+  </si>
+  <si>
+    <t>206103;0.05@208203;0.05</t>
+  </si>
+  <si>
+    <t>206103;0.055@208203;0.055</t>
+  </si>
+  <si>
+    <t>206103;0.06@208203;0.06</t>
+  </si>
+  <si>
+    <t>206103;0.065@208203;0.065</t>
+  </si>
+  <si>
+    <t>206103;0.07@208203;0.07</t>
+  </si>
+  <si>
+    <t>206103;0.075@208203;0.075</t>
+  </si>
+  <si>
+    <t>206103;0.08@208203;0.08</t>
+  </si>
+  <si>
+    <t>206103;0.085@208203;0.085</t>
+  </si>
+  <si>
+    <t>206103;0.09@208203;0.09</t>
+  </si>
+  <si>
+    <t>206103;0.095@208203;0.095</t>
+  </si>
+  <si>
+    <t>206103;0.1@208203;0.1</t>
+  </si>
+  <si>
+    <t>206103;0.105@208203;0.105</t>
+  </si>
+  <si>
+    <t>206103;0.11@208203;0.11</t>
+  </si>
+  <si>
+    <t>206103;0.115@208203;0.115</t>
+  </si>
+  <si>
+    <t>206103;0.12@208203;0.12</t>
+  </si>
+  <si>
+    <t>206103;0.125@208203;0.125</t>
+  </si>
+  <si>
+    <t>206103;0.13@208203;0.13</t>
+  </si>
+  <si>
+    <t>206103;0.135@208203;0.135</t>
+  </si>
+  <si>
+    <t>206103;0.14@208203;0.14</t>
+  </si>
+  <si>
+    <t>206103;0.145@208203;0.145</t>
+  </si>
+  <si>
+    <t>206103;0.15@208203;0.15</t>
+  </si>
+  <si>
+    <t>206103;0.155@208203;0.155</t>
+  </si>
+  <si>
+    <t>206103;0.16@208203;0.16</t>
+  </si>
+  <si>
+    <t>206103;0.165@208203;0.165</t>
+  </si>
+  <si>
+    <t>206103;0.17@208203;0.17</t>
+  </si>
+  <si>
+    <t>206103;0.175@208203;0.175</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率0.5%,降低受到玩家暴击概率0.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率1%,降低受到玩家暴击概率1%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率1.5%,降低受到玩家暴击概率1.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率2%,降低受到玩家暴击概率2%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率2.5%,降低受到玩家暴击概率2.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率3%,降低受到玩家暴击概率3%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率3.5%,降低受到玩家暴击概率3.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率4%,降低受到玩家暴击概率4%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率4.5%,降低受到玩家暴击概率4.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率5%,降低受到玩家暴击概率5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率5.5%,降低受到玩家暴击概率5.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率6%,降低受到玩家暴击概率6%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率6.5%,降低受到玩家暴击概率6.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率7%,降低受到玩家暴击概率7%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率7.5%,降低受到玩家暴击概率7.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率8%,降低受到玩家暴击概率8%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率8.5%,降低受到玩家暴击概率8.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率9%,降低受到玩家暴击概率9%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率9.5%,降低受到玩家暴击概率9.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率10%,降低受到玩家暴击概率10%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率10.5%,降低受到玩家暴击概率10.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率11%,降低受到玩家暴击概率11%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率11.5%,降低受到玩家暴击概率11.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率12%,降低受到玩家暴击概率12%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率12.5%,降低受到玩家暴击概率12.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率13%,降低受到玩家暴击概率13%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率13.5%,降低受到玩家暴击概率13.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率14%,降低受到玩家暴击概率14%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率14.5%,降低受到玩家暴击概率14.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率15%,降低受到玩家暴击概率15%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率15.5%,降低受到玩家暴击概率15.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率16%,降低受到玩家暴击概率16%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率16.5%,降低受到玩家暴击概率16.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率17%,降低受到玩家暴击概率17%</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率17.5%,降低受到玩家暴击概率17.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率0.5%,降低受到玩家命中概率0.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率1%,降低受到玩家命中概率1%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率1.5%,降低受到玩家命中概率1.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率2%,降低受到玩家命中概率2%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率2.5%,降低受到玩家命中概率2.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率3%,降低受到玩家命中概率3%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率3.5%,降低受到玩家命中概率3.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率4%,降低受到玩家命中概率4%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率4.5%,降低受到玩家命中概率4.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率5%,降低受到玩家命中概率5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率5.5%,降低受到玩家命中概率5.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率6%,降低受到玩家命中概率6%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率6.5%,降低受到玩家命中概率6.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率7%,降低受到玩家命中概率7%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率7.5%,降低受到玩家命中概率7.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率8%,降低受到玩家命中概率8%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率8.5%,降低受到玩家命中概率8.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率9%,降低受到玩家命中概率9%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率9.5%,降低受到玩家命中概率9.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率10%,降低受到玩家命中概率10%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率10.5%,降低受到玩家命中概率10.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率11%,降低受到玩家命中概率11%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率11.5%,降低受到玩家命中概率11.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率12%,降低受到玩家命中概率12%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率12.5%,降低受到玩家命中概率12.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率13%,降低受到玩家命中概率13%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率13.5%,降低受到玩家命中概率13.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率14%,降低受到玩家命中概率14%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率14.5%,降低受到玩家命中概率14.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率15%,降低受到玩家命中概率15%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率15.5%,降低受到玩家命中概率15.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率16%,降低受到玩家命中概率16%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率16.5%,降低受到玩家命中概率16.5%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率17%,降低受到玩家命中概率17%</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率17.5%,降低受到玩家命中概率17.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,12 +1853,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1878,6 +1868,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1885,168 +1876,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="48">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2061,265 +1917,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,7 +2000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2388,7 +2058,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2407,918 +2077,691 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -3443,7 +2886,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3505,68 +2948,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3587,378 +3030,333 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
-    <cellStyle name="常规 2" xfId="277"/>
-    <cellStyle name="常规 2 2" xfId="278"/>
-    <cellStyle name="常规 2 3" xfId="279"/>
-    <cellStyle name="常规 2 3 2" xfId="280"/>
-    <cellStyle name="常规 2 3 2 2" xfId="281"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
-    <cellStyle name="常规 2 3 2 3" xfId="291"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
-    <cellStyle name="常规 2 3 2 4" xfId="294"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
-    <cellStyle name="常规 2 3 2 5" xfId="296"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
-    <cellStyle name="常规 2 3 2 6" xfId="298"/>
-    <cellStyle name="常规 2 3 2 7" xfId="299"/>
-    <cellStyle name="常规 2 3 3" xfId="300"/>
-    <cellStyle name="常规 2 3 3 2" xfId="301"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
-    <cellStyle name="常规 2 3 3 3" xfId="304"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
-    <cellStyle name="常规 2 3 3 4" xfId="306"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
-    <cellStyle name="常规 2 3 3 5" xfId="308"/>
-    <cellStyle name="常规 2 3 3 6" xfId="309"/>
-    <cellStyle name="常规 2 3 4" xfId="310"/>
-    <cellStyle name="常规 2 3 4 2" xfId="311"/>
-    <cellStyle name="常规 2 3 4 3" xfId="312"/>
-    <cellStyle name="常规 2 3 5" xfId="313"/>
-    <cellStyle name="常规 2 3 5 2" xfId="314"/>
-    <cellStyle name="常规 2 3 6" xfId="315"/>
-    <cellStyle name="常规 2 3 6 2" xfId="316"/>
-    <cellStyle name="常规 2 3 7" xfId="317"/>
-    <cellStyle name="常规 2 3 8" xfId="318"/>
-    <cellStyle name="常规 3" xfId="319"/>
-    <cellStyle name="常规 4" xfId="320"/>
-    <cellStyle name="常规 5" xfId="321"/>
-    <cellStyle name="常规 5 2" xfId="322"/>
-    <cellStyle name="常规 5 2 2" xfId="323"/>
-    <cellStyle name="常规 5 2 2 2" xfId="324"/>
-    <cellStyle name="常规 5 2 2 3" xfId="325"/>
-    <cellStyle name="常规 5 2 3" xfId="326"/>
-    <cellStyle name="常规 5 2 3 2" xfId="327"/>
-    <cellStyle name="常规 5 2 4" xfId="328"/>
-    <cellStyle name="常规 5 2 4 2" xfId="329"/>
-    <cellStyle name="常规 5 2 5" xfId="330"/>
-    <cellStyle name="常规 5 2 6" xfId="331"/>
-    <cellStyle name="常规 5 3" xfId="332"/>
-    <cellStyle name="常规 5 3 2" xfId="333"/>
-    <cellStyle name="常规 5 3 3" xfId="334"/>
-    <cellStyle name="常规 5 4" xfId="335"/>
-    <cellStyle name="常规 5 4 2" xfId="336"/>
-    <cellStyle name="常规 5 5" xfId="337"/>
-    <cellStyle name="常规 5 5 2" xfId="338"/>
-    <cellStyle name="常规 5 6" xfId="339"/>
-    <cellStyle name="常规 5 7" xfId="340"/>
-    <cellStyle name="注释 2" xfId="341"/>
-    <cellStyle name="注释 2 2" xfId="342"/>
-    <cellStyle name="注释 2 2 2" xfId="343"/>
-    <cellStyle name="注释 2 2 2 2" xfId="344"/>
-    <cellStyle name="注释 2 2 2 3" xfId="345"/>
-    <cellStyle name="注释 2 2 3" xfId="346"/>
-    <cellStyle name="注释 2 2 3 2" xfId="347"/>
-    <cellStyle name="注释 2 2 4" xfId="348"/>
-    <cellStyle name="注释 2 2 4 2" xfId="349"/>
-    <cellStyle name="注释 2 2 5" xfId="350"/>
-    <cellStyle name="注释 2 2 6" xfId="351"/>
-    <cellStyle name="注释 2 3" xfId="352"/>
-    <cellStyle name="注释 2 3 2" xfId="353"/>
-    <cellStyle name="注释 2 3 3" xfId="354"/>
-    <cellStyle name="注释 2 4" xfId="355"/>
-    <cellStyle name="注释 2 4 2" xfId="356"/>
-    <cellStyle name="注释 2 5" xfId="357"/>
-    <cellStyle name="注释 2 5 2" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="常规 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="常规 2 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 2 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 5" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 5 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 5 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 5 2 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 5 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 5 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="注释 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="注释 2 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="注释 2 2 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 3 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -3986,6 +3384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4015,21 +3416,27 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:I215" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I215" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="生命之盾类型"/>
-    <tableColumn id="3" name="名字"/>
-    <tableColumn id="4" name="等级"/>
-    <tableColumn id="5" name="生命之盾经验"/>
-    <tableColumn id="6" name="额外属性"/>
-    <tableColumn id="7" name="额外描述"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
+      <calculatedColumnFormula>C3+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="名字"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="等级">
+      <calculatedColumnFormula>F3+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="生命之盾经验"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="额外属性"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="额外描述">
+      <calculatedColumnFormula>"生命上限提升+"&amp;F4&amp;"%,眩晕抵抗概率+"&amp;F4&amp;"%"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4314,34 +3721,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:M215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69:F75"/>
+    <sheetView tabSelected="1" topLeftCell="F156" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="53.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="9:9">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4364,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4387,7 +3793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -4410,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
@@ -4433,7 +3839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
@@ -4456,7 +3862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
@@ -4479,7 +3885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
         <v>1004</v>
       </c>
@@ -4502,7 +3908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
         <v>1005</v>
       </c>
@@ -4525,7 +3931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5">
         <v>1006</v>
       </c>
@@ -4548,7 +3954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5">
         <v>1007</v>
       </c>
@@ -4571,7 +3977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5">
         <v>1008</v>
       </c>
@@ -4594,7 +4000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5">
         <v>1009</v>
       </c>
@@ -4617,7 +4023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="5">
         <v>1010</v>
       </c>
@@ -4640,7 +4046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="5">
         <v>1011</v>
       </c>
@@ -4663,7 +4069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="5">
         <v>1012</v>
       </c>
@@ -4686,7 +4092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="5">
         <v>1013</v>
       </c>
@@ -4709,7 +4115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5">
         <v>1014</v>
       </c>
@@ -4732,7 +4138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="5">
         <v>1015</v>
       </c>
@@ -4755,7 +4161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="5">
         <f>C20+1</f>
         <v>1016</v>
@@ -4780,7 +4186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="5">
         <f t="shared" ref="C22:C40" si="0">C21+1</f>
         <v>1017</v>
@@ -4805,7 +4211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -4830,7 +4236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -4855,7 +4261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -4880,7 +4286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="26" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -4905,7 +4311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="27" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>1022</v>
@@ -4930,7 +4336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="28" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>1023</v>
@@ -4955,7 +4361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="29" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -4980,7 +4386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="30" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -5005,7 +4411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="31" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>1026</v>
@@ -5030,7 +4436,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="32" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>1027</v>
@@ -5055,7 +4461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="33" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>1028</v>
@@ -5080,7 +4486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="34" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>1029</v>
@@ -5105,7 +4511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="35" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="5">
         <f t="shared" si="0"/>
         <v>1030</v>
@@ -5130,7 +4536,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="36" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>1031</v>
@@ -5155,7 +4561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="5">
         <f t="shared" si="0"/>
         <v>1032</v>
@@ -5180,7 +4586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="38" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="5">
         <f t="shared" si="0"/>
         <v>1033</v>
@@ -5205,7 +4611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="39" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="5">
         <f t="shared" si="0"/>
         <v>1034</v>
@@ -5230,7 +4636,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="5">
         <f t="shared" si="0"/>
         <v>1035</v>
@@ -5255,7 +4661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="5">
         <v>2001</v>
       </c>
@@ -5278,7 +4684,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="42" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="5">
         <v>2002</v>
       </c>
@@ -5301,7 +4707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="5">
         <v>2003</v>
       </c>
@@ -5324,7 +4730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="5">
         <v>2004</v>
       </c>
@@ -5347,7 +4753,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="45" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="5">
         <v>2005</v>
       </c>
@@ -5370,7 +4776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="5">
         <v>2006</v>
       </c>
@@ -5393,7 +4799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="5">
         <v>2007</v>
       </c>
@@ -5416,7 +4822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5">
         <v>2008</v>
       </c>
@@ -5439,7 +4845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5">
         <v>2009</v>
       </c>
@@ -5462,7 +4868,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5">
         <v>2010</v>
       </c>
@@ -5485,7 +4891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="5">
         <v>2011</v>
       </c>
@@ -5508,7 +4914,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="5">
         <v>2012</v>
       </c>
@@ -5531,7 +4937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="5">
         <v>2013</v>
       </c>
@@ -5554,7 +4960,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="5">
         <v>2014</v>
       </c>
@@ -5577,7 +4983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="5">
         <v>2015</v>
       </c>
@@ -5600,7 +5006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="56" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="5">
         <f>C55+1</f>
         <v>2016</v>
@@ -5625,7 +5031,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="5">
         <f t="shared" ref="C57:C75" si="2">C56+1</f>
         <v>2017</v>
@@ -5650,7 +5056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="58" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -5675,7 +5081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="59" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -5700,7 +5106,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -5725,7 +5131,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="5">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -5750,7 +5156,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -5775,7 +5181,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="5">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -5800,7 +5206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -5825,7 +5231,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -5850,7 +5256,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="66" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="5">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -5875,7 +5281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="5">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -5900,7 +5306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="68" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="5">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -5925,7 +5331,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="69" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -5950,7 +5356,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="5">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -5975,7 +5381,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="5">
         <f t="shared" si="2"/>
         <v>2031</v>
@@ -6000,7 +5406,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5">
         <f t="shared" si="2"/>
         <v>2032</v>
@@ -6025,7 +5431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="5">
         <f t="shared" si="2"/>
         <v>2033</v>
@@ -6050,7 +5456,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5">
         <f t="shared" si="2"/>
         <v>2034</v>
@@ -6075,7 +5481,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="5">
         <f t="shared" si="2"/>
         <v>2035</v>
@@ -6100,7 +5506,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="5">
         <v>3001</v>
       </c>
@@ -6123,7 +5529,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="77" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="5">
         <v>3002</v>
       </c>
@@ -6146,7 +5552,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="5">
         <v>3003</v>
       </c>
@@ -6169,7 +5575,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
         <v>3004</v>
       </c>
@@ -6192,7 +5598,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="80" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
         <v>3005</v>
       </c>
@@ -6215,7 +5621,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="5">
         <v>3006</v>
       </c>
@@ -6238,7 +5644,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="5">
         <v>3007</v>
       </c>
@@ -6261,7 +5667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="5">
         <v>3008</v>
       </c>
@@ -6284,7 +5690,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="5">
         <v>3009</v>
       </c>
@@ -6307,7 +5713,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="5">
         <v>3010</v>
       </c>
@@ -6330,7 +5736,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="5">
         <v>3011</v>
       </c>
@@ -6353,7 +5759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="87" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="5">
         <v>3012</v>
       </c>
@@ -6376,7 +5782,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="5">
         <v>3013</v>
       </c>
@@ -6399,7 +5805,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="5">
         <v>3014</v>
       </c>
@@ -6422,7 +5828,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="90" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="5">
         <v>3015</v>
       </c>
@@ -6445,7 +5851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="91" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="5">
         <f>C90+1</f>
         <v>3016</v>
@@ -6470,7 +5876,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="5">
         <f t="shared" ref="C92:C110" si="4">C91+1</f>
         <v>3017</v>
@@ -6495,7 +5901,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="93" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
@@ -6520,7 +5926,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="94" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
@@ -6545,7 +5951,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
@@ -6570,7 +5976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="5">
         <f t="shared" si="4"/>
         <v>3021</v>
@@ -6595,7 +6001,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="97" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
@@ -6620,7 +6026,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="98" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
@@ -6645,7 +6051,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="99" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
@@ -6670,7 +6076,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:12">
+    <row r="100" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
@@ -6694,12 +6100,8 @@
       <c r="I100" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L100" s="2">
-        <f>表1[[#This Row],[生命之盾经验]]/1000</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    </row>
+    <row r="101" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="5">
         <f t="shared" si="4"/>
         <v>3026</v>
@@ -6724,7 +6126,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="102" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="5">
         <f t="shared" si="4"/>
         <v>3027</v>
@@ -6749,7 +6151,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="103" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="5">
         <f t="shared" si="4"/>
         <v>3028</v>
@@ -6774,7 +6176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="104" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="5">
         <f t="shared" si="4"/>
         <v>3029</v>
@@ -6799,7 +6201,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="105" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="5">
         <f t="shared" si="4"/>
         <v>3030</v>
@@ -6824,7 +6226,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="106" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="5">
         <f t="shared" si="4"/>
         <v>3031</v>
@@ -6849,7 +6251,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="107" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="5">
         <f t="shared" si="4"/>
         <v>3032</v>
@@ -6874,7 +6276,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="108" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="5">
         <f t="shared" si="4"/>
         <v>3033</v>
@@ -6899,7 +6301,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="109" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="5">
         <f t="shared" si="4"/>
         <v>3034</v>
@@ -6924,7 +6326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="110" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="5">
         <f t="shared" si="4"/>
         <v>3035</v>
@@ -6949,7 +6351,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="111" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="5">
         <v>4001</v>
       </c>
@@ -6966,13 +6368,14 @@
         <v>3000</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>312</v>
+        <v>452</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>522</v>
+      </c>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="5">
         <v>4002</v>
       </c>
@@ -6980,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F112" s="5">
         <v>2</v>
@@ -6989,13 +6392,14 @@
         <v>6000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>315</v>
+        <v>453</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>523</v>
+      </c>
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="5">
         <v>4003</v>
       </c>
@@ -7003,7 +6407,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F113" s="5">
         <v>3</v>
@@ -7012,13 +6416,14 @@
         <v>10000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>524</v>
+      </c>
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="5">
         <v>4004</v>
       </c>
@@ -7026,7 +6431,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F114" s="5">
         <v>4</v>
@@ -7035,13 +6440,14 @@
         <v>15000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>525</v>
+      </c>
+      <c r="K114" s="10"/>
+    </row>
+    <row r="115" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="5">
         <v>4005</v>
       </c>
@@ -7049,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F115" s="5">
         <v>5</v>
@@ -7058,13 +6464,14 @@
         <v>22500</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>324</v>
+        <v>456</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>526</v>
+      </c>
+      <c r="K115" s="10"/>
+    </row>
+    <row r="116" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="5">
         <v>4006</v>
       </c>
@@ -7072,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F116" s="5">
         <v>6</v>
@@ -7081,13 +6488,14 @@
         <v>32500</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>527</v>
+      </c>
+      <c r="K116" s="10"/>
+    </row>
+    <row r="117" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="5">
         <v>4007</v>
       </c>
@@ -7095,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F117" s="5">
         <v>7</v>
@@ -7104,13 +6512,14 @@
         <v>45000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>528</v>
+      </c>
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="5">
         <v>4008</v>
       </c>
@@ -7118,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="F118" s="5">
         <v>8</v>
@@ -7127,13 +6536,14 @@
         <v>60000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>529</v>
+      </c>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="5">
         <v>4009</v>
       </c>
@@ -7141,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F119" s="5">
         <v>9</v>
@@ -7150,13 +6560,14 @@
         <v>80000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>530</v>
+      </c>
+      <c r="K119" s="10"/>
+    </row>
+    <row r="120" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="5">
         <v>4010</v>
       </c>
@@ -7164,7 +6575,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F120" s="5">
         <v>10</v>
@@ -7173,13 +6584,14 @@
         <v>100000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>339</v>
+        <v>461</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>531</v>
+      </c>
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="5">
         <v>4011</v>
       </c>
@@ -7187,7 +6599,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F121" s="5">
         <v>11</v>
@@ -7196,13 +6608,14 @@
         <v>120000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>532</v>
+      </c>
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="5">
         <v>4012</v>
       </c>
@@ -7210,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="F122" s="5">
         <v>12</v>
@@ -7219,13 +6632,14 @@
         <v>140000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>533</v>
+      </c>
+      <c r="K122" s="10"/>
+    </row>
+    <row r="123" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="5">
         <v>4013</v>
       </c>
@@ -7233,7 +6647,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F123" s="5">
         <v>13</v>
@@ -7242,13 +6656,14 @@
         <v>160000</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>534</v>
+      </c>
+      <c r="K123" s="10"/>
+    </row>
+    <row r="124" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="5">
         <v>4014</v>
       </c>
@@ -7256,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="F124" s="5">
         <v>14</v>
@@ -7265,13 +6680,14 @@
         <v>180000</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>535</v>
+      </c>
+      <c r="K124" s="10"/>
+    </row>
+    <row r="125" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="5">
         <v>4015</v>
       </c>
@@ -7279,7 +6695,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="F125" s="5">
         <v>15</v>
@@ -7288,13 +6704,14 @@
         <v>200000</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>354</v>
+        <v>466</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="126" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>536</v>
+      </c>
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="5">
         <f>C125+1</f>
         <v>4016</v>
@@ -7303,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F126" s="5">
         <f>F125+1</f>
@@ -7313,13 +6730,14 @@
         <v>230000</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="127" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>537</v>
+      </c>
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="5">
         <f t="shared" ref="C127:C145" si="6">C126+1</f>
         <v>4017</v>
@@ -7328,7 +6746,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F127" s="5">
         <f t="shared" ref="F127:F145" si="7">F126+1</f>
@@ -7338,13 +6756,14 @@
         <v>270000</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="128" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>538</v>
+      </c>
+      <c r="K127" s="10"/>
+    </row>
+    <row r="128" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
@@ -7353,7 +6772,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="F128" s="5">
         <f t="shared" si="7"/>
@@ -7363,13 +6782,14 @@
         <v>320000</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>539</v>
+      </c>
+      <c r="K128" s="10"/>
+    </row>
+    <row r="129" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
@@ -7378,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F129" s="5">
         <f t="shared" si="7"/>
@@ -7388,13 +6808,14 @@
         <v>380000</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>540</v>
+      </c>
+      <c r="K129" s="10"/>
+    </row>
+    <row r="130" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
@@ -7403,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="F130" s="5">
         <f t="shared" si="7"/>
@@ -7413,13 +6834,14 @@
         <v>450000</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>541</v>
+      </c>
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="5">
         <f t="shared" si="6"/>
         <v>4021</v>
@@ -7428,7 +6850,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="F131" s="5">
         <f t="shared" si="7"/>
@@ -7438,13 +6860,14 @@
         <v>520000</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>372</v>
+        <v>472</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>542</v>
+      </c>
+      <c r="K131" s="10"/>
+    </row>
+    <row r="132" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="5">
         <f t="shared" si="6"/>
         <v>4022</v>
@@ -7453,7 +6876,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="F132" s="5">
         <f t="shared" si="7"/>
@@ -7463,13 +6886,14 @@
         <v>600000</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="133" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>543</v>
+      </c>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="5">
         <f t="shared" si="6"/>
         <v>4023</v>
@@ -7478,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="F133" s="5">
         <f t="shared" si="7"/>
@@ -7488,13 +6912,14 @@
         <v>680000</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="134" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>544</v>
+      </c>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="5">
         <f t="shared" si="6"/>
         <v>4024</v>
@@ -7503,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="F134" s="5">
         <f t="shared" si="7"/>
@@ -7513,13 +6938,14 @@
         <v>760000</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="135" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>545</v>
+      </c>
+      <c r="K134" s="10"/>
+    </row>
+    <row r="135" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="5">
         <f t="shared" si="6"/>
         <v>4025</v>
@@ -7528,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F135" s="5">
         <f t="shared" si="7"/>
@@ -7538,13 +6964,14 @@
         <v>850000</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="136" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>546</v>
+      </c>
+      <c r="K135" s="10"/>
+    </row>
+    <row r="136" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="5">
         <f t="shared" si="6"/>
         <v>4026</v>
@@ -7553,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="F136" s="5">
         <f t="shared" si="7"/>
@@ -7563,13 +6990,14 @@
         <v>1000000</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="137" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>547</v>
+      </c>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="5">
         <f t="shared" si="6"/>
         <v>4027</v>
@@ -7578,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="F137" s="5">
         <f t="shared" si="7"/>
@@ -7588,13 +7016,14 @@
         <v>1250000</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="138" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>548</v>
+      </c>
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="5">
         <f t="shared" si="6"/>
         <v>4028</v>
@@ -7603,7 +7032,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="F138" s="5">
         <f t="shared" si="7"/>
@@ -7613,13 +7042,14 @@
         <v>1500000</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="139" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>549</v>
+      </c>
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="5">
         <f t="shared" si="6"/>
         <v>4029</v>
@@ -7628,7 +7058,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="F139" s="5">
         <f t="shared" si="7"/>
@@ -7638,13 +7068,14 @@
         <v>1750000</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="140" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>550</v>
+      </c>
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="5">
         <f t="shared" si="6"/>
         <v>4030</v>
@@ -7653,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="F140" s="5">
         <f t="shared" si="7"/>
@@ -7663,13 +7094,14 @@
         <v>2000000</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="141" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>551</v>
+      </c>
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="5">
         <f t="shared" si="6"/>
         <v>4031</v>
@@ -7678,7 +7110,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="F141" s="5">
         <f t="shared" si="7"/>
@@ -7688,13 +7120,14 @@
         <v>2500000</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="142" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>552</v>
+      </c>
+      <c r="K141" s="10"/>
+    </row>
+    <row r="142" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="5">
         <f t="shared" si="6"/>
         <v>4032</v>
@@ -7703,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="7"/>
@@ -7713,13 +7146,14 @@
         <v>3000000</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="143" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>553</v>
+      </c>
+      <c r="K142" s="10"/>
+    </row>
+    <row r="143" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="5">
         <f t="shared" si="6"/>
         <v>4033</v>
@@ -7728,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="F143" s="5">
         <f t="shared" si="7"/>
@@ -7738,13 +7172,14 @@
         <v>4000000</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="144" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>554</v>
+      </c>
+      <c r="K143" s="10"/>
+    </row>
+    <row r="144" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="5">
         <f t="shared" si="6"/>
         <v>4034</v>
@@ -7753,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="7"/>
@@ -7763,13 +7198,14 @@
         <v>5000000</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>555</v>
+      </c>
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="5">
         <f t="shared" si="6"/>
         <v>4035</v>
@@ -7778,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="7"/>
@@ -7788,13 +7224,14 @@
         <v>6000000</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="146" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>556</v>
+      </c>
+      <c r="K145" s="10"/>
+    </row>
+    <row r="146" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="5">
         <v>5001</v>
       </c>
@@ -7802,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -7811,13 +7248,13 @@
         <v>3000</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="147" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="147" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="5">
         <v>5002</v>
       </c>
@@ -7825,7 +7262,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="F147" s="5">
         <v>2</v>
@@ -7834,13 +7271,13 @@
         <v>6000</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="5">
         <v>5003</v>
       </c>
@@ -7848,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="F148" s="5">
         <v>3</v>
@@ -7857,13 +7294,13 @@
         <v>10000</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="149" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="5">
         <v>5004</v>
       </c>
@@ -7871,7 +7308,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="F149" s="5">
         <v>4</v>
@@ -7880,13 +7317,13 @@
         <v>15000</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="150" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="150" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="5">
         <v>5005</v>
       </c>
@@ -7894,7 +7331,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="F150" s="5">
         <v>5</v>
@@ -7903,13 +7340,13 @@
         <v>22500</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="151" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="151" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="5">
         <v>5006</v>
       </c>
@@ -7917,7 +7354,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="F151" s="5">
         <v>6</v>
@@ -7926,13 +7363,13 @@
         <v>32500</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="152" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="152" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="5">
         <v>5007</v>
       </c>
@@ -7940,7 +7377,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="F152" s="5">
         <v>7</v>
@@ -7949,13 +7386,13 @@
         <v>45000</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="153" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="153" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="5">
         <v>5008</v>
       </c>
@@ -7963,7 +7400,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="F153" s="5">
         <v>8</v>
@@ -7972,13 +7409,13 @@
         <v>60000</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="154" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="154" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="5">
         <v>5009</v>
       </c>
@@ -7986,7 +7423,7 @@
         <v>5</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="F154" s="5">
         <v>9</v>
@@ -7995,13 +7432,13 @@
         <v>80000</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="155" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="155" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="5">
         <v>5010</v>
       </c>
@@ -8009,7 +7446,7 @@
         <v>5</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="F155" s="5">
         <v>10</v>
@@ -8018,13 +7455,13 @@
         <v>100000</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="156" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="5">
         <v>5011</v>
       </c>
@@ -8032,7 +7469,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>446</v>
+        <v>356</v>
       </c>
       <c r="F156" s="5">
         <v>11</v>
@@ -8041,13 +7478,13 @@
         <v>120000</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="157" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="5">
         <v>5012</v>
       </c>
@@ -8055,7 +7492,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="F157" s="5">
         <v>12</v>
@@ -8064,13 +7501,13 @@
         <v>140000</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="158" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="158" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="5">
         <v>5013</v>
       </c>
@@ -8078,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="F158" s="5">
         <v>13</v>
@@ -8087,13 +7524,13 @@
         <v>160000</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="159" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="159" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="5">
         <v>5014</v>
       </c>
@@ -8101,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>455</v>
+        <v>359</v>
       </c>
       <c r="F159" s="5">
         <v>14</v>
@@ -8110,13 +7547,13 @@
         <v>180000</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="160" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="160" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="5">
         <v>5015</v>
       </c>
@@ -8124,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="F160" s="5">
         <v>15</v>
@@ -8133,13 +7570,13 @@
         <v>200000</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="5">
         <f>C160+1</f>
         <v>5016</v>
@@ -8148,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
       <c r="F161" s="5">
         <f>F160+1</f>
@@ -8158,13 +7595,13 @@
         <v>230000</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="162" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="5">
         <f t="shared" ref="C162:C180" si="8">C161+1</f>
         <v>5017</v>
@@ -8173,7 +7610,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" ref="F162:F180" si="9">F161+1</f>
@@ -8183,13 +7620,13 @@
         <v>270000</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="163" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C163" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
@@ -8198,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="9"/>
@@ -8208,13 +7645,13 @@
         <v>320000</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="164" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
@@ -8223,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="9"/>
@@ -8233,13 +7670,13 @@
         <v>380000</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="165" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
@@ -8248,7 +7685,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="9"/>
@@ -8258,13 +7695,13 @@
         <v>450000</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="166" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="5">
         <f t="shared" si="8"/>
         <v>5021</v>
@@ -8273,7 +7710,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>476</v>
+        <v>366</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="9"/>
@@ -8283,13 +7720,13 @@
         <v>520000</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="167" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="5">
         <f t="shared" si="8"/>
         <v>5022</v>
@@ -8298,7 +7735,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="9"/>
@@ -8308,13 +7745,13 @@
         <v>600000</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="168" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="5">
         <f t="shared" si="8"/>
         <v>5023</v>
@@ -8323,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>482</v>
+        <v>368</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="9"/>
@@ -8333,13 +7770,13 @@
         <v>680000</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="169" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="5">
         <f t="shared" si="8"/>
         <v>5024</v>
@@ -8348,7 +7785,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="9"/>
@@ -8358,13 +7795,13 @@
         <v>760000</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="170" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="5">
         <f t="shared" si="8"/>
         <v>5025</v>
@@ -8373,7 +7810,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>488</v>
+        <v>370</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="9"/>
@@ -8383,13 +7820,13 @@
         <v>850000</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="171" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="5">
         <f t="shared" si="8"/>
         <v>5026</v>
@@ -8398,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="9"/>
@@ -8408,13 +7845,13 @@
         <v>1000000</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="172" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="5">
         <f t="shared" si="8"/>
         <v>5027</v>
@@ -8423,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>494</v>
+        <v>372</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="9"/>
@@ -8433,13 +7870,13 @@
         <v>1250000</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="173" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="5">
         <f t="shared" si="8"/>
         <v>5028</v>
@@ -8448,7 +7885,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="9"/>
@@ -8458,13 +7895,13 @@
         <v>1500000</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="174" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="5">
         <f t="shared" si="8"/>
         <v>5029</v>
@@ -8473,7 +7910,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="9"/>
@@ -8483,13 +7920,13 @@
         <v>1750000</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="175" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="5">
         <f t="shared" si="8"/>
         <v>5030</v>
@@ -8498,7 +7935,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="9"/>
@@ -8508,13 +7945,13 @@
         <v>2000000</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="176" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="5">
         <f t="shared" si="8"/>
         <v>5031</v>
@@ -8523,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>506</v>
+        <v>376</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="9"/>
@@ -8533,13 +7970,13 @@
         <v>2500000</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="177" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="177" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="5">
         <f t="shared" si="8"/>
         <v>5032</v>
@@ -8548,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>509</v>
+        <v>377</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="9"/>
@@ -8558,13 +7995,13 @@
         <v>3000000</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="178" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="178" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="5">
         <f t="shared" si="8"/>
         <v>5033</v>
@@ -8573,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>512</v>
+        <v>378</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="9"/>
@@ -8583,13 +8020,13 @@
         <v>4000000</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="179" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="179" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="5">
         <f t="shared" si="8"/>
         <v>5034</v>
@@ -8598,7 +8035,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="9"/>
@@ -8608,13 +8045,13 @@
         <v>5000000</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="180" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="180" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="5">
         <f t="shared" si="8"/>
         <v>5035</v>
@@ -8623,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>518</v>
+        <v>380</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="9"/>
@@ -8633,13 +8070,13 @@
         <v>6000000</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I180" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="181" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="181" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="5">
         <v>6001</v>
       </c>
@@ -8647,7 +8084,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>521</v>
+        <v>381</v>
       </c>
       <c r="F181" s="5">
         <v>1</v>
@@ -8656,14 +8093,14 @@
         <v>3000</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>522</v>
+        <v>382</v>
       </c>
       <c r="I181" s="7" t="str">
         <f>"生命上限提升+"&amp;F181&amp;"%,眩晕抵抗概率+"&amp;F181&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="182" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="5">
         <v>6002</v>
       </c>
@@ -8671,7 +8108,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>523</v>
+        <v>383</v>
       </c>
       <c r="F182" s="5">
         <v>2</v>
@@ -8680,14 +8117,14 @@
         <v>6000</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>524</v>
+        <v>384</v>
       </c>
       <c r="I182" s="7" t="str">
         <f t="shared" ref="I182:I200" si="10">"生命上限提升+"&amp;F182&amp;"%,眩晕抵抗概率+"&amp;F182&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="183" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="183" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="5">
         <v>6003</v>
       </c>
@@ -8695,7 +8132,7 @@
         <v>6</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>525</v>
+        <v>385</v>
       </c>
       <c r="F183" s="5">
         <v>3</v>
@@ -8704,14 +8141,14 @@
         <v>10000</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>526</v>
+        <v>386</v>
       </c>
       <c r="I183" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="184" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="5">
         <v>6004</v>
       </c>
@@ -8719,7 +8156,7 @@
         <v>6</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>527</v>
+        <v>387</v>
       </c>
       <c r="F184" s="5">
         <v>4</v>
@@ -8728,14 +8165,14 @@
         <v>15000</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>528</v>
+        <v>388</v>
       </c>
       <c r="I184" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="185" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="185" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="5">
         <v>6005</v>
       </c>
@@ -8743,7 +8180,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>529</v>
+        <v>389</v>
       </c>
       <c r="F185" s="5">
         <v>5</v>
@@ -8752,14 +8189,14 @@
         <v>22500</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>530</v>
+        <v>390</v>
       </c>
       <c r="I185" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="186" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="5">
         <v>6006</v>
       </c>
@@ -8767,7 +8204,7 @@
         <v>6</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>531</v>
+        <v>391</v>
       </c>
       <c r="F186" s="5">
         <v>6</v>
@@ -8776,14 +8213,14 @@
         <v>32500</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>532</v>
+        <v>392</v>
       </c>
       <c r="I186" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="187" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="187" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="5">
         <v>6007</v>
       </c>
@@ -8791,7 +8228,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>533</v>
+        <v>393</v>
       </c>
       <c r="F187" s="5">
         <v>7</v>
@@ -8800,14 +8237,14 @@
         <v>45000</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>534</v>
+        <v>394</v>
       </c>
       <c r="I187" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="188" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="188" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="5">
         <v>6008</v>
       </c>
@@ -8815,7 +8252,7 @@
         <v>6</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>535</v>
+        <v>395</v>
       </c>
       <c r="F188" s="5">
         <v>8</v>
@@ -8824,14 +8261,14 @@
         <v>60000</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>536</v>
+        <v>396</v>
       </c>
       <c r="I188" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="189" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C189" s="5">
         <v>6009</v>
       </c>
@@ -8839,7 +8276,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>537</v>
+        <v>397</v>
       </c>
       <c r="F189" s="5">
         <v>9</v>
@@ -8848,14 +8285,14 @@
         <v>80000</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>538</v>
+        <v>398</v>
       </c>
       <c r="I189" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="190" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="5">
         <v>6010</v>
       </c>
@@ -8863,7 +8300,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>539</v>
+        <v>399</v>
       </c>
       <c r="F190" s="5">
         <v>10</v>
@@ -8872,14 +8309,14 @@
         <v>100000</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="I190" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="191" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="5">
         <v>6011</v>
       </c>
@@ -8887,7 +8324,7 @@
         <v>6</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>541</v>
+        <v>401</v>
       </c>
       <c r="F191" s="5">
         <v>11</v>
@@ -8896,14 +8333,14 @@
         <v>120000</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>542</v>
+        <v>402</v>
       </c>
       <c r="I191" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
+    <row r="192" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C192" s="5">
         <v>6012</v>
       </c>
@@ -8911,7 +8348,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>543</v>
+        <v>403</v>
       </c>
       <c r="F192" s="5">
         <v>12</v>
@@ -8920,14 +8357,14 @@
         <v>140000</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>544</v>
+        <v>404</v>
       </c>
       <c r="I192" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="193" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="5">
         <v>6013</v>
       </c>
@@ -8935,7 +8372,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>545</v>
+        <v>405</v>
       </c>
       <c r="F193" s="5">
         <v>13</v>
@@ -8944,14 +8381,14 @@
         <v>160000</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>546</v>
+        <v>406</v>
       </c>
       <c r="I193" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="194" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C194" s="5">
         <v>6014</v>
       </c>
@@ -8959,7 +8396,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>547</v>
+        <v>407</v>
       </c>
       <c r="F194" s="5">
         <v>14</v>
@@ -8968,14 +8405,14 @@
         <v>180000</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>548</v>
+        <v>408</v>
       </c>
       <c r="I194" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="195" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C195" s="5">
         <v>6015</v>
       </c>
@@ -8983,7 +8420,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>549</v>
+        <v>409</v>
       </c>
       <c r="F195" s="5">
         <v>15</v>
@@ -8992,14 +8429,14 @@
         <v>200000</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>550</v>
+        <v>410</v>
       </c>
       <c r="I195" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="196" ht="20.1" customHeight="1" spans="3:13">
+    <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C196" s="5">
         <f>C195+1</f>
         <v>6016</v>
@@ -9008,7 +8445,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>551</v>
+        <v>411</v>
       </c>
       <c r="F196" s="5">
         <f>F195+1</f>
@@ -9018,17 +8455,14 @@
         <v>230000</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>552</v>
+        <v>412</v>
       </c>
       <c r="I196" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
       </c>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-    </row>
-    <row r="197" ht="20.1" customHeight="1" spans="3:13">
+    </row>
+    <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="5">
         <f t="shared" ref="C197:C210" si="11">C196+1</f>
         <v>6017</v>
@@ -9037,7 +8471,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>553</v>
+        <v>413</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" ref="F197:F210" si="12">F196+1</f>
@@ -9047,17 +8481,14 @@
         <v>270000</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="I197" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
       </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
-    </row>
-    <row r="198" ht="20.1" customHeight="1" spans="3:13">
+    </row>
+    <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C198" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
@@ -9066,7 +8497,7 @@
         <v>6</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="12"/>
@@ -9076,17 +8507,14 @@
         <v>320000</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>556</v>
+        <v>416</v>
       </c>
       <c r="I198" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
       </c>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
-    </row>
-    <row r="199" ht="20.1" customHeight="1" spans="3:13">
+    </row>
+    <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C199" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
@@ -9095,7 +8523,7 @@
         <v>6</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="12"/>
@@ -9105,17 +8533,14 @@
         <v>380000</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>558</v>
+        <v>418</v>
       </c>
       <c r="I199" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
       </c>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-    </row>
-    <row r="200" ht="20.1" customHeight="1" spans="3:13">
+    </row>
+    <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
@@ -9124,7 +8549,7 @@
         <v>6</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>559</v>
+        <v>419</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="12"/>
@@ -9134,17 +8559,14 @@
         <v>450000</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="I200" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
       </c>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
-    </row>
-    <row r="201" ht="20.1" customHeight="1" spans="3:9">
+    </row>
+    <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="5">
         <f t="shared" si="11"/>
         <v>6021</v>
@@ -9153,7 +8575,7 @@
         <v>6</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>561</v>
+        <v>421</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="12"/>
@@ -9163,14 +8585,14 @@
         <v>520000</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>562</v>
+        <v>422</v>
       </c>
       <c r="I201" s="5" t="str">
         <f t="shared" ref="I201:I205" si="13">"生命上限提升+"&amp;F201&amp;"%,眩晕抵抗概率+"&amp;F201&amp;"%"</f>
         <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
       </c>
     </row>
-    <row r="202" ht="20.1" customHeight="1" spans="3:9">
+    <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C202" s="5">
         <f t="shared" si="11"/>
         <v>6022</v>
@@ -9179,7 +8601,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>563</v>
+        <v>423</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="12"/>
@@ -9189,14 +8611,14 @@
         <v>600000</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>564</v>
+        <v>424</v>
       </c>
       <c r="I202" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
       </c>
     </row>
-    <row r="203" ht="20.1" customHeight="1" spans="3:9">
+    <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C203" s="5">
         <f t="shared" si="11"/>
         <v>6023</v>
@@ -9205,7 +8627,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>565</v>
+        <v>425</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="12"/>
@@ -9215,14 +8637,14 @@
         <v>680000</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>566</v>
+        <v>426</v>
       </c>
       <c r="I203" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
       </c>
     </row>
-    <row r="204" ht="20.1" customHeight="1" spans="3:9">
+    <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="5">
         <f t="shared" si="11"/>
         <v>6024</v>
@@ -9231,7 +8653,7 @@
         <v>6</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>567</v>
+        <v>427</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="12"/>
@@ -9241,14 +8663,14 @@
         <v>760000</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>568</v>
+        <v>428</v>
       </c>
       <c r="I204" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
       </c>
     </row>
-    <row r="205" ht="20.1" customHeight="1" spans="3:9">
+    <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C205" s="5">
         <f t="shared" si="11"/>
         <v>6025</v>
@@ -9257,7 +8679,7 @@
         <v>6</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="12"/>
@@ -9267,14 +8689,14 @@
         <v>850000</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="I205" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
       </c>
     </row>
-    <row r="206" ht="20.1" customHeight="1" spans="3:9">
+    <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C206" s="5">
         <f t="shared" si="11"/>
         <v>6026</v>
@@ -9283,7 +8705,7 @@
         <v>6</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>571</v>
+        <v>431</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="12"/>
@@ -9293,14 +8715,14 @@
         <v>1000000</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>572</v>
+        <v>432</v>
       </c>
       <c r="I206" s="5" t="str">
         <f t="shared" ref="I206:I215" si="14">"生命上限提升+"&amp;F206&amp;"%,眩晕抵抗概率+"&amp;F206&amp;"%"</f>
         <v>生命上限提升+26%,眩晕抵抗概率+26%</v>
       </c>
     </row>
-    <row r="207" ht="20.1" customHeight="1" spans="3:9">
+    <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C207" s="5">
         <f t="shared" si="11"/>
         <v>6027</v>
@@ -9309,7 +8731,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>573</v>
+        <v>433</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="12"/>
@@ -9319,14 +8741,14 @@
         <v>1250000</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>574</v>
+        <v>434</v>
       </c>
       <c r="I207" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+27%,眩晕抵抗概率+27%</v>
       </c>
     </row>
-    <row r="208" ht="20.1" customHeight="1" spans="3:9">
+    <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C208" s="5">
         <f t="shared" si="11"/>
         <v>6028</v>
@@ -9335,7 +8757,7 @@
         <v>6</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>575</v>
+        <v>435</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="12"/>
@@ -9345,14 +8767,14 @@
         <v>1500000</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>576</v>
+        <v>436</v>
       </c>
       <c r="I208" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+28%,眩晕抵抗概率+28%</v>
       </c>
     </row>
-    <row r="209" ht="20.1" customHeight="1" spans="3:9">
+    <row r="209" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C209" s="5">
         <f t="shared" si="11"/>
         <v>6029</v>
@@ -9361,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>577</v>
+        <v>437</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="12"/>
@@ -9371,14 +8793,14 @@
         <v>1750000</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>578</v>
+        <v>438</v>
       </c>
       <c r="I209" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+29%,眩晕抵抗概率+29%</v>
       </c>
     </row>
-    <row r="210" ht="20.1" customHeight="1" spans="3:9">
+    <row r="210" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C210" s="5">
         <f t="shared" si="11"/>
         <v>6030</v>
@@ -9387,7 +8809,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>579</v>
+        <v>439</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="12"/>
@@ -9397,14 +8819,14 @@
         <v>2000000</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="I210" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+30%,眩晕抵抗概率+30%</v>
       </c>
     </row>
-    <row r="211" ht="20.1" customHeight="1" spans="3:9">
+    <row r="211" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C211" s="8">
         <f t="shared" ref="C211:C215" si="15">C210+1</f>
         <v>6031</v>
@@ -9413,7 +8835,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>581</v>
+        <v>441</v>
       </c>
       <c r="F211" s="8">
         <f t="shared" ref="F211:F215" si="16">F210+1</f>
@@ -9423,14 +8845,14 @@
         <v>2500000</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>582</v>
+        <v>442</v>
       </c>
       <c r="I211" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+31%,眩晕抵抗概率+31%</v>
       </c>
     </row>
-    <row r="212" ht="20.1" customHeight="1" spans="3:9">
+    <row r="212" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C212" s="8">
         <f t="shared" si="15"/>
         <v>6032</v>
@@ -9439,7 +8861,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>583</v>
+        <v>443</v>
       </c>
       <c r="F212" s="8">
         <f t="shared" si="16"/>
@@ -9449,16 +8871,16 @@
         <v>3000000</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="I212" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+32%,眩晕抵抗概率+32%</v>
       </c>
     </row>
-    <row r="213" ht="20.1" customHeight="1" spans="2:9">
+    <row r="213" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="9" t="s">
-        <v>585</v>
+        <v>445</v>
       </c>
       <c r="C213" s="8">
         <f t="shared" si="15"/>
@@ -9468,7 +8890,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>586</v>
+        <v>446</v>
       </c>
       <c r="F213" s="8">
         <f t="shared" si="16"/>
@@ -9478,14 +8900,14 @@
         <v>4000000</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>587</v>
+        <v>447</v>
       </c>
       <c r="I213" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+33%,眩晕抵抗概率+33%</v>
       </c>
     </row>
-    <row r="214" ht="20.1" customHeight="1" spans="3:9">
+    <row r="214" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C214" s="8">
         <f t="shared" si="15"/>
         <v>6034</v>
@@ -9494,7 +8916,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>588</v>
+        <v>448</v>
       </c>
       <c r="F214" s="8">
         <f t="shared" si="16"/>
@@ -9504,14 +8926,14 @@
         <v>5000000</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>589</v>
+        <v>449</v>
       </c>
       <c r="I214" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+34%,眩晕抵抗概率+34%</v>
       </c>
     </row>
-    <row r="215" ht="20.1" customHeight="1" spans="3:9">
+    <row r="215" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C215" s="8">
         <f t="shared" si="15"/>
         <v>6035</v>
@@ -9520,7 +8942,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="F215" s="8">
         <f t="shared" si="16"/>
@@ -9530,7 +8952,7 @@
         <v>6000000</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>591</v>
+        <v>451</v>
       </c>
       <c r="I215" s="5" t="str">
         <f t="shared" si="14"/>
@@ -9538,12 +8960,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Excel/LifeShieldConfig.xlsx
+++ b/Excel/LifeShieldConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368E7BA-B058-4A92-B8BC-822915EF562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="LifeShieldProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +40,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,15 +57,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="591">
   <si>
     <t>c</t>
   </si>
@@ -997,213 +1003,633 @@
     <t>愤怒之魂1级</t>
   </si>
   <si>
+    <t>206003;0.005@208103;0.005</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率0.5%,降低受到玩家暴击概率0.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂2级</t>
   </si>
   <si>
+    <t>206003;0.01@208103;0.01</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率1%,降低受到玩家暴击概率1%</t>
+  </si>
+  <si>
     <t>愤怒之魂3级</t>
   </si>
   <si>
+    <t>206003;0.015@208103;0.015</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率1.5%,降低受到玩家暴击概率1.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂4级</t>
   </si>
   <si>
+    <t>206003;0.02@208103;0.02</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率2%,降低受到玩家暴击概率2%</t>
+  </si>
+  <si>
     <t>愤怒之魂5级</t>
   </si>
   <si>
+    <t>206003;0.025@208103;0.025</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率2.5%,降低受到玩家暴击概率2.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂6级</t>
   </si>
   <si>
+    <t>206003;0.03@208103;0.03</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率3%,降低受到玩家暴击概率3%</t>
+  </si>
+  <si>
     <t>愤怒之魂7级</t>
   </si>
   <si>
+    <t>206003;0.035@208103;0.035</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率3.5%,降低受到玩家暴击概率3.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂8级</t>
   </si>
   <si>
+    <t>206003;0.04@208103;0.04</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率4%,降低受到玩家暴击概率4%</t>
+  </si>
+  <si>
     <t>愤怒之魂9级</t>
   </si>
   <si>
+    <t>206003;0.045@208103;0.045</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率4.5%,降低受到玩家暴击概率4.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂10级</t>
   </si>
   <si>
+    <t>206003;0.05@208103;0.05</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率5%,降低受到玩家暴击概率5%</t>
+  </si>
+  <si>
     <t>愤怒之魂11级</t>
   </si>
   <si>
+    <t>206003;0.055@208103;0.055</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率5.5%,降低受到玩家暴击概率5.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂12级</t>
   </si>
   <si>
+    <t>206003;0.06@208103;0.06</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率6%,降低受到玩家暴击概率6%</t>
+  </si>
+  <si>
     <t>愤怒之魂13级</t>
   </si>
   <si>
+    <t>206003;0.065@208103;0.065</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率6.5%,降低受到玩家暴击概率6.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂14级</t>
   </si>
   <si>
+    <t>206003;0.07@208103;0.07</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率7%,降低受到玩家暴击概率7%</t>
+  </si>
+  <si>
     <t>愤怒之魂15级</t>
   </si>
   <si>
+    <t>206003;0.075@208103;0.075</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率7.5%,降低受到玩家暴击概率7.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂16级</t>
   </si>
   <si>
+    <t>206003;0.08@208103;0.08</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率8%,降低受到玩家暴击概率8%</t>
+  </si>
+  <si>
     <t>愤怒之魂17级</t>
   </si>
   <si>
+    <t>206003;0.085@208103;0.085</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率8.5%,降低受到玩家暴击概率8.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂18级</t>
   </si>
   <si>
+    <t>206003;0.09@208103;0.09</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率9%,降低受到玩家暴击概率9%</t>
+  </si>
+  <si>
     <t>愤怒之魂19级</t>
   </si>
   <si>
+    <t>206003;0.095@208103;0.095</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率9.5%,降低受到玩家暴击概率9.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂20级</t>
   </si>
   <si>
+    <t>206003;0.1@208103;0.1</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率10%,降低受到玩家暴击概率10%</t>
+  </si>
+  <si>
     <t>愤怒之魂21级</t>
   </si>
   <si>
+    <t>206003;0.105@208103;0.105</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率10.5%,降低受到玩家暴击概率10.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂22级</t>
   </si>
   <si>
+    <t>206003;0.11@208103;0.11</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率11%,降低受到玩家暴击概率11%</t>
+  </si>
+  <si>
     <t>愤怒之魂23级</t>
   </si>
   <si>
+    <t>206003;0.115@208103;0.115</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率11.5%,降低受到玩家暴击概率11.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂24级</t>
   </si>
   <si>
+    <t>206003;0.12@208103;0.12</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率12%,降低受到玩家暴击概率12%</t>
+  </si>
+  <si>
     <t>愤怒之魂25级</t>
   </si>
   <si>
+    <t>206003;0.125@208103;0.125</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率12.5%,降低受到玩家暴击概率12.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂26级</t>
   </si>
   <si>
+    <t>206003;0.13@208103;0.13</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率13%,降低受到玩家暴击概率13%</t>
+  </si>
+  <si>
     <t>愤怒之魂27级</t>
   </si>
   <si>
+    <t>206003;0.135@208103;0.135</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率13.5%,降低受到玩家暴击概率13.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂28级</t>
   </si>
   <si>
+    <t>206003;0.14@208103;0.14</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率14%,降低受到玩家暴击概率14%</t>
+  </si>
+  <si>
     <t>愤怒之魂29级</t>
   </si>
   <si>
+    <t>206003;0.145@208103;0.145</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率14.5%,降低受到玩家暴击概率14.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂30级</t>
   </si>
   <si>
+    <t>206003;0.15@208103;0.15</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率15%,降低受到玩家暴击概率15%</t>
+  </si>
+  <si>
     <t>愤怒之魂31级</t>
   </si>
   <si>
+    <t>206003;0.155@208103;0.155</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率15.5%,降低受到玩家暴击概率15.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂32级</t>
   </si>
   <si>
+    <t>206003;0.16@208103;0.16</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率16%,降低受到玩家暴击概率16%</t>
+  </si>
+  <si>
     <t>愤怒之魂33级</t>
   </si>
   <si>
+    <t>206003;0.165@208103;0.165</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率16.5%,降低受到玩家暴击概率16.5%</t>
+  </si>
+  <si>
     <t>愤怒之魂34级</t>
   </si>
   <si>
+    <t>206003;0.17@208103;0.17</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率17%,降低受到玩家暴击概率17%</t>
+  </si>
+  <si>
     <t>愤怒之魂35级</t>
   </si>
   <si>
+    <t>206003;0.175@208103;0.175</t>
+  </si>
+  <si>
+    <t>增加对玩家暴击概率17.5%,降低受到玩家暴击概率17.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂1级</t>
   </si>
   <si>
+    <t>206103;0.005@208203;0.005</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率0.5%,降低受到玩家命中概率0.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂2级</t>
   </si>
   <si>
+    <t>206103;0.01@208203;0.01</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率1%,降低受到玩家命中概率1%</t>
+  </si>
+  <si>
     <t>驱逐之魂3级</t>
   </si>
   <si>
+    <t>206103;0.015@208203;0.015</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率1.5%,降低受到玩家命中概率1.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂4级</t>
   </si>
   <si>
+    <t>206103;0.02@208203;0.02</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率2%,降低受到玩家命中概率2%</t>
+  </si>
+  <si>
     <t>驱逐之魂5级</t>
   </si>
   <si>
+    <t>206103;0.025@208203;0.025</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率2.5%,降低受到玩家命中概率2.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂6级</t>
   </si>
   <si>
+    <t>206103;0.03@208203;0.03</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率3%,降低受到玩家命中概率3%</t>
+  </si>
+  <si>
     <t>驱逐之魂7级</t>
   </si>
   <si>
+    <t>206103;0.035@208203;0.035</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率3.5%,降低受到玩家命中概率3.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂8级</t>
   </si>
   <si>
+    <t>206103;0.04@208203;0.04</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率4%,降低受到玩家命中概率4%</t>
+  </si>
+  <si>
     <t>驱逐之魂9级</t>
   </si>
   <si>
+    <t>206103;0.045@208203;0.045</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率4.5%,降低受到玩家命中概率4.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂10级</t>
   </si>
   <si>
+    <t>206103;0.05@208203;0.05</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率5%,降低受到玩家命中概率5%</t>
+  </si>
+  <si>
     <t>驱逐之魂11级</t>
   </si>
   <si>
+    <t>206103;0.055@208203;0.055</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率5.5%,降低受到玩家命中概率5.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂12级</t>
   </si>
   <si>
+    <t>206103;0.06@208203;0.06</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率6%,降低受到玩家命中概率6%</t>
+  </si>
+  <si>
     <t>驱逐之魂13级</t>
   </si>
   <si>
+    <t>206103;0.065@208203;0.065</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率6.5%,降低受到玩家命中概率6.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂14级</t>
   </si>
   <si>
+    <t>206103;0.07@208203;0.07</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率7%,降低受到玩家命中概率7%</t>
+  </si>
+  <si>
     <t>驱逐之魂15级</t>
   </si>
   <si>
+    <t>206103;0.075@208203;0.075</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率7.5%,降低受到玩家命中概率7.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂16级</t>
   </si>
   <si>
+    <t>206103;0.08@208203;0.08</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率8%,降低受到玩家命中概率8%</t>
+  </si>
+  <si>
     <t>驱逐之魂17级</t>
   </si>
   <si>
+    <t>206103;0.085@208203;0.085</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率8.5%,降低受到玩家命中概率8.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂18级</t>
   </si>
   <si>
+    <t>206103;0.09@208203;0.09</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率9%,降低受到玩家命中概率9%</t>
+  </si>
+  <si>
     <t>驱逐之魂19级</t>
   </si>
   <si>
+    <t>206103;0.095@208203;0.095</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率9.5%,降低受到玩家命中概率9.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂20级</t>
   </si>
   <si>
+    <t>206103;0.1@208203;0.1</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率10%,降低受到玩家命中概率10%</t>
+  </si>
+  <si>
     <t>驱逐之魂21级</t>
   </si>
   <si>
+    <t>206103;0.105@208203;0.105</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率10.5%,降低受到玩家命中概率10.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂22级</t>
   </si>
   <si>
+    <t>206103;0.11@208203;0.11</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率11%,降低受到玩家命中概率11%</t>
+  </si>
+  <si>
     <t>驱逐之魂23级</t>
   </si>
   <si>
+    <t>206103;0.115@208203;0.115</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率11.5%,降低受到玩家命中概率11.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂24级</t>
   </si>
   <si>
+    <t>206103;0.12@208203;0.12</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率12%,降低受到玩家命中概率12%</t>
+  </si>
+  <si>
     <t>驱逐之魂25级</t>
   </si>
   <si>
+    <t>206103;0.125@208203;0.125</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率12.5%,降低受到玩家命中概率12.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂26级</t>
   </si>
   <si>
+    <t>206103;0.13@208203;0.13</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率13%,降低受到玩家命中概率13%</t>
+  </si>
+  <si>
     <t>驱逐之魂27级</t>
   </si>
   <si>
+    <t>206103;0.135@208203;0.135</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率13.5%,降低受到玩家命中概率13.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂28级</t>
   </si>
   <si>
+    <t>206103;0.14@208203;0.14</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率14%,降低受到玩家命中概率14%</t>
+  </si>
+  <si>
     <t>驱逐之魂29级</t>
   </si>
   <si>
+    <t>206103;0.145@208203;0.145</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率14.5%,降低受到玩家命中概率14.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂30级</t>
   </si>
   <si>
+    <t>206103;0.15@208203;0.15</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率15%,降低受到玩家命中概率15%</t>
+  </si>
+  <si>
     <t>驱逐之魂31级</t>
   </si>
   <si>
+    <t>206103;0.155@208203;0.155</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率15.5%,降低受到玩家命中概率15.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂32级</t>
   </si>
   <si>
+    <t>206103;0.16@208203;0.16</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率16%,降低受到玩家命中概率16%</t>
+  </si>
+  <si>
     <t>驱逐之魂33级</t>
   </si>
   <si>
+    <t>206103;0.165@208203;0.165</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率16.5%,降低受到玩家命中概率16.5%</t>
+  </si>
+  <si>
     <t>驱逐之魂34级</t>
   </si>
   <si>
+    <t>206103;0.17@208203;0.17</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率17%,降低受到玩家命中概率17%</t>
+  </si>
+  <si>
     <t>驱逐之魂35级</t>
   </si>
   <si>
+    <t>206103;0.175@208203;0.175</t>
+  </si>
+  <si>
+    <t>增加对玩家命中概率17.5%,降低受到玩家命中概率17.5%</t>
+  </si>
+  <si>
     <t>生命之魂1级</t>
   </si>
   <si>
@@ -1396,9 +1822,6 @@
     <t>100202;0.32@213103;0.32</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>生命之魂33级</t>
   </si>
   <si>
@@ -1415,433 +1838,19 @@
   </si>
   <si>
     <t>100202;0.35@213103;0.35</t>
-  </si>
-  <si>
-    <t>206003;0.005@208103;0.005</t>
-  </si>
-  <si>
-    <t>206003;0.01@208103;0.01</t>
-  </si>
-  <si>
-    <t>206003;0.015@208103;0.015</t>
-  </si>
-  <si>
-    <t>206003;0.02@208103;0.02</t>
-  </si>
-  <si>
-    <t>206003;0.025@208103;0.025</t>
-  </si>
-  <si>
-    <t>206003;0.03@208103;0.03</t>
-  </si>
-  <si>
-    <t>206003;0.035@208103;0.035</t>
-  </si>
-  <si>
-    <t>206003;0.04@208103;0.04</t>
-  </si>
-  <si>
-    <t>206003;0.045@208103;0.045</t>
-  </si>
-  <si>
-    <t>206003;0.05@208103;0.05</t>
-  </si>
-  <si>
-    <t>206003;0.055@208103;0.055</t>
-  </si>
-  <si>
-    <t>206003;0.06@208103;0.06</t>
-  </si>
-  <si>
-    <t>206003;0.065@208103;0.065</t>
-  </si>
-  <si>
-    <t>206003;0.07@208103;0.07</t>
-  </si>
-  <si>
-    <t>206003;0.075@208103;0.075</t>
-  </si>
-  <si>
-    <t>206003;0.08@208103;0.08</t>
-  </si>
-  <si>
-    <t>206003;0.085@208103;0.085</t>
-  </si>
-  <si>
-    <t>206003;0.09@208103;0.09</t>
-  </si>
-  <si>
-    <t>206003;0.095@208103;0.095</t>
-  </si>
-  <si>
-    <t>206003;0.1@208103;0.1</t>
-  </si>
-  <si>
-    <t>206003;0.105@208103;0.105</t>
-  </si>
-  <si>
-    <t>206003;0.11@208103;0.11</t>
-  </si>
-  <si>
-    <t>206003;0.115@208103;0.115</t>
-  </si>
-  <si>
-    <t>206003;0.12@208103;0.12</t>
-  </si>
-  <si>
-    <t>206003;0.125@208103;0.125</t>
-  </si>
-  <si>
-    <t>206003;0.13@208103;0.13</t>
-  </si>
-  <si>
-    <t>206003;0.135@208103;0.135</t>
-  </si>
-  <si>
-    <t>206003;0.14@208103;0.14</t>
-  </si>
-  <si>
-    <t>206003;0.145@208103;0.145</t>
-  </si>
-  <si>
-    <t>206003;0.15@208103;0.15</t>
-  </si>
-  <si>
-    <t>206003;0.155@208103;0.155</t>
-  </si>
-  <si>
-    <t>206003;0.16@208103;0.16</t>
-  </si>
-  <si>
-    <t>206003;0.165@208103;0.165</t>
-  </si>
-  <si>
-    <t>206003;0.17@208103;0.17</t>
-  </si>
-  <si>
-    <t>206003;0.175@208103;0.175</t>
-  </si>
-  <si>
-    <t>206103;0.005@208203;0.005</t>
-  </si>
-  <si>
-    <t>206103;0.01@208203;0.01</t>
-  </si>
-  <si>
-    <t>206103;0.015@208203;0.015</t>
-  </si>
-  <si>
-    <t>206103;0.02@208203;0.02</t>
-  </si>
-  <si>
-    <t>206103;0.025@208203;0.025</t>
-  </si>
-  <si>
-    <t>206103;0.03@208203;0.03</t>
-  </si>
-  <si>
-    <t>206103;0.035@208203;0.035</t>
-  </si>
-  <si>
-    <t>206103;0.04@208203;0.04</t>
-  </si>
-  <si>
-    <t>206103;0.045@208203;0.045</t>
-  </si>
-  <si>
-    <t>206103;0.05@208203;0.05</t>
-  </si>
-  <si>
-    <t>206103;0.055@208203;0.055</t>
-  </si>
-  <si>
-    <t>206103;0.06@208203;0.06</t>
-  </si>
-  <si>
-    <t>206103;0.065@208203;0.065</t>
-  </si>
-  <si>
-    <t>206103;0.07@208203;0.07</t>
-  </si>
-  <si>
-    <t>206103;0.075@208203;0.075</t>
-  </si>
-  <si>
-    <t>206103;0.08@208203;0.08</t>
-  </si>
-  <si>
-    <t>206103;0.085@208203;0.085</t>
-  </si>
-  <si>
-    <t>206103;0.09@208203;0.09</t>
-  </si>
-  <si>
-    <t>206103;0.095@208203;0.095</t>
-  </si>
-  <si>
-    <t>206103;0.1@208203;0.1</t>
-  </si>
-  <si>
-    <t>206103;0.105@208203;0.105</t>
-  </si>
-  <si>
-    <t>206103;0.11@208203;0.11</t>
-  </si>
-  <si>
-    <t>206103;0.115@208203;0.115</t>
-  </si>
-  <si>
-    <t>206103;0.12@208203;0.12</t>
-  </si>
-  <si>
-    <t>206103;0.125@208203;0.125</t>
-  </si>
-  <si>
-    <t>206103;0.13@208203;0.13</t>
-  </si>
-  <si>
-    <t>206103;0.135@208203;0.135</t>
-  </si>
-  <si>
-    <t>206103;0.14@208203;0.14</t>
-  </si>
-  <si>
-    <t>206103;0.145@208203;0.145</t>
-  </si>
-  <si>
-    <t>206103;0.15@208203;0.15</t>
-  </si>
-  <si>
-    <t>206103;0.155@208203;0.155</t>
-  </si>
-  <si>
-    <t>206103;0.16@208203;0.16</t>
-  </si>
-  <si>
-    <t>206103;0.165@208203;0.165</t>
-  </si>
-  <si>
-    <t>206103;0.17@208203;0.17</t>
-  </si>
-  <si>
-    <t>206103;0.175@208203;0.175</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率0.5%,降低受到玩家暴击概率0.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率1%,降低受到玩家暴击概率1%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率1.5%,降低受到玩家暴击概率1.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率2%,降低受到玩家暴击概率2%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率2.5%,降低受到玩家暴击概率2.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率3%,降低受到玩家暴击概率3%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率3.5%,降低受到玩家暴击概率3.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率4%,降低受到玩家暴击概率4%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率4.5%,降低受到玩家暴击概率4.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率5%,降低受到玩家暴击概率5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率5.5%,降低受到玩家暴击概率5.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率6%,降低受到玩家暴击概率6%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率6.5%,降低受到玩家暴击概率6.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率7%,降低受到玩家暴击概率7%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率7.5%,降低受到玩家暴击概率7.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率8%,降低受到玩家暴击概率8%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率8.5%,降低受到玩家暴击概率8.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率9%,降低受到玩家暴击概率9%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率9.5%,降低受到玩家暴击概率9.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率10%,降低受到玩家暴击概率10%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率10.5%,降低受到玩家暴击概率10.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率11%,降低受到玩家暴击概率11%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率11.5%,降低受到玩家暴击概率11.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率12%,降低受到玩家暴击概率12%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率12.5%,降低受到玩家暴击概率12.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率13%,降低受到玩家暴击概率13%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率13.5%,降低受到玩家暴击概率13.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率14%,降低受到玩家暴击概率14%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率14.5%,降低受到玩家暴击概率14.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率15%,降低受到玩家暴击概率15%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率15.5%,降低受到玩家暴击概率15.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率16%,降低受到玩家暴击概率16%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率16.5%,降低受到玩家暴击概率16.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率17%,降低受到玩家暴击概率17%</t>
-  </si>
-  <si>
-    <t>增加对玩家暴击概率17.5%,降低受到玩家暴击概率17.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率0.5%,降低受到玩家命中概率0.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率1%,降低受到玩家命中概率1%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率1.5%,降低受到玩家命中概率1.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率2%,降低受到玩家命中概率2%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率2.5%,降低受到玩家命中概率2.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率3%,降低受到玩家命中概率3%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率3.5%,降低受到玩家命中概率3.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率4%,降低受到玩家命中概率4%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率4.5%,降低受到玩家命中概率4.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率5%,降低受到玩家命中概率5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率5.5%,降低受到玩家命中概率5.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率6%,降低受到玩家命中概率6%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率6.5%,降低受到玩家命中概率6.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率7%,降低受到玩家命中概率7%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率7.5%,降低受到玩家命中概率7.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率8%,降低受到玩家命中概率8%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率8.5%,降低受到玩家命中概率8.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率9%,降低受到玩家命中概率9%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率9.5%,降低受到玩家命中概率9.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率10%,降低受到玩家命中概率10%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率10.5%,降低受到玩家命中概率10.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率11%,降低受到玩家命中概率11%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率11.5%,降低受到玩家命中概率11.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率12%,降低受到玩家命中概率12%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率12.5%,降低受到玩家命中概率12.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率13%,降低受到玩家命中概率13%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率13.5%,降低受到玩家命中概率13.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率14%,降低受到玩家命中概率14%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率14.5%,降低受到玩家命中概率14.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率15%,降低受到玩家命中概率15%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率15.5%,降低受到玩家命中概率15.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率16%,降低受到玩家命中概率16%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率16.5%,降低受到玩家命中概率16.5%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率17%,降低受到玩家命中概率17%</t>
-  </si>
-  <si>
-    <t>增加对玩家命中概率17.5%,降低受到玩家命中概率17.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,14 +1862,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1868,7 +1875,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1876,33 +1882,168 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1917,79 +2058,265 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.14981536301767"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79982909634693444"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79982909634693444"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79982909634693444"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,7 +2327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2058,7 +2385,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2077,691 +2404,918 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2886,7 +3440,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2948,64 +3502,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3030,333 +3584,381 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="313">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+  <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="常规 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="常规 2 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 2 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 5" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 5 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 5 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 5 2 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 5 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 5 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 5 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="注释 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="注释 2 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="注释 2 2 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 3 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
+    <cellStyle name="常规 2" xfId="277"/>
+    <cellStyle name="常规 2 2" xfId="278"/>
+    <cellStyle name="常规 2 3" xfId="279"/>
+    <cellStyle name="常规 2 3 2" xfId="280"/>
+    <cellStyle name="常规 2 3 2 2" xfId="281"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
+    <cellStyle name="常规 2 3 2 3" xfId="291"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
+    <cellStyle name="常规 2 3 2 4" xfId="294"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
+    <cellStyle name="常规 2 3 2 5" xfId="296"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
+    <cellStyle name="常规 2 3 2 6" xfId="298"/>
+    <cellStyle name="常规 2 3 2 7" xfId="299"/>
+    <cellStyle name="常规 2 3 3" xfId="300"/>
+    <cellStyle name="常规 2 3 3 2" xfId="301"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
+    <cellStyle name="常规 2 3 3 3" xfId="304"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
+    <cellStyle name="常规 2 3 3 4" xfId="306"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
+    <cellStyle name="常规 2 3 3 5" xfId="308"/>
+    <cellStyle name="常规 2 3 3 6" xfId="309"/>
+    <cellStyle name="常规 2 3 4" xfId="310"/>
+    <cellStyle name="常规 2 3 4 2" xfId="311"/>
+    <cellStyle name="常规 2 3 4 3" xfId="312"/>
+    <cellStyle name="常规 2 3 5" xfId="313"/>
+    <cellStyle name="常规 2 3 5 2" xfId="314"/>
+    <cellStyle name="常规 2 3 6" xfId="315"/>
+    <cellStyle name="常规 2 3 6 2" xfId="316"/>
+    <cellStyle name="常规 2 3 7" xfId="317"/>
+    <cellStyle name="常规 2 3 8" xfId="318"/>
+    <cellStyle name="常规 3" xfId="319"/>
+    <cellStyle name="常规 4" xfId="320"/>
+    <cellStyle name="常规 5" xfId="321"/>
+    <cellStyle name="常规 5 2" xfId="322"/>
+    <cellStyle name="常规 5 2 2" xfId="323"/>
+    <cellStyle name="常规 5 2 2 2" xfId="324"/>
+    <cellStyle name="常规 5 2 2 3" xfId="325"/>
+    <cellStyle name="常规 5 2 3" xfId="326"/>
+    <cellStyle name="常规 5 2 3 2" xfId="327"/>
+    <cellStyle name="常规 5 2 4" xfId="328"/>
+    <cellStyle name="常规 5 2 4 2" xfId="329"/>
+    <cellStyle name="常规 5 2 5" xfId="330"/>
+    <cellStyle name="常规 5 2 6" xfId="331"/>
+    <cellStyle name="常规 5 3" xfId="332"/>
+    <cellStyle name="常规 5 3 2" xfId="333"/>
+    <cellStyle name="常规 5 3 3" xfId="334"/>
+    <cellStyle name="常规 5 4" xfId="335"/>
+    <cellStyle name="常规 5 4 2" xfId="336"/>
+    <cellStyle name="常规 5 5" xfId="337"/>
+    <cellStyle name="常规 5 5 2" xfId="338"/>
+    <cellStyle name="常规 5 6" xfId="339"/>
+    <cellStyle name="常规 5 7" xfId="340"/>
+    <cellStyle name="注释 2" xfId="341"/>
+    <cellStyle name="注释 2 2" xfId="342"/>
+    <cellStyle name="注释 2 2 2" xfId="343"/>
+    <cellStyle name="注释 2 2 2 2" xfId="344"/>
+    <cellStyle name="注释 2 2 2 3" xfId="345"/>
+    <cellStyle name="注释 2 2 3" xfId="346"/>
+    <cellStyle name="注释 2 2 3 2" xfId="347"/>
+    <cellStyle name="注释 2 2 4" xfId="348"/>
+    <cellStyle name="注释 2 2 4 2" xfId="349"/>
+    <cellStyle name="注释 2 2 5" xfId="350"/>
+    <cellStyle name="注释 2 2 6" xfId="351"/>
+    <cellStyle name="注释 2 3" xfId="352"/>
+    <cellStyle name="注释 2 3 2" xfId="353"/>
+    <cellStyle name="注释 2 3 3" xfId="354"/>
+    <cellStyle name="注释 2 4" xfId="355"/>
+    <cellStyle name="注释 2 4 2" xfId="356"/>
+    <cellStyle name="注释 2 5" xfId="357"/>
+    <cellStyle name="注释 2 5 2" xfId="358"/>
+    <cellStyle name="注释 2 6" xfId="359"/>
+    <cellStyle name="注释 2 7" xfId="360"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -3376,7 +3978,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{36812CCA-E6D8-4444-85EB-07EBBE0450E6}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{376E8CBF-4EFD-4DFD-BB57-7D3FADE7951D}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3384,9 +3986,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3416,27 +4015,21 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:I215" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:I215" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id">
-      <calculatedColumnFormula>C3+1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="生命之盾类型"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="名字"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="等级">
-      <calculatedColumnFormula>F3+1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="生命之盾经验"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="额外属性"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="额外描述">
-      <calculatedColumnFormula>"生命上限提升+"&amp;F4&amp;"%,眩晕抵抗概率+"&amp;F4&amp;"%"</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="生命之盾类型"/>
+    <tableColumn id="3" name="名字"/>
+    <tableColumn id="4" name="等级"/>
+    <tableColumn id="5" name="生命之盾经验"/>
+    <tableColumn id="6" name="额外属性"/>
+    <tableColumn id="7" name="额外描述"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3721,19 +4314,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:K215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F156" workbookViewId="0">
-      <selection activeCell="I176" sqref="I176"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="7" width="28.875" customWidth="1"/>
@@ -3741,13 +4334,13 @@
     <col min="9" max="9" width="53.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="9:9">
       <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3770,7 +4363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +4409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
@@ -3839,7 +4432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C7" s="5">
         <v>1002</v>
       </c>
@@ -3862,7 +4455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C8" s="5">
         <v>1003</v>
       </c>
@@ -3885,7 +4478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C9" s="5">
         <v>1004</v>
       </c>
@@ -3908,7 +4501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C10" s="5">
         <v>1005</v>
       </c>
@@ -3931,7 +4524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C11" s="5">
         <v>1006</v>
       </c>
@@ -3954,7 +4547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C12" s="5">
         <v>1007</v>
       </c>
@@ -3977,7 +4570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C13" s="5">
         <v>1008</v>
       </c>
@@ -4000,7 +4593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C14" s="5">
         <v>1009</v>
       </c>
@@ -4023,7 +4616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C15" s="5">
         <v>1010</v>
       </c>
@@ -4046,7 +4639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C16" s="5">
         <v>1011</v>
       </c>
@@ -4069,7 +4662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C17" s="5">
         <v>1012</v>
       </c>
@@ -4092,7 +4685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C18" s="5">
         <v>1013</v>
       </c>
@@ -4115,7 +4708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C19" s="5">
         <v>1014</v>
       </c>
@@ -4138,7 +4731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C20" s="5">
         <v>1015</v>
       </c>
@@ -4161,7 +4754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C21" s="5">
         <f>C20+1</f>
         <v>1016</v>
@@ -4186,7 +4779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C22" s="5">
         <f t="shared" ref="C22:C40" si="0">C21+1</f>
         <v>1017</v>
@@ -4211,7 +4804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>1018</v>
@@ -4236,7 +4829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>1019</v>
@@ -4261,7 +4854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>1020</v>
@@ -4286,7 +4879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>1021</v>
@@ -4311,7 +4904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>1022</v>
@@ -4336,7 +4929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>1023</v>
@@ -4361,7 +4954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -4386,7 +4979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -4411,7 +5004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>1026</v>
@@ -4436,7 +5029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>1027</v>
@@ -4461,7 +5054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>1028</v>
@@ -4486,7 +5079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>1029</v>
@@ -4511,7 +5104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C35" s="5">
         <f t="shared" si="0"/>
         <v>1030</v>
@@ -4536,7 +5129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>1031</v>
@@ -4561,7 +5154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C37" s="5">
         <f t="shared" si="0"/>
         <v>1032</v>
@@ -4586,7 +5179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C38" s="5">
         <f t="shared" si="0"/>
         <v>1033</v>
@@ -4611,7 +5204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C39" s="5">
         <f t="shared" si="0"/>
         <v>1034</v>
@@ -4636,7 +5229,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C40" s="5">
         <f t="shared" si="0"/>
         <v>1035</v>
@@ -4661,7 +5254,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C41" s="5">
         <v>2001</v>
       </c>
@@ -4684,7 +5277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C42" s="5">
         <v>2002</v>
       </c>
@@ -4707,7 +5300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C43" s="5">
         <v>2003</v>
       </c>
@@ -4730,7 +5323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C44" s="5">
         <v>2004</v>
       </c>
@@ -4753,7 +5346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C45" s="5">
         <v>2005</v>
       </c>
@@ -4776,7 +5369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C46" s="5">
         <v>2006</v>
       </c>
@@ -4799,7 +5392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C47" s="5">
         <v>2007</v>
       </c>
@@ -4822,7 +5415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C48" s="5">
         <v>2008</v>
       </c>
@@ -4845,7 +5438,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C49" s="5">
         <v>2009</v>
       </c>
@@ -4868,7 +5461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C50" s="5">
         <v>2010</v>
       </c>
@@ -4891,7 +5484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C51" s="5">
         <v>2011</v>
       </c>
@@ -4914,7 +5507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C52" s="5">
         <v>2012</v>
       </c>
@@ -4937,7 +5530,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C53" s="5">
         <v>2013</v>
       </c>
@@ -4960,7 +5553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C54" s="5">
         <v>2014</v>
       </c>
@@ -4983,7 +5576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C55" s="5">
         <v>2015</v>
       </c>
@@ -5006,7 +5599,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C56" s="5">
         <f>C55+1</f>
         <v>2016</v>
@@ -5031,7 +5624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C57" s="5">
         <f t="shared" ref="C57:C75" si="2">C56+1</f>
         <v>2017</v>
@@ -5043,7 +5636,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" ref="F57:F71" si="3">F56+1</f>
+        <f t="shared" ref="F57:F75" si="3">F56+1</f>
         <v>17</v>
       </c>
       <c r="G57" s="5">
@@ -5056,7 +5649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C58" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -5081,7 +5674,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C59" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -5106,7 +5699,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C60" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -5131,7 +5724,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C61" s="5">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -5156,7 +5749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C62" s="5">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -5181,7 +5774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C63" s="5">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -5206,7 +5799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C64" s="5">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -5231,7 +5824,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C65" s="5">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -5256,7 +5849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C66" s="5">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -5281,7 +5874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C67" s="5">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -5306,7 +5899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C68" s="5">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -5331,7 +5924,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C69" s="5">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -5356,7 +5949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C70" s="5">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -5381,7 +5974,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C71" s="5">
         <f t="shared" si="2"/>
         <v>2031</v>
@@ -5406,7 +5999,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C72" s="5">
         <f t="shared" si="2"/>
         <v>2032</v>
@@ -5418,7 +6011,7 @@
         <v>109</v>
       </c>
       <c r="F72" s="5">
-        <f>F71+1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="G72" s="5">
@@ -5431,7 +6024,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C73" s="5">
         <f t="shared" si="2"/>
         <v>2033</v>
@@ -5443,7 +6036,7 @@
         <v>112</v>
       </c>
       <c r="F73" s="5">
-        <f>F72+1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G73" s="5">
@@ -5456,7 +6049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C74" s="5">
         <f t="shared" si="2"/>
         <v>2034</v>
@@ -5468,7 +6061,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="5">
-        <f>F73+1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="G74" s="5">
@@ -5481,7 +6074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C75" s="5">
         <f t="shared" si="2"/>
         <v>2035</v>
@@ -5493,7 +6086,7 @@
         <v>118</v>
       </c>
       <c r="F75" s="5">
-        <f>F74+1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G75" s="5">
@@ -5506,7 +6099,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C76" s="5">
         <v>3001</v>
       </c>
@@ -5529,7 +6122,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C77" s="5">
         <v>3002</v>
       </c>
@@ -5552,7 +6145,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C78" s="5">
         <v>3003</v>
       </c>
@@ -5575,7 +6168,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C79" s="5">
         <v>3004</v>
       </c>
@@ -5598,7 +6191,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C80" s="5">
         <v>3005</v>
       </c>
@@ -5621,7 +6214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C81" s="5">
         <v>3006</v>
       </c>
@@ -5644,7 +6237,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C82" s="5">
         <v>3007</v>
       </c>
@@ -5667,7 +6260,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C83" s="5">
         <v>3008</v>
       </c>
@@ -5690,7 +6283,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C84" s="5">
         <v>3009</v>
       </c>
@@ -5713,7 +6306,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C85" s="5">
         <v>3010</v>
       </c>
@@ -5736,7 +6329,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C86" s="5">
         <v>3011</v>
       </c>
@@ -5759,7 +6352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="87" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C87" s="5">
         <v>3012</v>
       </c>
@@ -5782,7 +6375,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C88" s="5">
         <v>3013</v>
       </c>
@@ -5805,7 +6398,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C89" s="5">
         <v>3014</v>
       </c>
@@ -5828,7 +6421,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C90" s="5">
         <v>3015</v>
       </c>
@@ -5851,7 +6444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C91" s="5">
         <f>C90+1</f>
         <v>3016</v>
@@ -5876,7 +6469,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C92" s="5">
         <f t="shared" ref="C92:C110" si="4">C91+1</f>
         <v>3017</v>
@@ -5901,7 +6494,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C93" s="5">
         <f t="shared" si="4"/>
         <v>3018</v>
@@ -5926,7 +6519,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C94" s="5">
         <f t="shared" si="4"/>
         <v>3019</v>
@@ -5951,7 +6544,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C95" s="5">
         <f t="shared" si="4"/>
         <v>3020</v>
@@ -5976,7 +6569,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C96" s="5">
         <f t="shared" si="4"/>
         <v>3021</v>
@@ -6001,7 +6594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C97" s="5">
         <f t="shared" si="4"/>
         <v>3022</v>
@@ -6026,7 +6619,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C98" s="5">
         <f t="shared" si="4"/>
         <v>3023</v>
@@ -6051,7 +6644,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C99" s="5">
         <f t="shared" si="4"/>
         <v>3024</v>
@@ -6076,7 +6669,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C100" s="5">
         <f t="shared" si="4"/>
         <v>3025</v>
@@ -6101,7 +6694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C101" s="5">
         <f t="shared" si="4"/>
         <v>3026</v>
@@ -6126,7 +6719,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C102" s="5">
         <f t="shared" si="4"/>
         <v>3027</v>
@@ -6151,7 +6744,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C103" s="5">
         <f t="shared" si="4"/>
         <v>3028</v>
@@ -6176,7 +6769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C104" s="5">
         <f t="shared" si="4"/>
         <v>3029</v>
@@ -6201,7 +6794,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C105" s="5">
         <f t="shared" si="4"/>
         <v>3030</v>
@@ -6226,7 +6819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C106" s="5">
         <f t="shared" si="4"/>
         <v>3031</v>
@@ -6251,7 +6844,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C107" s="5">
         <f t="shared" si="4"/>
         <v>3032</v>
@@ -6276,7 +6869,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C108" s="5">
         <f t="shared" si="4"/>
         <v>3033</v>
@@ -6301,7 +6894,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="109" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C109" s="5">
         <f t="shared" si="4"/>
         <v>3034</v>
@@ -6326,7 +6919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C110" s="5">
         <f t="shared" si="4"/>
         <v>3035</v>
@@ -6351,7 +6944,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C111" s="5">
         <v>4001</v>
       </c>
@@ -6368,14 +6961,14 @@
         <v>3000</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="112" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C112" s="5">
         <v>4002</v>
       </c>
@@ -6383,7 +6976,7 @@
         <v>4</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F112" s="5">
         <v>2</v>
@@ -6392,14 +6985,14 @@
         <v>6000</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>453</v>
+        <v>315</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C113" s="5">
         <v>4003</v>
       </c>
@@ -6407,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F113" s="5">
         <v>3</v>
@@ -6416,14 +7009,14 @@
         <v>10000</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="K113" s="10"/>
-    </row>
-    <row r="114" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C114" s="5">
         <v>4004</v>
       </c>
@@ -6431,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F114" s="5">
         <v>4</v>
@@ -6440,14 +7033,14 @@
         <v>15000</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>455</v>
+        <v>321</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="K114" s="10"/>
-    </row>
-    <row r="115" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C115" s="5">
         <v>4005</v>
       </c>
@@ -6455,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F115" s="5">
         <v>5</v>
@@ -6464,14 +7057,14 @@
         <v>22500</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>456</v>
+        <v>324</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="K115" s="10"/>
-    </row>
-    <row r="116" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C116" s="5">
         <v>4006</v>
       </c>
@@ -6479,7 +7072,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F116" s="5">
         <v>6</v>
@@ -6488,14 +7081,14 @@
         <v>32500</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>457</v>
+        <v>327</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="K116" s="10"/>
-    </row>
-    <row r="117" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C117" s="5">
         <v>4007</v>
       </c>
@@ -6503,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F117" s="5">
         <v>7</v>
@@ -6512,14 +7105,14 @@
         <v>45000</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="K117" s="10"/>
-    </row>
-    <row r="118" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C118" s="5">
         <v>4008</v>
       </c>
@@ -6527,7 +7120,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F118" s="5">
         <v>8</v>
@@ -6536,14 +7129,14 @@
         <v>60000</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="K118" s="10"/>
-    </row>
-    <row r="119" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C119" s="5">
         <v>4009</v>
       </c>
@@ -6551,7 +7144,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F119" s="5">
         <v>9</v>
@@ -6560,14 +7153,14 @@
         <v>80000</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>460</v>
+        <v>336</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K119" s="10"/>
-    </row>
-    <row r="120" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>337</v>
+      </c>
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C120" s="5">
         <v>4010</v>
       </c>
@@ -6575,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F120" s="5">
         <v>10</v>
@@ -6584,14 +7177,14 @@
         <v>100000</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="K120" s="10"/>
-    </row>
-    <row r="121" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>340</v>
+      </c>
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C121" s="5">
         <v>4011</v>
       </c>
@@ -6599,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F121" s="5">
         <v>11</v>
@@ -6608,14 +7201,14 @@
         <v>120000</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="K121" s="10"/>
-    </row>
-    <row r="122" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>343</v>
+      </c>
+      <c r="K121" s="8"/>
+    </row>
+    <row r="122" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C122" s="5">
         <v>4012</v>
       </c>
@@ -6623,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="F122" s="5">
         <v>12</v>
@@ -6632,14 +7225,14 @@
         <v>140000</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>463</v>
+        <v>345</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K122" s="10"/>
-    </row>
-    <row r="123" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+      <c r="K122" s="8"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C123" s="5">
         <v>4013</v>
       </c>
@@ -6647,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="F123" s="5">
         <v>13</v>
@@ -6656,14 +7249,14 @@
         <v>160000</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="K123" s="10"/>
-    </row>
-    <row r="124" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>349</v>
+      </c>
+      <c r="K123" s="8"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:11">
       <c r="C124" s="5">
         <v>4014</v>
       </c>
@@ -6671,7 +7264,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="F124" s="5">
         <v>14</v>
@@ -6680,14 +7273,14 @@
         <v>180000</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="K124" s="10"/>
-    </row>
-    <row r="125" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+      <c r="K124" s="8"/>
+    </row>
+    <row r="125" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C125" s="5">
         <v>4015</v>
       </c>
@@ -6695,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="F125" s="5">
         <v>15</v>
@@ -6704,14 +7297,14 @@
         <v>200000</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>466</v>
+        <v>354</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="K125" s="10"/>
-    </row>
-    <row r="126" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+      <c r="K125" s="8"/>
+    </row>
+    <row r="126" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C126" s="5">
         <f>C125+1</f>
         <v>4016</v>
@@ -6720,7 +7313,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="F126" s="5">
         <f>F125+1</f>
@@ -6730,14 +7323,14 @@
         <v>230000</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>467</v>
+        <v>357</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="K126" s="10"/>
-    </row>
-    <row r="127" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+      <c r="K126" s="8"/>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C127" s="5">
         <f t="shared" ref="C127:C145" si="6">C126+1</f>
         <v>4017</v>
@@ -6746,7 +7339,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="F127" s="5">
         <f t="shared" ref="F127:F145" si="7">F126+1</f>
@@ -6756,14 +7349,14 @@
         <v>270000</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K127" s="10"/>
-    </row>
-    <row r="128" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+      <c r="K127" s="8"/>
+    </row>
+    <row r="128" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C128" s="5">
         <f t="shared" si="6"/>
         <v>4018</v>
@@ -6772,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="F128" s="5">
         <f t="shared" si="7"/>
@@ -6782,14 +7375,14 @@
         <v>320000</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>469</v>
+        <v>363</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="K128" s="10"/>
-    </row>
-    <row r="129" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+      <c r="K128" s="8"/>
+    </row>
+    <row r="129" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C129" s="5">
         <f t="shared" si="6"/>
         <v>4019</v>
@@ -6798,7 +7391,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="F129" s="5">
         <f t="shared" si="7"/>
@@ -6808,14 +7401,14 @@
         <v>380000</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="K129" s="10"/>
-    </row>
-    <row r="130" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>367</v>
+      </c>
+      <c r="K129" s="8"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C130" s="5">
         <f t="shared" si="6"/>
         <v>4020</v>
@@ -6824,7 +7417,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="F130" s="5">
         <f t="shared" si="7"/>
@@ -6834,14 +7427,14 @@
         <v>450000</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="K130" s="10"/>
-    </row>
-    <row r="131" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C131" s="5">
         <f t="shared" si="6"/>
         <v>4021</v>
@@ -6850,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="F131" s="5">
         <f t="shared" si="7"/>
@@ -6860,14 +7453,14 @@
         <v>520000</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="K131" s="10"/>
-    </row>
-    <row r="132" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+      <c r="K131" s="8"/>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C132" s="5">
         <f t="shared" si="6"/>
         <v>4022</v>
@@ -6876,7 +7469,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="F132" s="5">
         <f t="shared" si="7"/>
@@ -6886,14 +7479,14 @@
         <v>600000</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>473</v>
+        <v>375</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="K132" s="10"/>
-    </row>
-    <row r="133" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376</v>
+      </c>
+      <c r="K132" s="8"/>
+    </row>
+    <row r="133" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C133" s="5">
         <f t="shared" si="6"/>
         <v>4023</v>
@@ -6902,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="F133" s="5">
         <f t="shared" si="7"/>
@@ -6912,14 +7505,14 @@
         <v>680000</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>474</v>
+        <v>378</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="K133" s="10"/>
-    </row>
-    <row r="134" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>379</v>
+      </c>
+      <c r="K133" s="8"/>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C134" s="5">
         <f t="shared" si="6"/>
         <v>4024</v>
@@ -6928,7 +7521,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F134" s="5">
         <f t="shared" si="7"/>
@@ -6938,14 +7531,14 @@
         <v>760000</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="K134" s="10"/>
-    </row>
-    <row r="135" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+      <c r="K134" s="8"/>
+    </row>
+    <row r="135" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C135" s="5">
         <f t="shared" si="6"/>
         <v>4025</v>
@@ -6954,7 +7547,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="F135" s="5">
         <f t="shared" si="7"/>
@@ -6964,14 +7557,14 @@
         <v>850000</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="K135" s="10"/>
-    </row>
-    <row r="136" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+      <c r="K135" s="8"/>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C136" s="5">
         <f t="shared" si="6"/>
         <v>4026</v>
@@ -6980,7 +7573,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="F136" s="5">
         <f t="shared" si="7"/>
@@ -6990,14 +7583,14 @@
         <v>1000000</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="K136" s="10"/>
-    </row>
-    <row r="137" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>388</v>
+      </c>
+      <c r="K136" s="8"/>
+    </row>
+    <row r="137" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C137" s="5">
         <f t="shared" si="6"/>
         <v>4027</v>
@@ -7006,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="F137" s="5">
         <f t="shared" si="7"/>
@@ -7016,14 +7609,14 @@
         <v>1250000</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K137" s="10"/>
-    </row>
-    <row r="138" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+      <c r="K137" s="8"/>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C138" s="5">
         <f t="shared" si="6"/>
         <v>4028</v>
@@ -7032,7 +7625,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="F138" s="5">
         <f t="shared" si="7"/>
@@ -7042,14 +7635,14 @@
         <v>1500000</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>479</v>
+        <v>393</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="K138" s="10"/>
-    </row>
-    <row r="139" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>394</v>
+      </c>
+      <c r="K138" s="8"/>
+    </row>
+    <row r="139" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C139" s="5">
         <f t="shared" si="6"/>
         <v>4029</v>
@@ -7058,7 +7651,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="F139" s="5">
         <f t="shared" si="7"/>
@@ -7068,14 +7661,14 @@
         <v>1750000</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="K139" s="10"/>
-    </row>
-    <row r="140" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>397</v>
+      </c>
+      <c r="K139" s="8"/>
+    </row>
+    <row r="140" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C140" s="5">
         <f t="shared" si="6"/>
         <v>4030</v>
@@ -7084,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="F140" s="5">
         <f t="shared" si="7"/>
@@ -7094,14 +7687,14 @@
         <v>2000000</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="K140" s="10"/>
-    </row>
-    <row r="141" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="K140" s="8"/>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C141" s="5">
         <f t="shared" si="6"/>
         <v>4031</v>
@@ -7110,7 +7703,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="F141" s="5">
         <f t="shared" si="7"/>
@@ -7120,14 +7713,14 @@
         <v>2500000</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K141" s="10"/>
-    </row>
-    <row r="142" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+      <c r="K141" s="8"/>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C142" s="5">
         <f t="shared" si="6"/>
         <v>4032</v>
@@ -7136,7 +7729,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="F142" s="5">
         <f t="shared" si="7"/>
@@ -7146,14 +7739,14 @@
         <v>3000000</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>483</v>
+        <v>405</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="K142" s="10"/>
-    </row>
-    <row r="143" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="K142" s="8"/>
+    </row>
+    <row r="143" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C143" s="5">
         <f t="shared" si="6"/>
         <v>4033</v>
@@ -7162,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="F143" s="5">
         <f t="shared" si="7"/>
@@ -7172,14 +7765,14 @@
         <v>4000000</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K143" s="10"/>
-    </row>
-    <row r="144" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="K143" s="8"/>
+    </row>
+    <row r="144" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C144" s="5">
         <f t="shared" si="6"/>
         <v>4034</v>
@@ -7188,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="7"/>
@@ -7198,14 +7791,14 @@
         <v>5000000</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="K144" s="10"/>
-    </row>
-    <row r="145" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="K144" s="8"/>
+    </row>
+    <row r="145" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:11">
       <c r="C145" s="5">
         <f t="shared" si="6"/>
         <v>4035</v>
@@ -7214,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="7"/>
@@ -7224,14 +7817,14 @@
         <v>6000000</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="K145" s="10"/>
-    </row>
-    <row r="146" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="K145" s="8"/>
+    </row>
+    <row r="146" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C146" s="5">
         <v>5001</v>
       </c>
@@ -7239,7 +7832,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="F146" s="5">
         <v>1</v>
@@ -7248,13 +7841,13 @@
         <v>3000</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="147" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C147" s="5">
         <v>5002</v>
       </c>
@@ -7262,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="F147" s="5">
         <v>2</v>
@@ -7271,13 +7864,13 @@
         <v>6000</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="148" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C148" s="5">
         <v>5003</v>
       </c>
@@ -7285,7 +7878,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F148" s="5">
         <v>3</v>
@@ -7294,13 +7887,13 @@
         <v>10000</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="149" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C149" s="5">
         <v>5004</v>
       </c>
@@ -7308,7 +7901,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="F149" s="5">
         <v>4</v>
@@ -7317,13 +7910,13 @@
         <v>15000</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="150" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C150" s="5">
         <v>5005</v>
       </c>
@@ -7331,7 +7924,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="F150" s="5">
         <v>5</v>
@@ -7340,13 +7933,13 @@
         <v>22500</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="151" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C151" s="5">
         <v>5006</v>
       </c>
@@ -7354,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="F151" s="5">
         <v>6</v>
@@ -7363,13 +7956,13 @@
         <v>32500</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="152" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C152" s="5">
         <v>5007</v>
       </c>
@@ -7377,7 +7970,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="F152" s="5">
         <v>7</v>
@@ -7386,13 +7979,13 @@
         <v>45000</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="153" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="153" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C153" s="5">
         <v>5008</v>
       </c>
@@ -7400,7 +7993,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="F153" s="5">
         <v>8</v>
@@ -7409,13 +8002,13 @@
         <v>60000</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="154" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C154" s="5">
         <v>5009</v>
       </c>
@@ -7423,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="F154" s="5">
         <v>9</v>
@@ -7432,13 +8025,13 @@
         <v>80000</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="155" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C155" s="5">
         <v>5010</v>
       </c>
@@ -7446,7 +8039,7 @@
         <v>5</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="F155" s="5">
         <v>10</v>
@@ -7455,13 +8048,13 @@
         <v>100000</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="156" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C156" s="5">
         <v>5011</v>
       </c>
@@ -7469,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="F156" s="5">
         <v>11</v>
@@ -7478,13 +8071,13 @@
         <v>120000</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="157" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C157" s="5">
         <v>5012</v>
       </c>
@@ -7492,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>357</v>
+        <v>449</v>
       </c>
       <c r="F157" s="5">
         <v>12</v>
@@ -7501,13 +8094,13 @@
         <v>140000</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="158" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C158" s="5">
         <v>5013</v>
       </c>
@@ -7515,7 +8108,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="F158" s="5">
         <v>13</v>
@@ -7524,13 +8117,13 @@
         <v>160000</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="159" spans="3:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C159" s="5">
         <v>5014</v>
       </c>
@@ -7538,7 +8131,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="F159" s="5">
         <v>14</v>
@@ -7547,13 +8140,13 @@
         <v>180000</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="160" spans="3:11" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C160" s="5">
         <v>5015</v>
       </c>
@@ -7561,7 +8154,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="F160" s="5">
         <v>15</v>
@@ -7570,13 +8163,13 @@
         <v>200000</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C161" s="5">
         <f>C160+1</f>
         <v>5016</v>
@@ -7585,7 +8178,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>361</v>
+        <v>461</v>
       </c>
       <c r="F161" s="5">
         <f>F160+1</f>
@@ -7595,13 +8188,13 @@
         <v>230000</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C162" s="5">
         <f t="shared" ref="C162:C180" si="8">C161+1</f>
         <v>5017</v>
@@ -7610,7 +8203,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>362</v>
+        <v>464</v>
       </c>
       <c r="F162" s="5">
         <f t="shared" ref="F162:F180" si="9">F161+1</f>
@@ -7620,13 +8213,13 @@
         <v>270000</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="163" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C163" s="5">
         <f t="shared" si="8"/>
         <v>5018</v>
@@ -7635,7 +8228,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
       <c r="F163" s="5">
         <f t="shared" si="9"/>
@@ -7645,13 +8238,13 @@
         <v>320000</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C164" s="5">
         <f t="shared" si="8"/>
         <v>5019</v>
@@ -7660,7 +8253,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="F164" s="5">
         <f t="shared" si="9"/>
@@ -7670,13 +8263,13 @@
         <v>380000</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C165" s="5">
         <f t="shared" si="8"/>
         <v>5020</v>
@@ -7685,7 +8278,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="F165" s="5">
         <f t="shared" si="9"/>
@@ -7695,13 +8288,13 @@
         <v>450000</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="166" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="166" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C166" s="5">
         <f t="shared" si="8"/>
         <v>5021</v>
@@ -7710,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="F166" s="5">
         <f t="shared" si="9"/>
@@ -7720,13 +8313,13 @@
         <v>520000</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C167" s="5">
         <f t="shared" si="8"/>
         <v>5022</v>
@@ -7735,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="F167" s="5">
         <f t="shared" si="9"/>
@@ -7745,13 +8338,13 @@
         <v>600000</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C168" s="5">
         <f t="shared" si="8"/>
         <v>5023</v>
@@ -7760,7 +8353,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="F168" s="5">
         <f t="shared" si="9"/>
@@ -7770,13 +8363,13 @@
         <v>680000</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="169" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C169" s="5">
         <f t="shared" si="8"/>
         <v>5024</v>
@@ -7785,7 +8378,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="F169" s="5">
         <f t="shared" si="9"/>
@@ -7795,13 +8388,13 @@
         <v>760000</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C170" s="5">
         <f t="shared" si="8"/>
         <v>5025</v>
@@ -7810,7 +8403,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="F170" s="5">
         <f t="shared" si="9"/>
@@ -7820,13 +8413,13 @@
         <v>850000</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C171" s="5">
         <f t="shared" si="8"/>
         <v>5026</v>
@@ -7835,7 +8428,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="F171" s="5">
         <f t="shared" si="9"/>
@@ -7845,13 +8438,13 @@
         <v>1000000</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="172" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="172" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C172" s="5">
         <f t="shared" si="8"/>
         <v>5027</v>
@@ -7860,7 +8453,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="F172" s="5">
         <f t="shared" si="9"/>
@@ -7870,13 +8463,13 @@
         <v>1250000</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="173" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C173" s="5">
         <f t="shared" si="8"/>
         <v>5028</v>
@@ -7885,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="F173" s="5">
         <f t="shared" si="9"/>
@@ -7895,13 +8488,13 @@
         <v>1500000</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="174" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C174" s="5">
         <f t="shared" si="8"/>
         <v>5029</v>
@@ -7910,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>374</v>
+        <v>500</v>
       </c>
       <c r="F174" s="5">
         <f t="shared" si="9"/>
@@ -7920,13 +8513,13 @@
         <v>1750000</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="175" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C175" s="5">
         <f t="shared" si="8"/>
         <v>5030</v>
@@ -7935,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="F175" s="5">
         <f t="shared" si="9"/>
@@ -7945,13 +8538,13 @@
         <v>2000000</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C176" s="5">
         <f t="shared" si="8"/>
         <v>5031</v>
@@ -7960,7 +8553,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="F176" s="5">
         <f t="shared" si="9"/>
@@ -7970,13 +8563,13 @@
         <v>2500000</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="177" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C177" s="5">
         <f t="shared" si="8"/>
         <v>5032</v>
@@ -7985,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
       <c r="F177" s="5">
         <f t="shared" si="9"/>
@@ -7995,13 +8588,13 @@
         <v>3000000</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="178" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="178" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C178" s="5">
         <f t="shared" si="8"/>
         <v>5033</v>
@@ -8010,7 +8603,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>378</v>
+        <v>512</v>
       </c>
       <c r="F178" s="5">
         <f t="shared" si="9"/>
@@ -8020,13 +8613,13 @@
         <v>4000000</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="179" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C179" s="5">
         <f t="shared" si="8"/>
         <v>5034</v>
@@ -8035,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>379</v>
+        <v>515</v>
       </c>
       <c r="F179" s="5">
         <f t="shared" si="9"/>
@@ -8045,13 +8638,13 @@
         <v>5000000</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="180" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="180" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C180" s="5">
         <f t="shared" si="8"/>
         <v>5035</v>
@@ -8060,7 +8653,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="F180" s="5">
         <f t="shared" si="9"/>
@@ -8070,13 +8663,13 @@
         <v>6000000</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I180" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="181" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="181" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C181" s="5">
         <v>6001</v>
       </c>
@@ -8084,7 +8677,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
       <c r="F181" s="5">
         <v>1</v>
@@ -8093,14 +8686,14 @@
         <v>3000</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="I181" s="7" t="str">
         <f>"生命上限提升+"&amp;F181&amp;"%,眩晕抵抗概率+"&amp;F181&amp;"%"</f>
         <v>生命上限提升+1%,眩晕抵抗概率+1%</v>
       </c>
     </row>
-    <row r="182" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C182" s="5">
         <v>6002</v>
       </c>
@@ -8108,7 +8701,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>383</v>
+        <v>523</v>
       </c>
       <c r="F182" s="5">
         <v>2</v>
@@ -8117,14 +8710,14 @@
         <v>6000</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>384</v>
+        <v>524</v>
       </c>
       <c r="I182" s="7" t="str">
         <f t="shared" ref="I182:I200" si="10">"生命上限提升+"&amp;F182&amp;"%,眩晕抵抗概率+"&amp;F182&amp;"%"</f>
         <v>生命上限提升+2%,眩晕抵抗概率+2%</v>
       </c>
     </row>
-    <row r="183" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C183" s="5">
         <v>6003</v>
       </c>
@@ -8132,7 +8725,7 @@
         <v>6</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>385</v>
+        <v>525</v>
       </c>
       <c r="F183" s="5">
         <v>3</v>
@@ -8141,14 +8734,14 @@
         <v>10000</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>386</v>
+        <v>526</v>
       </c>
       <c r="I183" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+3%,眩晕抵抗概率+3%</v>
       </c>
     </row>
-    <row r="184" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C184" s="5">
         <v>6004</v>
       </c>
@@ -8156,7 +8749,7 @@
         <v>6</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>387</v>
+        <v>527</v>
       </c>
       <c r="F184" s="5">
         <v>4</v>
@@ -8165,14 +8758,14 @@
         <v>15000</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>388</v>
+        <v>528</v>
       </c>
       <c r="I184" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+4%,眩晕抵抗概率+4%</v>
       </c>
     </row>
-    <row r="185" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C185" s="5">
         <v>6005</v>
       </c>
@@ -8180,7 +8773,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>389</v>
+        <v>529</v>
       </c>
       <c r="F185" s="5">
         <v>5</v>
@@ -8189,14 +8782,14 @@
         <v>22500</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>390</v>
+        <v>530</v>
       </c>
       <c r="I185" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+5%,眩晕抵抗概率+5%</v>
       </c>
     </row>
-    <row r="186" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C186" s="5">
         <v>6006</v>
       </c>
@@ -8204,7 +8797,7 @@
         <v>6</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>391</v>
+        <v>531</v>
       </c>
       <c r="F186" s="5">
         <v>6</v>
@@ -8213,14 +8806,14 @@
         <v>32500</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>392</v>
+        <v>532</v>
       </c>
       <c r="I186" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+6%,眩晕抵抗概率+6%</v>
       </c>
     </row>
-    <row r="187" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C187" s="5">
         <v>6007</v>
       </c>
@@ -8228,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>393</v>
+        <v>533</v>
       </c>
       <c r="F187" s="5">
         <v>7</v>
@@ -8237,14 +8830,14 @@
         <v>45000</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>394</v>
+        <v>534</v>
       </c>
       <c r="I187" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+7%,眩晕抵抗概率+7%</v>
       </c>
     </row>
-    <row r="188" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C188" s="5">
         <v>6008</v>
       </c>
@@ -8252,7 +8845,7 @@
         <v>6</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>395</v>
+        <v>535</v>
       </c>
       <c r="F188" s="5">
         <v>8</v>
@@ -8261,14 +8854,14 @@
         <v>60000</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>396</v>
+        <v>536</v>
       </c>
       <c r="I188" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+8%,眩晕抵抗概率+8%</v>
       </c>
     </row>
-    <row r="189" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C189" s="5">
         <v>6009</v>
       </c>
@@ -8276,7 +8869,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>397</v>
+        <v>537</v>
       </c>
       <c r="F189" s="5">
         <v>9</v>
@@ -8285,14 +8878,14 @@
         <v>80000</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>398</v>
+        <v>538</v>
       </c>
       <c r="I189" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+9%,眩晕抵抗概率+9%</v>
       </c>
     </row>
-    <row r="190" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C190" s="5">
         <v>6010</v>
       </c>
@@ -8300,7 +8893,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>399</v>
+        <v>539</v>
       </c>
       <c r="F190" s="5">
         <v>10</v>
@@ -8309,14 +8902,14 @@
         <v>100000</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="I190" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+10%,眩晕抵抗概率+10%</v>
       </c>
     </row>
-    <row r="191" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C191" s="5">
         <v>6011</v>
       </c>
@@ -8324,7 +8917,7 @@
         <v>6</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>401</v>
+        <v>541</v>
       </c>
       <c r="F191" s="5">
         <v>11</v>
@@ -8333,14 +8926,14 @@
         <v>120000</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>402</v>
+        <v>542</v>
       </c>
       <c r="I191" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+11%,眩晕抵抗概率+11%</v>
       </c>
     </row>
-    <row r="192" spans="3:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" s="2" customFormat="1" ht="19.5" customHeight="1" spans="3:9">
       <c r="C192" s="5">
         <v>6012</v>
       </c>
@@ -8348,7 +8941,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>403</v>
+        <v>543</v>
       </c>
       <c r="F192" s="5">
         <v>12</v>
@@ -8357,14 +8950,14 @@
         <v>140000</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="I192" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+12%,眩晕抵抗概率+12%</v>
       </c>
     </row>
-    <row r="193" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C193" s="5">
         <v>6013</v>
       </c>
@@ -8372,7 +8965,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="F193" s="5">
         <v>13</v>
@@ -8381,14 +8974,14 @@
         <v>160000</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="I193" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+13%,眩晕抵抗概率+13%</v>
       </c>
     </row>
-    <row r="194" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C194" s="5">
         <v>6014</v>
       </c>
@@ -8396,7 +8989,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>407</v>
+        <v>547</v>
       </c>
       <c r="F194" s="5">
         <v>14</v>
@@ -8405,14 +8998,14 @@
         <v>180000</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>408</v>
+        <v>548</v>
       </c>
       <c r="I194" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+14%,眩晕抵抗概率+14%</v>
       </c>
     </row>
-    <row r="195" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C195" s="5">
         <v>6015</v>
       </c>
@@ -8420,7 +9013,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>409</v>
+        <v>549</v>
       </c>
       <c r="F195" s="5">
         <v>15</v>
@@ -8429,14 +9022,14 @@
         <v>200000</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="I195" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+15%,眩晕抵抗概率+15%</v>
       </c>
     </row>
-    <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" ht="20.1" customHeight="1" spans="3:9">
       <c r="C196" s="5">
         <f>C195+1</f>
         <v>6016</v>
@@ -8445,7 +9038,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="F196" s="5">
         <f>F195+1</f>
@@ -8455,14 +9048,14 @@
         <v>230000</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="I196" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+16%,眩晕抵抗概率+16%</v>
       </c>
     </row>
-    <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" ht="20.1" customHeight="1" spans="3:9">
       <c r="C197" s="5">
         <f t="shared" ref="C197:C210" si="11">C196+1</f>
         <v>6017</v>
@@ -8471,7 +9064,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="F197" s="5">
         <f t="shared" ref="F197:F210" si="12">F196+1</f>
@@ -8481,14 +9074,14 @@
         <v>270000</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>414</v>
+        <v>554</v>
       </c>
       <c r="I197" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+17%,眩晕抵抗概率+17%</v>
       </c>
     </row>
-    <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" ht="20.1" customHeight="1" spans="3:9">
       <c r="C198" s="5">
         <f t="shared" si="11"/>
         <v>6018</v>
@@ -8497,7 +9090,7 @@
         <v>6</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="F198" s="5">
         <f t="shared" si="12"/>
@@ -8507,14 +9100,14 @@
         <v>320000</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>416</v>
+        <v>556</v>
       </c>
       <c r="I198" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+18%,眩晕抵抗概率+18%</v>
       </c>
     </row>
-    <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" ht="20.1" customHeight="1" spans="3:9">
       <c r="C199" s="5">
         <f t="shared" si="11"/>
         <v>6019</v>
@@ -8523,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>417</v>
+        <v>557</v>
       </c>
       <c r="F199" s="5">
         <f t="shared" si="12"/>
@@ -8533,14 +9126,14 @@
         <v>380000</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>418</v>
+        <v>558</v>
       </c>
       <c r="I199" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+19%,眩晕抵抗概率+19%</v>
       </c>
     </row>
-    <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" ht="20.1" customHeight="1" spans="3:9">
       <c r="C200" s="5">
         <f t="shared" si="11"/>
         <v>6020</v>
@@ -8549,7 +9142,7 @@
         <v>6</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>419</v>
+        <v>559</v>
       </c>
       <c r="F200" s="5">
         <f t="shared" si="12"/>
@@ -8559,14 +9152,14 @@
         <v>450000</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="I200" s="7" t="str">
         <f t="shared" si="10"/>
         <v>生命上限提升+20%,眩晕抵抗概率+20%</v>
       </c>
     </row>
-    <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" ht="20.1" customHeight="1" spans="3:9">
       <c r="C201" s="5">
         <f t="shared" si="11"/>
         <v>6021</v>
@@ -8575,7 +9168,7 @@
         <v>6</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>421</v>
+        <v>561</v>
       </c>
       <c r="F201" s="5">
         <f t="shared" si="12"/>
@@ -8585,14 +9178,14 @@
         <v>520000</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>422</v>
+        <v>562</v>
       </c>
       <c r="I201" s="5" t="str">
         <f t="shared" ref="I201:I205" si="13">"生命上限提升+"&amp;F201&amp;"%,眩晕抵抗概率+"&amp;F201&amp;"%"</f>
         <v>生命上限提升+21%,眩晕抵抗概率+21%</v>
       </c>
     </row>
-    <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" ht="20.1" customHeight="1" spans="3:9">
       <c r="C202" s="5">
         <f t="shared" si="11"/>
         <v>6022</v>
@@ -8601,7 +9194,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>423</v>
+        <v>563</v>
       </c>
       <c r="F202" s="5">
         <f t="shared" si="12"/>
@@ -8611,14 +9204,14 @@
         <v>600000</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>424</v>
+        <v>564</v>
       </c>
       <c r="I202" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+22%,眩晕抵抗概率+22%</v>
       </c>
     </row>
-    <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" ht="20.1" customHeight="1" spans="3:9">
       <c r="C203" s="5">
         <f t="shared" si="11"/>
         <v>6023</v>
@@ -8627,7 +9220,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>425</v>
+        <v>565</v>
       </c>
       <c r="F203" s="5">
         <f t="shared" si="12"/>
@@ -8637,14 +9230,14 @@
         <v>680000</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>426</v>
+        <v>566</v>
       </c>
       <c r="I203" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+23%,眩晕抵抗概率+23%</v>
       </c>
     </row>
-    <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" ht="20.1" customHeight="1" spans="3:9">
       <c r="C204" s="5">
         <f t="shared" si="11"/>
         <v>6024</v>
@@ -8653,7 +9246,7 @@
         <v>6</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>427</v>
+        <v>567</v>
       </c>
       <c r="F204" s="5">
         <f t="shared" si="12"/>
@@ -8663,14 +9256,14 @@
         <v>760000</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>428</v>
+        <v>568</v>
       </c>
       <c r="I204" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+24%,眩晕抵抗概率+24%</v>
       </c>
     </row>
-    <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" ht="20.1" customHeight="1" spans="3:9">
       <c r="C205" s="5">
         <f t="shared" si="11"/>
         <v>6025</v>
@@ -8679,7 +9272,7 @@
         <v>6</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>429</v>
+        <v>569</v>
       </c>
       <c r="F205" s="5">
         <f t="shared" si="12"/>
@@ -8689,14 +9282,14 @@
         <v>850000</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>430</v>
+        <v>570</v>
       </c>
       <c r="I205" s="5" t="str">
         <f t="shared" si="13"/>
         <v>生命上限提升+25%,眩晕抵抗概率+25%</v>
       </c>
     </row>
-    <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" ht="20.1" customHeight="1" spans="3:9">
       <c r="C206" s="5">
         <f t="shared" si="11"/>
         <v>6026</v>
@@ -8705,7 +9298,7 @@
         <v>6</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>431</v>
+        <v>571</v>
       </c>
       <c r="F206" s="5">
         <f t="shared" si="12"/>
@@ -8715,14 +9308,14 @@
         <v>1000000</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>432</v>
+        <v>572</v>
       </c>
       <c r="I206" s="5" t="str">
         <f t="shared" ref="I206:I215" si="14">"生命上限提升+"&amp;F206&amp;"%,眩晕抵抗概率+"&amp;F206&amp;"%"</f>
         <v>生命上限提升+26%,眩晕抵抗概率+26%</v>
       </c>
     </row>
-    <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" ht="20.1" customHeight="1" spans="3:9">
       <c r="C207" s="5">
         <f t="shared" si="11"/>
         <v>6027</v>
@@ -8731,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>433</v>
+        <v>573</v>
       </c>
       <c r="F207" s="5">
         <f t="shared" si="12"/>
@@ -8741,14 +9334,14 @@
         <v>1250000</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>434</v>
+        <v>574</v>
       </c>
       <c r="I207" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+27%,眩晕抵抗概率+27%</v>
       </c>
     </row>
-    <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" ht="20.1" customHeight="1" spans="3:9">
       <c r="C208" s="5">
         <f t="shared" si="11"/>
         <v>6028</v>
@@ -8757,7 +9350,7 @@
         <v>6</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>435</v>
+        <v>575</v>
       </c>
       <c r="F208" s="5">
         <f t="shared" si="12"/>
@@ -8767,14 +9360,14 @@
         <v>1500000</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>436</v>
+        <v>576</v>
       </c>
       <c r="I208" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+28%,眩晕抵抗概率+28%</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" ht="20.1" customHeight="1" spans="3:9">
       <c r="C209" s="5">
         <f t="shared" si="11"/>
         <v>6029</v>
@@ -8783,7 +9376,7 @@
         <v>6</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>437</v>
+        <v>577</v>
       </c>
       <c r="F209" s="5">
         <f t="shared" si="12"/>
@@ -8793,14 +9386,14 @@
         <v>1750000</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>438</v>
+        <v>578</v>
       </c>
       <c r="I209" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+29%,眩晕抵抗概率+29%</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" ht="20.1" customHeight="1" spans="3:9">
       <c r="C210" s="5">
         <f t="shared" si="11"/>
         <v>6030</v>
@@ -8809,7 +9402,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>439</v>
+        <v>579</v>
       </c>
       <c r="F210" s="5">
         <f t="shared" si="12"/>
@@ -8819,15 +9412,15 @@
         <v>2000000</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="I210" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+30%,眩晕抵抗概率+30%</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C211" s="8">
+    <row r="211" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C211" s="9">
         <f t="shared" ref="C211:C215" si="15">C210+1</f>
         <v>6031</v>
       </c>
@@ -8835,9 +9428,9 @@
         <v>6</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F211" s="8">
+        <v>581</v>
+      </c>
+      <c r="F211" s="9">
         <f t="shared" ref="F211:F215" si="16">F210+1</f>
         <v>31</v>
       </c>
@@ -8845,15 +9438,15 @@
         <v>2500000</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>442</v>
+        <v>582</v>
       </c>
       <c r="I211" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+31%,眩晕抵抗概率+31%</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C212" s="8">
+    <row r="212" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C212" s="9">
         <f t="shared" si="15"/>
         <v>6032</v>
       </c>
@@ -8861,9 +9454,9 @@
         <v>6</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F212" s="8">
+        <v>583</v>
+      </c>
+      <c r="F212" s="9">
         <f t="shared" si="16"/>
         <v>32</v>
       </c>
@@ -8871,18 +9464,16 @@
         <v>3000000</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>444</v>
+        <v>584</v>
       </c>
       <c r="I212" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+32%,眩晕抵抗概率+32%</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C213" s="8">
+    <row r="213" ht="20.1" customHeight="1" spans="2:9">
+      <c r="B213" s="10"/>
+      <c r="C213" s="9">
         <f t="shared" si="15"/>
         <v>6033</v>
       </c>
@@ -8890,9 +9481,9 @@
         <v>6</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F213" s="8">
+        <v>585</v>
+      </c>
+      <c r="F213" s="9">
         <f t="shared" si="16"/>
         <v>33</v>
       </c>
@@ -8900,15 +9491,15 @@
         <v>4000000</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>447</v>
+        <v>586</v>
       </c>
       <c r="I213" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+33%,眩晕抵抗概率+33%</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C214" s="8">
+    <row r="214" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C214" s="9">
         <f t="shared" si="15"/>
         <v>6034</v>
       </c>
@@ -8916,9 +9507,9 @@
         <v>6</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F214" s="8">
+        <v>587</v>
+      </c>
+      <c r="F214" s="9">
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
@@ -8926,15 +9517,15 @@
         <v>5000000</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
       <c r="I214" s="5" t="str">
         <f t="shared" si="14"/>
         <v>生命上限提升+34%,眩晕抵抗概率+34%</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C215" s="8">
+    <row r="215" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C215" s="9">
         <f t="shared" si="15"/>
         <v>6035</v>
       </c>
@@ -8942,9 +9533,9 @@
         <v>6</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F215" s="8">
+        <v>589</v>
+      </c>
+      <c r="F215" s="9">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
@@ -8952,7 +9543,7 @@
         <v>6000000</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="I215" s="5" t="str">
         <f t="shared" si="14"/>
@@ -8960,12 +9551,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
